--- a/AAII_Financials/Quarterly/TMO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TMO_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,206 +662,231 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43736</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43645</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43554</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43372</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42917</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42826</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6230000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>6829000</v>
+      </c>
+      <c r="F8" s="3">
         <v>6272000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>6316000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>6125000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>6507000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>5920000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>6078000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>5853000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>6046800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>5116200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>4990000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>4765000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>4953200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>4490900</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3490000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3794000</v>
+      </c>
+      <c r="F9" s="3">
         <v>3509000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>3493000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>3418000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>3583000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>3305000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>3340000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>3273000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>3377600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>2816000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>2706900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>2572500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>2674400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>2437000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2740000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3035000</v>
+      </c>
+      <c r="F10" s="3">
         <v>2763000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>2823000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>2707000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>2924000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>2615000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>2738000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>2580000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>2669200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>2300200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>2283100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>2192500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>2278800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>2053900</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -878,52 +903,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>245000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>262000</v>
+      </c>
+      <c r="F12" s="3">
         <v>247000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>246000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>248000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>251000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>240000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>242000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>234000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>232900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>218100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>221600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>215400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>212600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>183300</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -966,52 +999,64 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>44000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>37000</v>
+      </c>
+      <c r="F14" s="3">
         <v>38000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>-448000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>11000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>37000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>-31000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>20000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>53000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>5200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>85500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>29300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>55000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>57000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>117400</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1054,8 +1099,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1069,96 +1120,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>5324000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>5597000</v>
+      </c>
+      <c r="F17" s="3">
         <v>5326000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>4820000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>5205000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>5359000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>5008000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>5141000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>5067000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>5088900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>4480000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>4238500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>4142600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>4200600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>3949800</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>906000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1232000</v>
+      </c>
+      <c r="F18" s="3">
         <v>946000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>1496000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>920000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>1148000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>912000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>937000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>786000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>957900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>636200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>751500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>622400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>752600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>541100</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1175,228 +1240,260 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-52000</v>
+      </c>
+      <c r="F20" s="3">
         <v>40000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>78000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>86000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>36000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>60000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>39000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>11000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>28300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>1100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>7700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>15900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>30600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1561000</v>
+        <v>1528000</v>
       </c>
       <c r="E21" s="3">
-        <v>2145000</v>
+        <v>1756000</v>
       </c>
       <c r="F21" s="3">
         <v>1561000</v>
       </c>
       <c r="G21" s="3">
+        <v>2145000</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1561000</v>
+      </c>
+      <c r="I21" s="3">
         <v>1742000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>1535000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>1547000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1372000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>1559700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>1154100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>1237400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>1102800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>1257000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>974200</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>126000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>142000</v>
+      </c>
+      <c r="F22" s="3">
         <v>164000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>181000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>189000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>172000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>162000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>170000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>163000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>166300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>156700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>133600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>135400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>131300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>113300</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>828000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1038000</v>
+      </c>
+      <c r="F23" s="3">
         <v>822000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>1393000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>817000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>1012000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>810000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>806000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>634000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>819900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>480600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>625600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>502900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>651900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>427900</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>36000</v>
+      </c>
+      <c r="F24" s="3">
         <v>34000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>274000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>22000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>114000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>54000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>54000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-15000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>85400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-53300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>13400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-48500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>19200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-45600</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1439,8 +1536,14 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
@@ -1448,43 +1551,49 @@
         <v>788000</v>
       </c>
       <c r="E26" s="3">
+        <v>1002000</v>
+      </c>
+      <c r="F26" s="3">
+        <v>788000</v>
+      </c>
+      <c r="G26" s="3">
         <v>1119000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>795000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>898000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>756000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>752000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>649000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>734500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>533900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>612200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>551400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>632700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>473500</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
@@ -1492,43 +1601,49 @@
         <v>788000</v>
       </c>
       <c r="E27" s="3">
+        <v>1002000</v>
+      </c>
+      <c r="F27" s="3">
+        <v>788000</v>
+      </c>
+      <c r="G27" s="3">
         <v>1119000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>795000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>898000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>756000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>752000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>649000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>734500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>533900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>612200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>551400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>632700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>473500</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1571,52 +1686,64 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>-28000</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>20000</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>-47000</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-70000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>-206400</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-600</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-3200</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1659,8 +1786,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1703,96 +1836,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-48000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>52000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-40000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-78000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-86000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-36000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-60000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-39000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-11000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-28300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-1100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-7700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-15900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-30600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>788000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1002000</v>
+      </c>
+      <c r="F33" s="3">
         <v>760000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>1119000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>815000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>898000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>709000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>752000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>579000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>528100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>533900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>611600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>551400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>629500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>473500</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1835,101 +1986,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>788000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1002000</v>
+      </c>
+      <c r="F35" s="3">
         <v>760000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>1119000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>815000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>898000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>709000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>752000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>579000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>528100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>533900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>611600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>551400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>629500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>473500</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43736</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43645</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43554</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43372</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42917</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42826</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1946,8 +2115,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1964,272 +2135,310 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>2981000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2399000</v>
+      </c>
+      <c r="F41" s="3">
         <v>1273000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>2288000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1106000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>2103000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1098000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>937000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>950000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1335000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>741100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>611000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>713300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>786200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1970000</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
+        <v>110000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>37000</v>
+      </c>
+      <c r="F42" s="3">
         <v>7000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>6000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>9000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>31000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>14000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>3000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>7000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>10000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>7300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>53500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>11600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>15800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>5166000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>4952000</v>
+      </c>
+      <c r="F43" s="3">
         <v>4384000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>4129000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>4155000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>4136000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>4257000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>4441000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>4530000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>4311000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>4209100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>3673200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>3523500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>3426800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>2895100</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>3454000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>3370000</v>
+      </c>
+      <c r="F44" s="3">
         <v>3308000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>3209000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>3124000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>3005000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>2982000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>2866000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>2891000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>2971000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>3125500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>2422200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>2327100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>2213300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>2390900</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>1027000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1135000</v>
+      </c>
+      <c r="F45" s="3">
         <v>1542000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1591000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1545000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1350000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1215000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1227000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1210000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>794000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>761000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>692600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>672600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>578900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>933600</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>12738000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>11893000</v>
+      </c>
+      <c r="F46" s="3">
         <v>10514000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>11223000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>9939000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>10625000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>9566000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>9474000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>9588000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>9421000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>8844000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>7452500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>7248100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>7021000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>8204400</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -2272,96 +2481,114 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>4736000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>5448000</v>
+      </c>
+      <c r="F48" s="3">
         <v>5065000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>5027000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>4792000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>4165000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>3978000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>3952000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>4059000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>4047000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>3931600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>2599700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>2563300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>2577800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>2599300</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>39157000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>39728000</v>
+      </c>
+      <c r="F49" s="3">
         <v>39935000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>40620000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>39725000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>40325000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>40361000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>40800000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>41755000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>41974000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>42158500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>35421100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>35382000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>35296800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>36102400</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2404,8 +2631,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2448,52 +2681,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>2057000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1312000</v>
+      </c>
+      <c r="F52" s="3">
         <v>1215000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>1100000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>1140000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>1117000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>1173000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>1177000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1178000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1227000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1051200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>1040400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>1020200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>1011900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>1104600</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2536,52 +2781,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>58688000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>58381000</v>
+      </c>
+      <c r="F54" s="3">
         <v>56729000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>57970000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>55596000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>56232000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>55078000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>55403000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>56580000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>56669000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>55985300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>46513700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>46213600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>45907500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>48010700</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2598,8 +2855,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2616,272 +2875,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>1599000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1920000</v>
+      </c>
+      <c r="F57" s="3">
         <v>1659000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1391000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1462000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1615000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1344000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1359000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1354000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1428000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1123800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>982200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1031000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>926200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>941700</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>738000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>676000</v>
+      </c>
+      <c r="F58" s="3">
         <v>661000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>2377000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1336000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>1271000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>1014000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>1711000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>2814000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>2135000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>2762300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1540400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1882400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1255500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1972100</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>3163000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>3601000</v>
+      </c>
+      <c r="F59" s="3">
         <v>3524000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>3741000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>3100000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>3261000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>2838000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>2910000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2904000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>3485000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>3145200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>2553200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>2389500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>2684100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>2346100</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>5500000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>6197000</v>
+      </c>
+      <c r="F60" s="3">
         <v>5844000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>7509000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>5898000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>6147000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>5196000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>5980000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>7072000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>7048000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>7031300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>5075800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>5302900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>4865800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>5259900</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>19231000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>17076000</v>
+      </c>
+      <c r="F61" s="3">
         <v>16392000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>16663000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>16812000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>17719000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>17760000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>17709000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>18122000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>18873000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>19230400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>15255700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>15188400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>15372400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>16940400</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>5398000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>5433000</v>
+      </c>
+      <c r="F62" s="3">
         <v>5138000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>5069000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>5193000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>4780000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>5232000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>5269000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>5263000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>5335000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>5021800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>3790600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>3927100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>4130000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>4151800</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2924,8 +3221,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2968,8 +3271,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3012,52 +3321,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>30129000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>28706000</v>
+      </c>
+      <c r="F66" s="3">
         <v>27374000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>29241000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>27903000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>28646000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>28188000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>28958000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>30457000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>31256000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>31283500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>24122100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>24418400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>24368200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>26352100</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3074,8 +3395,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3118,8 +3441,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3162,8 +3491,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3206,8 +3541,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3250,52 +3591,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>22791000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>22092000</v>
+      </c>
+      <c r="F72" s="3">
         <v>21165000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>20482000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>19439000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>18696000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>17866000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>17226000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>16542000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>15914000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>15445800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>14972300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>14419400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>13926900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>13356500</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3338,8 +3691,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3382,8 +3741,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3426,52 +3791,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>28559000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>29675000</v>
+      </c>
+      <c r="F76" s="3">
         <v>29355000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>28729000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>27693000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>27586000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>26890000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>26445000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>26123000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>25413000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>24701800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>22391600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>21795200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>21539300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>21658600</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -3514,101 +3891,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43736</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43645</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43554</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43372</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42917</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42826</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>788000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1002000</v>
+      </c>
+      <c r="F81" s="3">
         <v>760000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>1119000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>815000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>898000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>709000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>752000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>579000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>528100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>533900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>611600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>551400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>629500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>473500</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -3625,52 +4020,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>574000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>576000</v>
+      </c>
+      <c r="F83" s="3">
         <v>575000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>571000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>555000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>558000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>563000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>571000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>575000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>573500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>516800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>478200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>464500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>473800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>433000</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -3713,8 +4116,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -3757,8 +4166,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -3801,8 +4216,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -3845,8 +4266,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -3889,52 +4316,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>356000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>1913000</v>
+      </c>
+      <c r="F89" s="3">
         <v>1117000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>1294000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>649000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>1801000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>1220000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>1444000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>78000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>1866500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>928600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>848400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>361500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>1103600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>804400</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -3951,52 +4390,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-253000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-289000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-216000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-220000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-201000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-284000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-173000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-183000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-118000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-215200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-111400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-88000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-93400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>177400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-162000</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -4039,8 +4486,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -4083,52 +4536,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-260000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-339000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-198000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-769000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-181000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-721000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-168000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-185000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-179000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-283400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-6968300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-95400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-381900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-104200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-4192600</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -4145,52 +4610,60 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-77000</v>
+        <v>-76000</v>
       </c>
       <c r="E96" s="3">
         <v>-76000</v>
       </c>
       <c r="F96" s="3">
+        <v>-77000</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-76000</v>
+      </c>
+      <c r="H96" s="3">
         <v>-68000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-68000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-69000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-69000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-60000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-59900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-59300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-58700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-59100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-59200</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-59800</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -4233,8 +4706,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -4277,8 +4756,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -4321,136 +4806,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>619000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-514000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-1869000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>690000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-1425000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-13000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-876000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-1006000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-342000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-1144300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>6080600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-963000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-119300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-2191500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>4753300</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>-127000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>57000</v>
+      </c>
+      <c r="F101" s="3">
         <v>-59000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-29000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-32000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-61000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-21000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-272000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>57000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>163900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>87900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>102400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>65800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-110100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-22200</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>588000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>1117000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1009000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>1186000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-989000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>1006000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>155000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-19000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-386000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>602700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>128800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-107600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-73900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-1199800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>1310400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TMO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TMO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="92">
   <si>
     <t>TMO</t>
   </si>
@@ -295,6 +295,9 @@
   </si>
   <si>
     <t xml:space="preserve">Change In Cash and Cash Equivalents </t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -653,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,231 +665,244 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E7" s="2">
         <v>43918</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43736</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43645</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43554</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43372</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42917</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42826</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6917000</v>
+      </c>
+      <c r="E8" s="3">
         <v>6230000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6829000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6272000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6316000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6125000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6507000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5920000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6078000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5853000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6046800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5116200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4990000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4765000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4953200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4490900</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3540000</v>
+      </c>
+      <c r="E9" s="3">
         <v>3490000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3794000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3509000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3493000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3418000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3583000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3305000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3340000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3273000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3377600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2816000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2706900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2572500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2674400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2437000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3377000</v>
+      </c>
+      <c r="E10" s="3">
         <v>2740000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3035000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2763000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2823000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2707000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2924000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2615000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2738000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2580000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2669200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2300200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2283100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2192500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2278800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2053900</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -905,58 +921,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>264000</v>
+      </c>
+      <c r="E12" s="3">
         <v>245000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>262000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>247000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>246000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>248000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>251000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>240000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>242000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>234000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>232900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>218100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>221600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>215400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>212600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>183300</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1005,58 +1025,64 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>54000</v>
+      </c>
+      <c r="E14" s="3">
         <v>44000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>37000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>38000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-448000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>11000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>37000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-31000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>20000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>53000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>5200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>85500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>29300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>55000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>57000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>117400</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1105,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1122,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>5526000</v>
+      </c>
+      <c r="E17" s="3">
         <v>5324000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5597000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5326000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4820000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5205000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5359000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5008000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5141000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5067000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5088900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4480000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4238500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4142600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4200600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3949800</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>1391000</v>
+      </c>
+      <c r="E18" s="3">
         <v>906000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1232000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>946000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1496000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>920000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1148000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>912000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>937000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>786000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>957900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>636200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>751500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>622400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>752600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>541100</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1242,258 +1278,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E20" s="3">
         <v>48000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-52000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>40000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>78000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>86000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>36000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>60000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>39000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>11000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>28300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>7700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>15900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>30600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>1964000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1528000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1756000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1561000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2145000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1561000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1742000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1535000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1547000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1372000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1559700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1154100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1237400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1102800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1257000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>974200</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>137000</v>
+      </c>
+      <c r="E22" s="3">
         <v>126000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>142000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>164000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>181000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>189000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>172000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>162000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>170000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>163000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>166300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>156700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>133600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>135400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>131300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>113300</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>1253000</v>
+      </c>
+      <c r="E23" s="3">
         <v>828000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1038000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>822000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1393000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>817000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1012000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>810000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>806000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>634000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>819900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>480600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>625600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>502900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>651900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>427900</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>97000</v>
+      </c>
+      <c r="E24" s="3">
         <v>40000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>36000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>34000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>274000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>22000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>114000</v>
-      </c>
-      <c r="J24" s="3">
-        <v>54000</v>
       </c>
       <c r="K24" s="3">
         <v>54000</v>
       </c>
       <c r="L24" s="3">
+        <v>54000</v>
+      </c>
+      <c r="M24" s="3">
         <v>-15000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>85400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-53300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>13400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-48500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>19200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-45600</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1542,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>1156000</v>
+      </c>
+      <c r="E26" s="3">
         <v>788000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1002000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>788000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1119000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>795000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>898000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>756000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>752000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>649000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>734500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>533900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>612200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>551400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>632700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>473500</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>1156000</v>
+      </c>
+      <c r="E27" s="3">
         <v>788000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1002000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>788000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1119000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>795000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>898000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>756000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>752000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>649000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>734500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>533900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>612200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>551400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>632700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>473500</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1692,58 +1753,64 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>-28000</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>20000</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-47000</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-70000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-206400</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>-600</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>-3200</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1792,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1842,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-48000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>52000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-40000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-78000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-86000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-36000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-60000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-39000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-11000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-28300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-7700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-15900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-30600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>1156000</v>
+      </c>
+      <c r="E33" s="3">
         <v>788000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1002000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>760000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1119000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>815000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>898000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>709000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>752000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>579000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>528100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>533900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>611600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>551400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>629500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>473500</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1992,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>1156000</v>
+      </c>
+      <c r="E35" s="3">
         <v>788000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1002000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>760000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1119000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>815000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>898000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>709000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>752000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>579000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>528100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>533900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>611600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>551400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>629500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>473500</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E38" s="2">
         <v>43918</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43736</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43645</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43554</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43372</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42917</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42826</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2117,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2137,308 +2226,327 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>5818000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2981000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2399000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1273000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2288000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1106000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2103000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1098000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>937000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>950000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1335000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>741100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>611000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>713300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>786200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1970000</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E42" s="3">
         <v>110000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>37000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>7000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>6000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>9000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>31000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>14000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>7000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>10000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>7300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>53500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>11600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>15800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>5164000</v>
+      </c>
+      <c r="E43" s="3">
         <v>5166000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4952000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4384000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4129000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4155000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4136000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4257000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4441000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4530000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4311000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4209100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3673200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3523500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3426800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2895100</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>3648000</v>
+      </c>
+      <c r="E44" s="3">
         <v>3454000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3370000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3308000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3209000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3124000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3005000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2982000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2866000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2891000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2971000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3125500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2422200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2327100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2213300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2390900</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>1145000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1027000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1135000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1542000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1591000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1545000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1350000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1215000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1227000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1210000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>794000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>761000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>692600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>672600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>578900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>933600</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>15775000</v>
+      </c>
+      <c r="E46" s="3">
         <v>12738000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>11893000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>10514000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>11223000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>9939000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>10625000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>9566000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9474000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9588000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9421000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>8844000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>7452500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>7248100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>7021000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>8204400</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -2487,108 +2595,117 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>4887000</v>
+      </c>
+      <c r="E48" s="3">
         <v>4736000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5448000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5065000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5027000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4792000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4165000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3978000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3952000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4059000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4047000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3931600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2599700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2563300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2577800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2599300</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>38870000</v>
+      </c>
+      <c r="E49" s="3">
         <v>39157000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>39728000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>39935000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>40620000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>39725000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>40325000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>40361000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>40800000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>41755000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>41974000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>42158500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>35421100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>35382000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>35296800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>36102400</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2637,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2687,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>2061000</v>
+      </c>
+      <c r="E52" s="3">
         <v>2057000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1312000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1215000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1100000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1140000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1117000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1173000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1177000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1178000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1227000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1051200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1040400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1020200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1011900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1104600</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2787,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>61593000</v>
+      </c>
+      <c r="E54" s="3">
         <v>58688000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>58381000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>56729000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>57970000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>55596000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>56232000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>55078000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>55403000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>56580000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>56669000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>55985300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>46513700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>46213600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>45907500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>48010700</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2857,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2877,308 +3010,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>1385000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1599000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1920000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1659000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1391000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1462000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1615000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1344000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1359000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1354000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1428000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1123800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>982200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1031000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>926200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>941700</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>675000</v>
+      </c>
+      <c r="E58" s="3">
         <v>738000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>676000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>661000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2377000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1336000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1271000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1014000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1711000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2814000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2135000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2762300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1540400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1882400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1255500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1972100</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>3953000</v>
+      </c>
+      <c r="E59" s="3">
         <v>3163000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3601000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3524000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3741000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3100000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3261000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2838000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2910000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2904000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3485000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3145200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2553200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2389500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2684100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2346100</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>6013000</v>
+      </c>
+      <c r="E60" s="3">
         <v>5500000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6197000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5844000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7509000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5898000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6147000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5196000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5980000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7072000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7048000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7031300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5075800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5302900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4865800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5259900</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>20638000</v>
+      </c>
+      <c r="E61" s="3">
         <v>19231000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>17076000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>16392000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>16663000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>16812000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>17719000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>17760000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>17709000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>18122000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>18873000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>19230400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>15255700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>15188400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>15372400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>16940400</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>5067000</v>
+      </c>
+      <c r="E62" s="3">
         <v>5398000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>5433000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>5138000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>5069000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>5193000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>4780000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>5232000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5269000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5263000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5335000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>5021800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3790600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3927100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4130000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4151800</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3227,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3277,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3327,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>31718000</v>
+      </c>
+      <c r="E66" s="3">
         <v>30129000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>28706000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>27374000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>29241000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>27903000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>28646000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>28188000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>28958000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>30457000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>31256000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>31283500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>24122100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>24418400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>24368200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>26352100</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3397,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3447,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3497,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3547,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3597,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>23860000</v>
+      </c>
+      <c r="E72" s="3">
         <v>22791000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>22092000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>21165000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>20482000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>19439000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>18696000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>17866000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>17226000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>16542000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>15914000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>15445800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>14972300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>14419400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>13926900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>13356500</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3697,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3747,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3797,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>29875000</v>
+      </c>
+      <c r="E76" s="3">
         <v>28559000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>29675000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>29355000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>28729000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>27693000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>27586000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>26890000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>26445000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>26123000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>25413000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>24701800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>22391600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>21795200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>21539300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>21658600</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -3897,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E80" s="2">
         <v>43918</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43736</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43645</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43554</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43372</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42917</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42826</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>1156000</v>
+      </c>
+      <c r="E81" s="3">
         <v>788000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1002000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>760000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1119000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>815000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>898000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>709000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>752000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>579000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>528100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>533900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>611600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>551400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>629500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>473500</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4022,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
@@ -4031,49 +4233,52 @@
         <v>574000</v>
       </c>
       <c r="E83" s="3">
+        <v>574000</v>
+      </c>
+      <c r="F83" s="3">
         <v>576000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>575000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>571000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>555000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>558000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>563000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>571000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>575000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>573500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>516800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>478200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>464500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>473800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>433000</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4122,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -4172,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4222,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4272,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4322,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>1886000</v>
+      </c>
+      <c r="E89" s="3">
         <v>356000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1913000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1117000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1294000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>649000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1801000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1220000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1444000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>78000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1866500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>928600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>848400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>361500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1103600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>804400</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -4392,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-269000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-253000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-289000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-216000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-220000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-201000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-284000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-173000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-183000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-118000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-215200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-111400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-88000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-93400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>177400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-162000</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -4492,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -4542,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-259000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-260000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-339000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-198000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-769000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-181000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-721000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-168000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-185000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-179000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-283400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-6968300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-95400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-381900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-104200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-4192600</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -4612,58 +4848,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-76000</v>
+        <v>-87000</v>
       </c>
       <c r="E96" s="3">
         <v>-76000</v>
       </c>
       <c r="F96" s="3">
+        <v>-76000</v>
+      </c>
+      <c r="G96" s="3">
         <v>-77000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-76000</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-68000</v>
       </c>
       <c r="I96" s="3">
         <v>-68000</v>
       </c>
       <c r="J96" s="3">
-        <v>-69000</v>
+        <v>-68000</v>
       </c>
       <c r="K96" s="3">
         <v>-69000</v>
       </c>
       <c r="L96" s="3">
+        <v>-69000</v>
+      </c>
+      <c r="M96" s="3">
         <v>-60000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-59900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-59300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-58700</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-59100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-59200</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-59800</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -4712,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -4762,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -4812,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>1180000</v>
+      </c>
+      <c r="E100" s="3">
         <v>619000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-514000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1869000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>690000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1425000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-13000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-876000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1006000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-342000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1144300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>6080600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-963000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-119300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2191500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>4753300</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-127000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>57000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-59000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-29000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-32000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-61000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-21000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-272000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>57000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>163900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>87900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>102400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>65800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-110100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-22200</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>2827000</v>
+      </c>
+      <c r="E102" s="3">
         <v>588000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1117000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1009000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1186000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-989000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1006000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>155000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-19000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-386000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>602700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>128800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-107600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-73900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1199800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1310400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TMO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TMO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="92">
   <si>
     <t>TMO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E7" s="2">
         <v>44009</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43918</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43736</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43645</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43554</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43372</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42917</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42826</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>8521000</v>
+      </c>
+      <c r="E8" s="3">
         <v>6917000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6230000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6829000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6272000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6316000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6125000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6507000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5920000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6078000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5853000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6046800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5116200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4990000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4765000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4953200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4490900</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4190000</v>
+      </c>
+      <c r="E9" s="3">
         <v>3540000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3490000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3794000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3509000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3493000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3418000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3583000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3305000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3340000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3273000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3377600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2816000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2706900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2572500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2674400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2437000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4331000</v>
+      </c>
+      <c r="E10" s="3">
         <v>3377000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2740000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3035000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2763000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2823000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2707000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2924000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2615000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2738000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2580000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2669200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2300200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2283100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2192500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2278800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2053900</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,61 +935,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>296000</v>
+      </c>
+      <c r="E12" s="3">
         <v>264000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>245000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>262000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>247000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>246000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>248000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>251000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>240000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>242000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>234000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>232900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>218100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>221600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>215400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>212600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>183300</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,61 +1045,67 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="E14" s="3">
         <v>54000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>44000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>37000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>38000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-448000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>11000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>37000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-31000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>20000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>53000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>5200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>85500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>29300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>55000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>57000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>117400</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>6095000</v>
+      </c>
+      <c r="E17" s="3">
         <v>5526000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5324000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5597000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5326000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4820000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5205000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5359000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5008000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5141000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5067000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5088900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4480000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4238500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4142600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4200600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3949800</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>2426000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1391000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>906000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1232000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>946000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1496000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>920000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1148000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>912000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>937000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>786000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>957900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>636200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>751500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>622400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>752600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>541100</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1279,273 +1312,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>48000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-52000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>40000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>78000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>86000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>36000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>60000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>39000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>11000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>28300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>7700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>15900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>30600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>2971000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1964000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1528000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1756000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1561000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2145000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1561000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1742000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1535000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1547000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1372000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1559700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1154100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1237400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1102800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1257000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>974200</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>144000</v>
+      </c>
+      <c r="E22" s="3">
         <v>137000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>126000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>142000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>164000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>181000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>189000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>172000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>162000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>170000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>163000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>166300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>156700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>133600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>135400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>131300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>113300</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>2252000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1253000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>828000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1038000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>822000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1393000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>817000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1012000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>810000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>806000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>634000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>819900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>480600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>625600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>502900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>651900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>427900</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>319000</v>
+      </c>
+      <c r="E24" s="3">
         <v>97000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>40000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>36000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>34000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>274000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>22000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>114000</v>
-      </c>
-      <c r="K24" s="3">
-        <v>54000</v>
       </c>
       <c r="L24" s="3">
         <v>54000</v>
       </c>
       <c r="M24" s="3">
+        <v>54000</v>
+      </c>
+      <c r="N24" s="3">
         <v>-15000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>85400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-53300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>13400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-48500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>19200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-45600</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>1933000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1156000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>788000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1002000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>788000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1119000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>795000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>898000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>756000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>752000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>649000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>734500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>533900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>612200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>551400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>632700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>473500</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>1933000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1156000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>788000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1002000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>788000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1119000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>795000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>898000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>756000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>752000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>649000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>734500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>533900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>612200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>551400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>632700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>473500</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1756,61 +1814,67 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>-28000</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>20000</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-47000</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-70000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-206400</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-600</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>-3200</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E32" s="3">
         <v>1000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-48000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>52000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-40000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-78000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-86000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-36000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-60000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-39000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-11000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-28300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-7700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-15900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-30600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>1933000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1156000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>788000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1002000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>760000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1119000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>815000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>898000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>709000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>752000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>579000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>528100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>533900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>611600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>551400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>629500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>473500</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>1933000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1156000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>788000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1002000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>760000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1119000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>815000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>898000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>709000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>752000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>579000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>528100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>533900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>611600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>551400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>629500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>473500</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E38" s="2">
         <v>44009</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43918</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43736</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43645</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43554</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43372</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42917</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42826</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2227,326 +2313,345 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>7540000</v>
+      </c>
+      <c r="E41" s="3">
         <v>5818000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2981000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2399000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1273000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2288000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1106000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2103000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1098000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>937000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>950000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1335000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>741100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>611000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>713300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>786200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1970000</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F42" s="3">
         <v>110000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>37000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>7000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>6000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>9000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>31000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>14000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>3000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>7000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>10000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>7300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>53500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>11600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>15800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>5883000</v>
+      </c>
+      <c r="E43" s="3">
         <v>5164000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5166000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4952000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4384000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4129000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4155000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4136000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4257000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4441000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4530000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4311000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4209100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3673200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3523500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3426800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2895100</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>3829000</v>
+      </c>
+      <c r="E44" s="3">
         <v>3648000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3454000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3370000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3308000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3209000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3124000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3005000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2982000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2866000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2891000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2971000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3125500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2422200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2327100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2213300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2390900</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>982000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1145000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1027000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1135000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1542000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1591000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1545000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1350000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1215000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1227000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1210000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>794000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>761000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>692600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>672600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>578900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>933600</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>18234000</v>
+      </c>
+      <c r="E46" s="3">
         <v>15775000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>12738000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>11893000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>10514000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>11223000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>9939000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>10625000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9566000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9474000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9588000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>9421000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>8844000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>7452500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>7248100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>7021000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>8204400</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -2598,114 +2703,123 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>5180000</v>
+      </c>
+      <c r="E48" s="3">
         <v>4887000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4736000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5448000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5065000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5027000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4792000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4165000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3978000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3952000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4059000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4047000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3931600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2599700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2563300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2577800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2599300</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>38652000</v>
+      </c>
+      <c r="E49" s="3">
         <v>38870000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>39157000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>39728000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>39935000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>40620000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>39725000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>40325000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>40361000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>40800000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>41755000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>41974000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>42158500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>35421100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>35382000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>35296800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>36102400</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>1995000</v>
+      </c>
+      <c r="E52" s="3">
         <v>2061000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2057000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1312000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1215000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1100000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1140000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1117000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1173000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1177000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1178000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1227000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1051200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1040400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1020200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1011900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1104600</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>64061000</v>
+      </c>
+      <c r="E54" s="3">
         <v>61593000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>58688000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>58381000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>56729000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>57970000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>55596000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>56232000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>55078000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>55403000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>56580000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>56669000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>55985300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>46513700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>46213600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>45907500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>48010700</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3011,326 +3141,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>1703000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1385000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1599000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1920000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1659000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1391000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1462000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1615000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1344000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1359000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1354000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1428000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1123800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>982200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1031000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>926200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>941700</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E58" s="3">
         <v>675000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>738000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>676000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>661000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2377000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1336000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1271000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1014000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1711000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2814000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2135000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2762300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1540400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1882400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1255500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1972100</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>4523000</v>
+      </c>
+      <c r="E59" s="3">
         <v>3953000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3163000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3601000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3524000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3741000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3100000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3261000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2838000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2910000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2904000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3485000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3145200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2553200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2389500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2684100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2346100</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>6228000</v>
+      </c>
+      <c r="E60" s="3">
         <v>6013000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5500000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6197000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5844000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7509000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5898000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6147000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5196000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5980000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7072000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7048000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7031300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5075800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5302900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4865800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5259900</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>21091000</v>
+      </c>
+      <c r="E61" s="3">
         <v>20638000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>19231000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>17076000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>16392000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>16663000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>16812000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>17719000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>17760000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>17709000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>18122000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>18873000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>19230400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>15255700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>15188400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>15372400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>16940400</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>4918000</v>
+      </c>
+      <c r="E62" s="3">
         <v>5067000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>5398000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>5433000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>5138000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>5069000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>5193000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>4780000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5232000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5269000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5263000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>5335000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>5021800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3790600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3927100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4130000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>4151800</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>32237000</v>
+      </c>
+      <c r="E66" s="3">
         <v>31718000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>30129000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>28706000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>27374000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>29241000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>27903000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>28646000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>28188000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>28958000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>30457000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>31256000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>31283500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>24122100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>24418400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>24368200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>26352100</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>25705000</v>
+      </c>
+      <c r="E72" s="3">
         <v>23860000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>22791000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>22092000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>21165000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>20482000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>19439000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>18696000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>17866000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>17226000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>16542000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>15914000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>15445800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>14972300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>14419400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>13926900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>13356500</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>31824000</v>
+      </c>
+      <c r="E76" s="3">
         <v>29875000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>28559000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>29675000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>29355000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>28729000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>27693000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>27586000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>26890000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>26445000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>26123000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>25413000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>24701800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>22391600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>21795200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>21539300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>21658600</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E80" s="2">
         <v>44009</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43918</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43736</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43645</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43554</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43372</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42917</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42826</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>1933000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1156000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>788000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1002000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>760000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1119000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>815000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>898000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>709000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>752000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>579000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>528100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>533900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>611600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>551400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>629500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>473500</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>574000</v>
+        <v>575000</v>
       </c>
       <c r="E83" s="3">
         <v>574000</v>
       </c>
       <c r="F83" s="3">
+        <v>574000</v>
+      </c>
+      <c r="G83" s="3">
         <v>576000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>575000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>571000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>555000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>558000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>563000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>571000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>575000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>573500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>516800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>478200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>464500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>473800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>433000</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>2708000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1886000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>356000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1913000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1117000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1294000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>649000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1801000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1220000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1444000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>78000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1866500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>928600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>848400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>361500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1103600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>804400</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-366000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-269000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-253000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-289000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-216000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-220000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-201000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-284000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-173000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-183000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-118000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-215200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-111400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-88000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-93400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>177400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-162000</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-365000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-259000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-260000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-339000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-198000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-769000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-181000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-721000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-168000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-185000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-179000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-283400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-6968300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-95400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-381900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-104200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-4192600</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -4858,52 +5092,55 @@
         <v>-87000</v>
       </c>
       <c r="E96" s="3">
-        <v>-76000</v>
+        <v>-87000</v>
       </c>
       <c r="F96" s="3">
         <v>-76000</v>
       </c>
       <c r="G96" s="3">
+        <v>-76000</v>
+      </c>
+      <c r="H96" s="3">
         <v>-77000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-76000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-68000</v>
       </c>
       <c r="J96" s="3">
         <v>-68000</v>
       </c>
       <c r="K96" s="3">
-        <v>-69000</v>
+        <v>-68000</v>
       </c>
       <c r="L96" s="3">
         <v>-69000</v>
       </c>
       <c r="M96" s="3">
+        <v>-69000</v>
+      </c>
+      <c r="N96" s="3">
         <v>-60000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-59900</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-59300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-58700</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-59100</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-59200</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-59800</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-791000</v>
+      </c>
+      <c r="E100" s="3">
         <v>1180000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>619000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-514000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1869000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>690000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1425000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-13000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-876000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1006000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-342000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1144300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>6080600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-963000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-119300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2191500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>4753300</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>181000</v>
+      </c>
+      <c r="E101" s="3">
         <v>20000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-127000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>57000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-59000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-29000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-32000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-61000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-21000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-272000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>57000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>163900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>87900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>102400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>65800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-110100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-22200</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>1733000</v>
+      </c>
+      <c r="E102" s="3">
         <v>2827000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>588000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1117000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1009000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1186000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-989000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1006000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>155000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-19000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-386000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>602700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>128800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-107600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-73900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1199800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1310400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TMO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TMO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="92">
   <si>
     <t>TMO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44009</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43918</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43736</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43645</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43554</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43372</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42917</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42826</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>10550000</v>
+      </c>
+      <c r="E8" s="3">
         <v>8521000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6917000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6230000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6829000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6272000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6316000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6125000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6507000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5920000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6078000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5853000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6046800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5116200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4990000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4765000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4953200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4490900</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4994000</v>
+      </c>
+      <c r="E9" s="3">
         <v>4190000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3540000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3490000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3794000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3509000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3493000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3418000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3583000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3305000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3340000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3273000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3377600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2816000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2706900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2572500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2674400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2437000</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5556000</v>
+      </c>
+      <c r="E10" s="3">
         <v>4331000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3377000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2740000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3035000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2763000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2823000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2707000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2924000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2615000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2738000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2580000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2669200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2300200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2283100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2192500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2278800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2053900</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,64 +948,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>376000</v>
+      </c>
+      <c r="E12" s="3">
         <v>296000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>264000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>245000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>262000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>247000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>246000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>248000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>251000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>240000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>242000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>234000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>232900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>218100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>221600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>215400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>212600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>183300</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1048,64 +1064,70 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E14" s="3">
         <v>-38000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>54000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>44000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>37000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>38000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-448000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>11000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>37000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-31000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>20000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>53000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>5200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>85500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>29300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>55000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>57000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>117400</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>7479000</v>
+      </c>
+      <c r="E17" s="3">
         <v>6095000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5526000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5324000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5597000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5326000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4820000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5205000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5359000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5008000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5141000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5067000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5088900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4480000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4238500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4142600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4200600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3949800</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>3071000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2426000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1391000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>906000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1232000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>946000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1496000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>920000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1148000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>912000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>937000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>786000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>957900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>636200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>751500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>622400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>752600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>541100</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1313,288 +1345,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-30000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>48000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-52000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>40000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>78000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>86000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>36000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>60000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>39000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>11000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>28300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>7700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>15900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>30600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>3640000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2971000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1964000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1528000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1756000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1561000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2145000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1561000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1742000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1535000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1547000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1372000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1559700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1154100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1237400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1102800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1257000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>974200</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>146000</v>
+      </c>
+      <c r="E22" s="3">
         <v>144000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>137000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>126000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>142000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>164000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>181000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>189000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>172000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>162000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>170000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>163000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>166300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>156700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>133600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>135400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>131300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>113300</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>2892000</v>
+      </c>
+      <c r="E23" s="3">
         <v>2252000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1253000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>828000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1038000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>822000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1393000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>817000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1012000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>810000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>806000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>634000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>819900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>480600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>625600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>502900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>651900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>427900</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>394000</v>
+      </c>
+      <c r="E24" s="3">
         <v>319000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>97000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>40000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>36000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>34000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>274000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>22000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>114000</v>
-      </c>
-      <c r="L24" s="3">
-        <v>54000</v>
       </c>
       <c r="M24" s="3">
         <v>54000</v>
       </c>
       <c r="N24" s="3">
+        <v>54000</v>
+      </c>
+      <c r="O24" s="3">
         <v>-15000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>85400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-53300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>13400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-48500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>19200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-45600</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>2498000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1933000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1156000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>788000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1002000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>788000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1119000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>795000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>898000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>756000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>752000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>649000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>734500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>533900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>612200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>551400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>632700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>473500</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>2498000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1933000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1156000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>788000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1002000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>788000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1119000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>795000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>898000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>756000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>752000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>649000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>734500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>533900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>612200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>551400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>632700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>473500</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1828,53 +1888,56 @@
       <c r="E29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>-28000</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>20000</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-47000</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-70000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-206400</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>-600</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>-3200</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E32" s="3">
         <v>30000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-48000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>52000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-40000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-78000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-86000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-36000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-60000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-39000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-11000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-28300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-7700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-15900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-30600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>2498000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1933000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1156000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>788000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1002000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>760000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1119000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>815000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>898000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>709000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>752000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>579000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>528100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>533900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>611600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>551400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>629500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>473500</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>2498000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1933000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1156000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>788000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1002000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>760000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1119000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>815000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>898000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>709000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>752000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>579000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>528100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>533900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>611600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>551400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>629500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>473500</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44009</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43918</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43736</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43645</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43554</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43372</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42917</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42826</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2314,344 +2399,363 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>10325000</v>
+      </c>
+      <c r="E41" s="3">
         <v>7540000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5818000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2981000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2399000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1273000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2288000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1106000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2103000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1098000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>937000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>950000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1335000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>741100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>611000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>713300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>786200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1970000</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>91</v>
+      <c r="D42" s="3">
+        <v>28000</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G42" s="3">
         <v>110000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>37000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>7000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>6000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>9000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>31000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>14000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>3000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>7000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>10000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>7300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>53500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>11600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>15800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>6472000</v>
+      </c>
+      <c r="E43" s="3">
         <v>5883000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5164000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5166000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4952000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4384000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4129000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4155000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4136000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4257000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4441000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4530000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4311000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4209100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3673200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3523500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3426800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2895100</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>4029000</v>
+      </c>
+      <c r="E44" s="3">
         <v>3829000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3648000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3454000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3370000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3308000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3209000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3124000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3005000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2982000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2866000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2891000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2971000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3125500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2422200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2327100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2213300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2390900</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>1103000</v>
+      </c>
+      <c r="E45" s="3">
         <v>982000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1145000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1027000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1135000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1542000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1591000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1545000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1350000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1215000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1227000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1210000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>794000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>761000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>692600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>672600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>578900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>933600</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>21957000</v>
+      </c>
+      <c r="E46" s="3">
         <v>18234000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>15775000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>12738000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>11893000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>10514000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>11223000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>9939000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10625000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9566000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9474000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>9588000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>9421000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>8844000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>7452500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>7248100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>7021000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>8204400</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -2706,120 +2810,129 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>6687000</v>
+      </c>
+      <c r="E48" s="3">
         <v>5180000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4887000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4736000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5448000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5065000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5027000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4792000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4165000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3978000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3952000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4059000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4047000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3931600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2599700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2563300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2577800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2599300</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>38726000</v>
+      </c>
+      <c r="E49" s="3">
         <v>38652000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>38870000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>39157000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>39728000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>39935000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>40620000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>39725000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>40325000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>40361000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>40800000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>41755000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>41974000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>42158500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>35421100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>35382000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>35296800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>36102400</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2930,64 +3046,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>1682000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1995000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2061000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2057000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1312000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1215000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1100000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1140000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1117000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1173000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1177000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1178000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1227000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1051200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1040400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1020200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1011900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1104600</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>69052000</v>
+      </c>
+      <c r="E54" s="3">
         <v>64061000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>61593000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>58688000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>58381000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>56729000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>57970000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>55596000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>56232000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>55078000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>55403000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>56580000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>56669000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>55985300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>46513700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>46213600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>45907500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>48010700</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3142,344 +3271,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>2175000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1703000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1385000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1599000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1920000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1659000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1391000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1462000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1615000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1344000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1359000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1354000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1428000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1123800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>982200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1031000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>926200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>941700</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>2628000</v>
+      </c>
+      <c r="E58" s="3">
         <v>2000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>675000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>738000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>676000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>661000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2377000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1336000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1271000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1014000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1711000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2814000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2135000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2762300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1540400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1882400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1255500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1972100</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>5501000</v>
+      </c>
+      <c r="E59" s="3">
         <v>4523000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3953000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3163000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3601000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3524000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3741000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3100000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3261000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2838000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2910000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2904000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3485000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3145200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2553200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2389500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2684100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2346100</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>10304000</v>
+      </c>
+      <c r="E60" s="3">
         <v>6228000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6013000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5500000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6197000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5844000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7509000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5898000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6147000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5196000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5980000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7072000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7048000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7031300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5075800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5302900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4865800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5259900</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>19107000</v>
+      </c>
+      <c r="E61" s="3">
         <v>21091000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>20638000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>19231000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>17076000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>16392000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>16663000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>16812000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>17719000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>17760000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>17709000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>18122000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>18873000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>19230400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>15255700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>15188400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>15372400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>16940400</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>5134000</v>
+      </c>
+      <c r="E62" s="3">
         <v>4918000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>5067000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>5398000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>5433000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>5138000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>5069000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>5193000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4780000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5232000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5269000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>5263000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>5335000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>5021800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3790600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3927100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>4130000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>4151800</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>34545000</v>
+      </c>
+      <c r="E66" s="3">
         <v>32237000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>31718000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>30129000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>28706000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>27374000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>29241000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>27903000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>28646000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>28188000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>28958000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>30457000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>31256000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>31283500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>24122100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>24418400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>24368200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>26352100</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>28116000</v>
+      </c>
+      <c r="E72" s="3">
         <v>25705000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>23860000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>22791000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>22092000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>21165000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>20482000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>19439000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>18696000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>17866000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>17226000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>16542000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>15914000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>15445800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>14972300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>14419400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>13926900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>13356500</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>34507000</v>
+      </c>
+      <c r="E76" s="3">
         <v>31824000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>29875000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>28559000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>29675000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>29355000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>28729000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>27693000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>27586000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>26890000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>26445000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>26123000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>25413000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>24701800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>22391600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>21795200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>21539300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>21658600</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44009</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43918</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43736</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43645</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43554</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43372</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42917</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42826</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>2498000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1933000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1156000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>788000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1002000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>760000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1119000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>815000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>898000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>709000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>752000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>579000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>528100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>533900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>611600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>551400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>629500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>473500</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4423,64 +4620,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>602000</v>
+      </c>
+      <c r="E83" s="3">
         <v>575000</v>
-      </c>
-      <c r="E83" s="3">
-        <v>574000</v>
       </c>
       <c r="F83" s="3">
         <v>574000</v>
       </c>
       <c r="G83" s="3">
+        <v>574000</v>
+      </c>
+      <c r="H83" s="3">
         <v>576000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>575000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>571000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>555000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>558000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>563000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>571000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>575000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>573500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>516800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>478200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>464500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>473800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>433000</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>3339000</v>
+      </c>
+      <c r="E89" s="3">
         <v>2708000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1886000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>356000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1913000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1117000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1294000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>649000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1801000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1220000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1444000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>78000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1866500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>928600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>848400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>361500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1103600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>804400</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -4837,64 +5056,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-586000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-366000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-269000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-253000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-289000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-216000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-220000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-201000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-284000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-173000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-183000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-118000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-215200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-111400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-88000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-93400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>177400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-162000</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-626000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-365000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-259000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-260000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-339000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-198000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-769000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-181000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-721000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-168000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-185000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-179000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-283400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-6968300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-95400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-381900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-104200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-4192600</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -5095,52 +5328,55 @@
         <v>-87000</v>
       </c>
       <c r="F96" s="3">
-        <v>-76000</v>
+        <v>-87000</v>
       </c>
       <c r="G96" s="3">
         <v>-76000</v>
       </c>
       <c r="H96" s="3">
+        <v>-76000</v>
+      </c>
+      <c r="I96" s="3">
         <v>-77000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-76000</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-68000</v>
       </c>
       <c r="K96" s="3">
         <v>-68000</v>
       </c>
       <c r="L96" s="3">
-        <v>-69000</v>
+        <v>-68000</v>
       </c>
       <c r="M96" s="3">
         <v>-69000</v>
       </c>
       <c r="N96" s="3">
+        <v>-69000</v>
+      </c>
+      <c r="O96" s="3">
         <v>-60000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-59900</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-59300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-58700</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-59100</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-59200</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-59800</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -5307,172 +5549,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-49000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-791000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1180000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>619000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-514000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1869000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>690000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1425000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-13000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-876000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1006000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-342000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1144300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>6080600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-963000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-119300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2191500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>4753300</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>102000</v>
+      </c>
+      <c r="E101" s="3">
         <v>181000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>20000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-127000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>57000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-59000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-29000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-32000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-61000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-21000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-272000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>57000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>163900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>87900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>102400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>65800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-110100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-22200</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>2766000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1733000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2827000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>588000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1117000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1009000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1186000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-989000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1006000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>155000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-19000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-386000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>602700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>128800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-107600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-73900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1199800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1310400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TMO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TMO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
   <si>
     <t>TMO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44009</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43918</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43736</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43645</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43554</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43372</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42917</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42826</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>9906000</v>
+      </c>
+      <c r="E8" s="3">
         <v>10550000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>8521000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6917000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6230000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6829000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6272000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6316000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6125000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6507000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5920000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6078000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5853000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6046800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5116200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4990000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4765000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4953200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4490900</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4697000</v>
+      </c>
+      <c r="E9" s="3">
         <v>4994000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4190000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3540000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3490000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3794000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3509000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3493000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3418000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3583000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3305000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3340000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3273000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3377600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2816000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2706900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2572500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2674400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2437000</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5209000</v>
+      </c>
+      <c r="E10" s="3">
         <v>5556000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4331000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3377000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2740000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3035000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2763000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2823000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2707000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2924000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2615000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2738000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2580000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2669200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2300200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2283100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2192500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2278800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2053900</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,67 +962,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>320000</v>
+      </c>
+      <c r="E12" s="3">
         <v>376000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>296000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>264000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>245000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>262000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>247000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>246000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>248000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>251000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>240000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>242000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>234000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>232900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>218100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>221600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>215400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>212600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>183300</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1067,67 +1084,73 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E14" s="3">
         <v>29000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-38000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>54000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>44000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>37000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>38000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-448000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>11000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>37000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-31000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>20000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>53000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>5200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>85500</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>29300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>55000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>57000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>117400</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>6857000</v>
+      </c>
+      <c r="E17" s="3">
         <v>7479000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6095000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5526000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5324000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5597000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5326000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4820000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5205000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5359000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5008000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5141000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5067000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5088900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4480000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4238500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4142600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4200600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3949800</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>3049000</v>
+      </c>
+      <c r="E18" s="3">
         <v>3071000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2426000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1391000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>906000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1232000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>946000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1496000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>920000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1148000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>912000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>937000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>786000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>957900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>636200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>751500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>622400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>752600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>541100</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1346,303 +1379,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-171000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-33000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-30000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>48000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-52000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>40000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>78000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>86000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>36000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>60000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>39000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>11000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>28300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>7700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>15900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>30600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>3499000</v>
+      </c>
+      <c r="E21" s="3">
         <v>3640000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2971000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1964000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1528000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1756000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1561000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2145000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1561000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1742000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1535000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1547000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1372000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1559700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1154100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1237400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1102800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1257000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>974200</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>125000</v>
+      </c>
+      <c r="E22" s="3">
         <v>146000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>144000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>137000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>126000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>142000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>164000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>181000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>189000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>172000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>162000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>170000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>163000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>166300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>156700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>133600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>135400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>131300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>113300</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>2753000</v>
+      </c>
+      <c r="E23" s="3">
         <v>2892000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2252000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1253000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>828000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1038000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>822000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1393000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>817000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1012000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>810000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>806000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>634000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>819900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>480600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>625600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>502900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>651900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>427900</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>416000</v>
+      </c>
+      <c r="E24" s="3">
         <v>394000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>319000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>97000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>40000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>36000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>34000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>274000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>22000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>114000</v>
-      </c>
-      <c r="M24" s="3">
-        <v>54000</v>
       </c>
       <c r="N24" s="3">
         <v>54000</v>
       </c>
       <c r="O24" s="3">
+        <v>54000</v>
+      </c>
+      <c r="P24" s="3">
         <v>-15000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>85400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-53300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>13400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-48500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>19200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-45600</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>2337000</v>
+      </c>
+      <c r="E26" s="3">
         <v>2498000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1933000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1156000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>788000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1002000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>788000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1119000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>795000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>898000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>756000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>752000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>649000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>734500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>533900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>612200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>551400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>632700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>473500</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>2337000</v>
+      </c>
+      <c r="E27" s="3">
         <v>2498000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1933000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1156000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>788000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1002000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>788000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1119000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>795000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>898000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>756000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>752000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>649000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>734500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>533900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>612200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>551400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>632700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>473500</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1891,53 +1952,56 @@
       <c r="F29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>-28000</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>20000</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-47000</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>-70000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-206400</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>-600</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>-3200</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>171000</v>
+      </c>
+      <c r="E32" s="3">
         <v>33000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>30000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-48000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>52000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-40000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-78000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-86000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-36000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-60000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-39000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-11000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-28300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-7700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-15900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-30600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>2337000</v>
+      </c>
+      <c r="E33" s="3">
         <v>2498000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1933000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1156000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>788000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1002000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>760000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1119000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>815000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>898000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>709000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>752000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>579000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>528100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>533900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>611600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>551400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>629500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>473500</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>2337000</v>
+      </c>
+      <c r="E35" s="3">
         <v>2498000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1933000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1156000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>788000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1002000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>760000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1119000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>815000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>898000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>709000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>752000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>579000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>528100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>533900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>611600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>551400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>629500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>473500</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44009</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43918</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43736</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43645</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43554</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43372</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42917</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42826</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2400,362 +2486,381 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>5583000</v>
+      </c>
+      <c r="E41" s="3">
         <v>10325000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7540000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5818000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2981000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2399000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1273000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2288000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1106000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2103000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1098000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>937000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>950000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1335000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>741100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>611000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>713300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>786200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1970000</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
+        <v>121000</v>
+      </c>
+      <c r="E42" s="3">
         <v>28000</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H42" s="3">
         <v>110000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>37000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>7000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>6000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>9000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>31000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>14000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>3000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>7000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>10000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>7300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>53500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>11600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>15800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>6337000</v>
+      </c>
+      <c r="E43" s="3">
         <v>6472000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5883000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5164000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5166000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4952000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4384000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4129000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4155000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4136000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4257000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4441000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4530000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4311000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4209100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3673200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3523500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3426800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2895100</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>4342000</v>
+      </c>
+      <c r="E44" s="3">
         <v>4029000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3829000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3648000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3454000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3370000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3308000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3209000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3124000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3005000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2982000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2866000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2891000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2971000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3125500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2422200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2327100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2213300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2390900</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>1302000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1103000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>982000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1145000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1027000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1135000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1542000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1591000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1545000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1350000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1215000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1227000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1210000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>794000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>761000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>692600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>672600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>578900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>933600</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>17685000</v>
+      </c>
+      <c r="E46" s="3">
         <v>21957000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>18234000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>15775000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>12738000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>11893000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>10514000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>11223000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9939000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>10625000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9566000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>9474000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>9588000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>9421000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>8844000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>7452500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>7248100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>7021000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>8204400</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -2813,126 +2918,135 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>6133000</v>
+      </c>
+      <c r="E48" s="3">
         <v>6687000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5180000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4887000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4736000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5448000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5065000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5027000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4792000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4165000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3978000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3952000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4059000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4047000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3931600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2599700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2563300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2577800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2599300</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>39654000</v>
+      </c>
+      <c r="E49" s="3">
         <v>38726000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>38652000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>38870000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>39157000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>39728000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>39935000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>40620000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>39725000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>40325000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>40361000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>40800000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>41755000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>41974000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>42158500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>35421100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>35382000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>35296800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>36102400</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3049,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>2459000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1682000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1995000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2061000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2057000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1312000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1215000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1100000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1140000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1117000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1173000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1177000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1178000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1227000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1051200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1040400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1020200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1011900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1104600</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>65931000</v>
+      </c>
+      <c r="E54" s="3">
         <v>69052000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>64061000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>61593000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>58688000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>58381000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>56729000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>57970000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>55596000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>56232000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>55078000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>55403000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>56580000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>56669000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>55985300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>46513700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>46213600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>45907500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>48010700</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3272,362 +3402,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>2146000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2175000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1703000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1385000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1599000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1920000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1659000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1391000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1462000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1615000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1344000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1359000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1354000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1428000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1123800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>982200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1031000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>926200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>941700</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E58" s="3">
         <v>2628000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>675000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>738000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>676000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>661000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2377000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1336000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1271000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1014000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1711000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2814000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2135000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2762300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1540400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1882400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1255500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1972100</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>4845000</v>
+      </c>
+      <c r="E59" s="3">
         <v>5501000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4523000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3953000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3163000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3601000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3524000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3741000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3100000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3261000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2838000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2910000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2904000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3485000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3145200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2553200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2389500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2684100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2346100</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>6995000</v>
+      </c>
+      <c r="E60" s="3">
         <v>10304000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6228000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6013000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5500000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6197000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5844000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7509000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5898000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6147000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5196000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5980000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7072000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7048000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7031300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5075800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5302900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4865800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5259900</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>18641000</v>
+      </c>
+      <c r="E61" s="3">
         <v>19107000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>21091000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>20638000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>19231000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>17076000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>16392000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>16663000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>16812000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>17719000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>17760000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>17709000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>18122000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>18873000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>19230400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>15255700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>15188400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>15372400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>16940400</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>5237000</v>
+      </c>
+      <c r="E62" s="3">
         <v>5134000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4918000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>5067000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>5398000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>5433000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>5138000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>5069000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5193000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4780000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5232000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>5269000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>5263000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>5335000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>5021800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3790600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3927100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>4130000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>4151800</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>30873000</v>
+      </c>
+      <c r="E66" s="3">
         <v>34545000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>32237000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>31718000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>30129000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>28706000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>27374000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>29241000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>27903000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>28646000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>28188000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>28958000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>30457000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>31256000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>31283500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>24122100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>24418400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>24368200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>26352100</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>30350000</v>
+      </c>
+      <c r="E72" s="3">
         <v>28116000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>25705000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>23860000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>22791000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>22092000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>21165000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>20482000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>19439000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>18696000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>17866000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>17226000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>16542000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>15914000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>15445800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>14972300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>14419400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>13926900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>13356500</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>35058000</v>
+      </c>
+      <c r="E76" s="3">
         <v>34507000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>31824000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>29875000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>28559000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>29675000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>29355000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>28729000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>27693000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>27586000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>26890000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>26445000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>26123000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>25413000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>24701800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>22391600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>21795200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>21539300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>21658600</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44009</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43918</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43736</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43645</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43554</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43372</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42917</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42826</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>2337000</v>
+      </c>
+      <c r="E81" s="3">
         <v>2498000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1933000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1156000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>788000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1002000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>760000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1119000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>815000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>898000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>709000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>752000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>579000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>528100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>533900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>611600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>551400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>629500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>473500</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4621,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>621000</v>
+      </c>
+      <c r="E83" s="3">
         <v>602000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>575000</v>
-      </c>
-      <c r="F83" s="3">
-        <v>574000</v>
       </c>
       <c r="G83" s="3">
         <v>574000</v>
       </c>
       <c r="H83" s="3">
+        <v>574000</v>
+      </c>
+      <c r="I83" s="3">
         <v>576000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>575000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>571000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>555000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>558000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>563000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>571000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>575000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>573500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>516800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>478200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>464500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>473800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>433000</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>1978000</v>
+      </c>
+      <c r="E89" s="3">
         <v>3339000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2708000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1886000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>356000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1913000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1117000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1294000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>649000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1801000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1220000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1444000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>78000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1866500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>928600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>848400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>361500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1103600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>804400</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5057,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-628000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-586000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-366000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-269000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-253000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-289000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-216000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-220000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-201000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-284000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-173000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-183000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-118000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-215200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-111400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-88000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-93400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>177400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-162000</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-1998000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-626000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-365000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-259000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-260000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-339000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-198000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-769000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-181000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-721000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-168000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-185000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-179000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-283400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-6968300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-95400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-381900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-104200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-4192600</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -5331,52 +5565,55 @@
         <v>-87000</v>
       </c>
       <c r="G96" s="3">
-        <v>-76000</v>
+        <v>-87000</v>
       </c>
       <c r="H96" s="3">
         <v>-76000</v>
       </c>
       <c r="I96" s="3">
+        <v>-76000</v>
+      </c>
+      <c r="J96" s="3">
         <v>-77000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-76000</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-68000</v>
       </c>
       <c r="L96" s="3">
         <v>-68000</v>
       </c>
       <c r="M96" s="3">
-        <v>-69000</v>
+        <v>-68000</v>
       </c>
       <c r="N96" s="3">
         <v>-69000</v>
       </c>
       <c r="O96" s="3">
+        <v>-69000</v>
+      </c>
+      <c r="P96" s="3">
         <v>-60000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-59900</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-59300</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-58700</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-59100</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-59200</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-59800</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -5552,181 +5795,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-4850000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-49000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-791000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1180000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>619000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-514000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1869000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>690000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1425000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-13000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-876000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1006000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-342000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1144300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>6080600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-963000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-119300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2191500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>4753300</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>137000</v>
+      </c>
+      <c r="E101" s="3">
         <v>102000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>181000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>20000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-127000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>57000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-59000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-29000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-32000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-61000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-21000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-272000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>57000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>163900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>87900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>102400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>65800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-110100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-22200</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>-4733000</v>
+      </c>
+      <c r="E102" s="3">
         <v>2766000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1733000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2827000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>588000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1117000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1009000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1186000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-989000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1006000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>155000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-19000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-386000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>602700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>128800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-107600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-73900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1199800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1310400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TMO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TMO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
   <si>
     <t>TMO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,294 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E7" s="2">
         <v>44289</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44009</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43918</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43736</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43645</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43554</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43372</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42917</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42826</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>9273000</v>
+      </c>
+      <c r="E8" s="3">
         <v>9906000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>10550000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>8521000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6917000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6230000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6829000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6272000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6316000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6125000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6507000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5920000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6078000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5853000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6046800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5116200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4990000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4765000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4953200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4490900</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4749000</v>
+      </c>
+      <c r="E9" s="3">
         <v>4697000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4994000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4190000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3540000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3490000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3794000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3509000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3493000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3418000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3583000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3305000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3340000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3273000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3377600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2816000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2706900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2572500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2674400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2437000</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4524000</v>
+      </c>
+      <c r="E10" s="3">
         <v>5209000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5556000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4331000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3377000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2740000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3035000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2763000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2823000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2707000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2924000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2615000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2738000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2580000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2669200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2300200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2283100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2192500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2278800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2053900</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,70 +975,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>343000</v>
+      </c>
+      <c r="E12" s="3">
         <v>320000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>376000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>296000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>264000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>245000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>262000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>247000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>246000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>248000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>251000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>240000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>242000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>234000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>232900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>218100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>221600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>215400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>212600</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>183300</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1087,70 +1103,76 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>77000</v>
+      </c>
+      <c r="E14" s="3">
         <v>30000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>29000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-38000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>54000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>44000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>37000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>38000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-448000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>11000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>37000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-31000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>20000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>53000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>5200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>85500</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>29300</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>55000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>57000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>117400</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1211,8 +1233,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1257,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>7110000</v>
+      </c>
+      <c r="E17" s="3">
         <v>6857000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7479000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6095000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5526000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5324000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5597000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5326000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4820000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5205000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5359000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5008000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5141000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5067000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5088900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4480000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4238500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4142600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4200600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3949800</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>2163000</v>
+      </c>
+      <c r="E18" s="3">
         <v>3049000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3071000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2426000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1391000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>906000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1232000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>946000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1496000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>920000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1148000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>912000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>937000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>786000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>957900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>636200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>751500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>622400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>752600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>541100</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1380,318 +1412,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-171000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-33000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-30000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>48000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-52000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>40000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>78000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>86000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>36000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>60000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>39000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>11000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>28300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>7700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>15900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>30600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>2829000</v>
+      </c>
+      <c r="E21" s="3">
         <v>3499000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3640000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2971000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1964000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1528000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1756000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1561000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2145000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1561000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1742000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1535000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1547000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1372000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1559700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1154100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1237400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1102800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1257000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>974200</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>122000</v>
+      </c>
+      <c r="E22" s="3">
         <v>125000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>146000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>144000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>137000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>126000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>142000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>164000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>181000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>189000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>172000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>162000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>170000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>163000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>166300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>156700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>133600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>135400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>131300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>113300</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>2047000</v>
+      </c>
+      <c r="E23" s="3">
         <v>2753000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2892000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2252000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1253000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>828000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1038000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>822000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1393000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>817000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1012000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>810000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>806000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>634000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>819900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>480600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>625600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>502900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>651900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>427900</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>219000</v>
+      </c>
+      <c r="E24" s="3">
         <v>416000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>394000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>319000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>97000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>40000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>36000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>34000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>274000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>22000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>114000</v>
-      </c>
-      <c r="N24" s="3">
-        <v>54000</v>
       </c>
       <c r="O24" s="3">
         <v>54000</v>
       </c>
       <c r="P24" s="3">
+        <v>54000</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-15000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>85400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-53300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>13400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-48500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>19200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-45600</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1752,132 +1800,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>1828000</v>
+      </c>
+      <c r="E26" s="3">
         <v>2337000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2498000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1933000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1156000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>788000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1002000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>788000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1119000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>795000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>898000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>756000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>752000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>649000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>734500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>533900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>612200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>551400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>632700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>473500</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>1828000</v>
+      </c>
+      <c r="E27" s="3">
         <v>2337000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2498000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1933000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1156000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>788000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1002000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>788000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1119000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>795000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>898000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>756000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>752000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>649000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>734500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>533900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>612200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>551400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>632700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>473500</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1938,8 +1995,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1955,53 +2015,56 @@
       <c r="G29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-28000</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>20000</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-47000</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-70000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-206400</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>-600</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>-3200</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2062,8 +2125,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2124,132 +2190,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E32" s="3">
         <v>171000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>33000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>30000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-48000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>52000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-40000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-78000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-86000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-36000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-60000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-39000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-28300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-7700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-15900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-30600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>1828000</v>
+      </c>
+      <c r="E33" s="3">
         <v>2337000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2498000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1933000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1156000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>788000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1002000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>760000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1119000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>815000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>898000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>709000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>752000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>579000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>528100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>533900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>611600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>551400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>629500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>473500</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2310,137 +2385,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>1828000</v>
+      </c>
+      <c r="E35" s="3">
         <v>2337000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2498000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1933000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1156000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>788000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1002000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>760000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1119000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>815000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>898000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>709000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>752000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>579000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>528100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>533900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>611600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>551400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>629500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>473500</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E38" s="2">
         <v>44289</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44009</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43918</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43736</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43645</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43554</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43372</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42917</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42826</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2463,8 +2547,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2487,380 +2572,399 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>7023000</v>
+      </c>
+      <c r="E41" s="3">
         <v>5583000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>10325000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7540000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5818000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2981000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2399000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1273000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2288000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1106000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2103000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1098000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>937000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>950000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1335000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>741100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>611000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>713300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>786200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1970000</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
+        <v>65000</v>
+      </c>
+      <c r="E42" s="3">
         <v>121000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>28000</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I42" s="3">
         <v>110000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>37000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>7000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>6000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>9000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>31000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>14000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>3000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>7000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>10000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>7300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>53500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>11600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>15800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>6280000</v>
+      </c>
+      <c r="E43" s="3">
         <v>6337000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>6472000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5883000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5164000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>5166000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4952000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4384000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4129000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4155000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4136000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4257000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4441000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4530000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4311000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4209100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3673200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3523500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3426800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2895100</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>4625000</v>
+      </c>
+      <c r="E44" s="3">
         <v>4342000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4029000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3829000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3648000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3454000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3370000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3308000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3209000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3124000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3005000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2982000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2866000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2891000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2971000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3125500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2422200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2327100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2213300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2390900</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>1267000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1302000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1103000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>982000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1145000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1027000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1135000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1542000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1591000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1545000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1350000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1215000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1227000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1210000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>794000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>761000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>692600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>672600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>578900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>933600</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>19260000</v>
+      </c>
+      <c r="E46" s="3">
         <v>17685000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>21957000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>18234000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>15775000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>12738000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>11893000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>10514000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>11223000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9939000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>10625000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>9566000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>9474000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>9588000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>9421000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>8844000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>7452500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>7248100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>7021000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>8204400</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -2921,132 +3025,141 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>6560000</v>
+      </c>
+      <c r="E48" s="3">
         <v>6133000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6687000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5180000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4887000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4736000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5448000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5065000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5027000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4792000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4165000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3978000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3952000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4059000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4047000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3931600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2599700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2563300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2577800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2599300</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>39294000</v>
+      </c>
+      <c r="E49" s="3">
         <v>39654000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>38726000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>38652000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>38870000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>39157000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>39728000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>39935000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>40620000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>39725000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>40325000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>40361000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>40800000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>41755000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>41974000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>42158500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>35421100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>35382000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>35296800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>36102400</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3107,8 +3220,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3169,70 +3285,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>2584000</v>
+      </c>
+      <c r="E52" s="3">
         <v>2459000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1682000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1995000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2061000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2057000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1312000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1215000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1100000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1140000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1117000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1173000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1177000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1178000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1227000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1051200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1040400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1020200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1011900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1104600</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3293,70 +3415,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>67698000</v>
+      </c>
+      <c r="E54" s="3">
         <v>65931000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>69052000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>64061000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>61593000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>58688000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>58381000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>56729000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>57970000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>55596000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>56232000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>55078000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>55403000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>56580000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>56669000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>55985300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>46513700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>46213600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>45907500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>48010700</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3379,8 +3507,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3403,70 +3532,74 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>2098000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2146000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2175000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1703000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1385000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1599000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1920000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1659000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1391000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1462000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1615000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1344000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1359000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1354000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1428000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1123800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>982200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1031000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>926200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>941700</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
@@ -3474,309 +3607,324 @@
         <v>4000</v>
       </c>
       <c r="E58" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F58" s="3">
         <v>2628000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>675000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>738000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>676000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>661000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2377000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1336000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1271000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1014000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1711000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2814000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2135000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2762300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1540400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1882400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1255500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1972100</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>4823000</v>
+      </c>
+      <c r="E59" s="3">
         <v>4845000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5501000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4523000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3953000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3163000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3601000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3524000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3741000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3100000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3261000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2838000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2910000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2904000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3485000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3145200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2553200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2389500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2684100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2346100</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>6925000</v>
+      </c>
+      <c r="E60" s="3">
         <v>6995000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>10304000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6228000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6013000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5500000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6197000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5844000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7509000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5898000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6147000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5196000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5980000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7072000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7048000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7031300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5075800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5302900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4865800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>5259900</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>18773000</v>
+      </c>
+      <c r="E61" s="3">
         <v>18641000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>19107000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>21091000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>20638000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>19231000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>17076000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>16392000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>16663000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>16812000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>17719000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>17760000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>17709000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>18122000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>18873000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>19230400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>15255700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>15188400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>15372400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>16940400</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>5146000</v>
+      </c>
+      <c r="E62" s="3">
         <v>5237000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>5134000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4918000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>5067000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>5398000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>5433000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>5138000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5069000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5193000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4780000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>5232000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>5269000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>5263000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>5335000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>5021800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3790600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>3927100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>4130000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>4151800</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3837,8 +3985,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3899,8 +4050,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3961,70 +4115,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>30844000</v>
+      </c>
+      <c r="E66" s="3">
         <v>30873000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>34545000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>32237000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>31718000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>30129000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>28706000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>27374000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>29241000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>27903000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>28646000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>28188000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>28958000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>30457000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>31256000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>31283500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>24122100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>24418400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>24368200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>26352100</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4047,8 +4207,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4109,8 +4270,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4171,8 +4335,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4233,8 +4400,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4295,70 +4465,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>32076000</v>
+      </c>
+      <c r="E72" s="3">
         <v>30350000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>28116000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>25705000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>23860000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>22791000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>22092000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>21165000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>20482000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>19439000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>18696000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>17866000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>17226000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>16542000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>15914000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>15445800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>14972300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>14419400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>13926900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>13356500</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4419,8 +4595,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4481,8 +4660,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4543,70 +4725,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>36854000</v>
+      </c>
+      <c r="E76" s="3">
         <v>35058000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>34507000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>31824000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>29875000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>28559000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>29675000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>29355000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>28729000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>27693000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>27586000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>26890000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>26445000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>26123000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>25413000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>24701800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>22391600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>21795200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>21539300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>21658600</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4667,137 +4855,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E80" s="2">
         <v>44289</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44009</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43918</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43736</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43645</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43554</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43372</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42917</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42826</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>1828000</v>
+      </c>
+      <c r="E81" s="3">
         <v>2337000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2498000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1933000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1156000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>788000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1002000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>760000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1119000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>815000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>898000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>709000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>752000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>579000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>528100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>533900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>611600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>551400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>629500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>473500</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4820,70 +5017,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>660000</v>
+      </c>
+      <c r="E83" s="3">
         <v>621000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>602000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>575000</v>
-      </c>
-      <c r="G83" s="3">
-        <v>574000</v>
       </c>
       <c r="H83" s="3">
         <v>574000</v>
       </c>
       <c r="I83" s="3">
+        <v>574000</v>
+      </c>
+      <c r="J83" s="3">
         <v>576000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>575000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>571000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>555000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>558000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>563000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>571000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>575000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>573500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>516800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>478200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>464500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>473800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>433000</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4944,8 +5145,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5006,8 +5210,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5068,8 +5275,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5130,8 +5340,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -5192,70 +5405,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>2227000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1978000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3339000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2708000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1886000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>356000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1913000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1117000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1294000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>649000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1801000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1220000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1444000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>78000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1866500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>928600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>848400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>361500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1103600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>804400</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5278,70 +5497,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-540000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-628000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-586000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-366000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-269000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-253000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-289000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-216000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-220000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-201000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-284000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-173000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-183000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-118000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-215200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-111400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-88000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-93400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>177400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-162000</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -5402,8 +5625,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -5464,70 +5690,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-626000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1998000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-626000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-365000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-259000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-260000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-339000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-198000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-769000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-181000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-721000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-168000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-185000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-179000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-283400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-6968300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-95400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-381900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-104200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-4192600</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -5550,13 +5782,14 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-87000</v>
+        <v>-103000</v>
       </c>
       <c r="E96" s="3">
         <v>-87000</v>
@@ -5568,52 +5801,55 @@
         <v>-87000</v>
       </c>
       <c r="H96" s="3">
-        <v>-76000</v>
+        <v>-87000</v>
       </c>
       <c r="I96" s="3">
         <v>-76000</v>
       </c>
       <c r="J96" s="3">
+        <v>-76000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-77000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-76000</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-68000</v>
       </c>
       <c r="M96" s="3">
         <v>-68000</v>
       </c>
       <c r="N96" s="3">
-        <v>-69000</v>
+        <v>-68000</v>
       </c>
       <c r="O96" s="3">
         <v>-69000</v>
       </c>
       <c r="P96" s="3">
+        <v>-69000</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-60000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-59900</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-59300</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-58700</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-59100</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-59200</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-59800</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -5674,8 +5910,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -5736,8 +5975,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -5798,190 +6040,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-76000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-4850000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-49000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-791000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1180000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>619000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-514000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1869000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>690000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1425000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-13000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-876000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1006000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-342000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1144300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>6080600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-963000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-119300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-2191500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>4753300</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>-93000</v>
+      </c>
+      <c r="E101" s="3">
         <v>137000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>102000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>181000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>20000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-127000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>57000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-59000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-29000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-32000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-61000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-21000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-272000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>57000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>163900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>87900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>102400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>65800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-110100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-22200</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>1432000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-4733000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2766000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1733000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2827000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>588000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1117000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1009000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1186000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-989000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1006000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>155000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-19000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-386000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>602700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>128800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-107600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-73900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1199800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1310400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TMO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TMO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
   <si>
     <t>TMO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,294 +665,306 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E7" s="2">
         <v>44380</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44289</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44009</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43918</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43736</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43645</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43554</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43372</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42917</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42826</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>9330000</v>
+      </c>
+      <c r="E8" s="3">
         <v>9273000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>9906000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>10550000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>8521000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6917000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6230000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6829000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6272000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6316000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6125000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6507000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5920000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6078000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5853000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6046800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5116200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4990000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4765000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4953200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4490900</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4679000</v>
+      </c>
+      <c r="E9" s="3">
         <v>4749000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4697000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4994000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4190000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3540000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3490000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3794000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3509000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3493000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3418000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3583000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3305000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3340000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3273000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3377600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2816000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2706900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2572500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2674400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2437000</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4651000</v>
+      </c>
+      <c r="E10" s="3">
         <v>4524000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5209000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5556000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4331000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3377000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2740000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3035000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2763000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2823000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2707000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2924000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2615000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2738000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2580000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2669200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2300200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2283100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2192500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2278800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2053900</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -976,73 +988,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>351000</v>
+      </c>
+      <c r="E12" s="3">
         <v>343000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>320000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>376000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>296000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>264000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>245000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>262000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>247000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>246000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>248000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>251000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>240000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>242000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>234000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>232900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>218100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>221600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>215400</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>212600</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>183300</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1106,8 +1122,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1115,64 +1134,67 @@
         <v>77000</v>
       </c>
       <c r="E14" s="3">
+        <v>77000</v>
+      </c>
+      <c r="F14" s="3">
         <v>30000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>29000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-38000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>54000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>44000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>37000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>38000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-448000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>11000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>37000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-31000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>20000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>53000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>5200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>85500</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>29300</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>55000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>57000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>117400</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1236,8 +1258,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1258,138 +1283,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>7052000</v>
+      </c>
+      <c r="E17" s="3">
         <v>7110000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6857000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7479000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6095000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5526000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5324000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5597000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5326000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4820000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5205000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5359000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5008000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5141000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5067000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5088900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4480000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4238500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4142600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4200600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3949800</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>2278000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2163000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3049000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3071000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2426000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1391000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>906000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1232000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>946000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1496000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>920000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1148000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>912000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>937000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>786000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>957900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>636200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>751500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>622400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>752600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>541100</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1413,333 +1445,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E20" s="3">
         <v>6000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-171000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-33000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-30000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>48000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-52000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>40000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>78000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>86000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>36000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>60000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>39000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>11000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>28300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>7700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>15900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>30600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>2929000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2829000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3499000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3640000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2971000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1964000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1528000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1756000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1561000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2145000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1561000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1742000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1535000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1547000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1372000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1559700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1154100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1237400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1102800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1257000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>974200</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>128000</v>
+      </c>
+      <c r="E22" s="3">
         <v>122000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>125000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>146000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>144000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>137000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>126000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>142000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>164000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>181000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>189000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>172000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>162000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>170000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>163000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>166300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>156700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>133600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>135400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>131300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>113300</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>2173000</v>
+      </c>
+      <c r="E23" s="3">
         <v>2047000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2753000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2892000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2252000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1253000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>828000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1038000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>822000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1393000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>817000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1012000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>810000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>806000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>634000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>819900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>480600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>625600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>502900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>651900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>427900</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>271000</v>
+      </c>
+      <c r="E24" s="3">
         <v>219000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>416000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>394000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>319000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>97000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>40000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>36000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>34000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>274000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>22000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>114000</v>
-      </c>
-      <c r="O24" s="3">
-        <v>54000</v>
       </c>
       <c r="P24" s="3">
         <v>54000</v>
       </c>
       <c r="Q24" s="3">
+        <v>54000</v>
+      </c>
+      <c r="R24" s="3">
         <v>-15000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>85400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-53300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>13400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-48500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>19200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-45600</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1803,138 +1851,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>1902000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1828000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2337000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2498000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1933000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1156000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>788000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1002000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>788000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1119000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>795000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>898000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>756000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>752000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>649000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>734500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>533900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>612200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>551400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>632700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>473500</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>1902000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1828000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2337000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2498000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1933000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1156000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>788000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1002000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>788000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1119000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>795000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>898000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>756000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>752000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>649000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>734500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>533900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>612200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>551400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>632700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>473500</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1998,8 +2055,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2018,53 +2078,56 @@
       <c r="H29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-28000</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>20000</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>-47000</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>-70000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-206400</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>-600</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>-3200</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2191,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2193,138 +2259,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-6000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>171000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>33000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>30000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-48000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>52000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-40000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-78000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-86000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-36000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-60000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-39000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-11000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-28300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-7700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-15900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-30600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>1902000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1828000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2337000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2498000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1933000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1156000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>788000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1002000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>760000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1119000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>815000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>898000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>709000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>752000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>579000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>528100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>533900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>611600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>551400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>629500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>473500</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2388,143 +2463,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>1902000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1828000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2337000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2498000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1933000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1156000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>788000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1002000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>760000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1119000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>815000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>898000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>709000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>752000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>579000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>528100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>533900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>611600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>551400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>629500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>473500</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E38" s="2">
         <v>44380</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44289</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44009</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43918</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43736</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43645</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43554</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43372</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42917</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42826</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2548,8 +2632,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2573,398 +2658,417 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>12027000</v>
+      </c>
+      <c r="E41" s="3">
         <v>7023000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5583000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>10325000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7540000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5818000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2981000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2399000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1273000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2288000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1106000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2103000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1098000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>937000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>950000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1335000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>741100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>611000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>713300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>786200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1970000</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E42" s="3">
         <v>65000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>121000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>28000</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I42" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J42" s="3">
         <v>110000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>37000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>7000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>6000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>9000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>31000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>14000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>3000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>7000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>10000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>7300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>53500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>11600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>15800</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>6365000</v>
+      </c>
+      <c r="E43" s="3">
         <v>6280000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>6337000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>6472000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5883000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>5164000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>5166000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4952000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4384000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4129000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4155000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4136000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4257000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4441000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4530000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4311000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4209100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3673200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3523500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3426800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2895100</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>4906000</v>
+      </c>
+      <c r="E44" s="3">
         <v>4625000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4342000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4029000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3829000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3648000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3454000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3370000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3308000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3209000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3124000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3005000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2982000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2866000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2891000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2971000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3125500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2422200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2327100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2213300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>2390900</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>1426000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1267000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1302000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1103000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>982000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1145000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1027000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1135000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1542000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1591000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1545000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1350000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1215000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1227000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1210000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>794000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>761000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>692600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>672600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>578900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>933600</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>24724000</v>
+      </c>
+      <c r="E46" s="3">
         <v>19260000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>17685000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>21957000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>18234000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>15775000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>12738000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>11893000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10514000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>11223000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9939000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>10625000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>9566000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>9474000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>9588000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>9421000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>8844000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>7452500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>7248100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>7021000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>8204400</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -3028,138 +3132,147 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>7049000</v>
+      </c>
+      <c r="E48" s="3">
         <v>6560000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6133000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6687000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5180000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4887000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4736000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5448000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5065000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5027000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4792000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4165000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3978000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3952000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4059000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4047000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3931600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2599700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2563300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2577800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2599300</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>38836000</v>
+      </c>
+      <c r="E49" s="3">
         <v>39294000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>39654000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>38726000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>38652000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>38870000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>39157000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>39728000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>39935000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>40620000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>39725000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>40325000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>40361000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>40800000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>41755000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>41974000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>42158500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>35421100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>35382000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>35296800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>36102400</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3223,8 +3336,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3288,73 +3404,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>2991000</v>
+      </c>
+      <c r="E52" s="3">
         <v>2584000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2459000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1682000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1995000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2061000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2057000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1312000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1215000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1100000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1140000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1117000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1173000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1177000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1178000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1227000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1051200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1040400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1020200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1011900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1104600</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3418,73 +3540,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>73600000</v>
+      </c>
+      <c r="E54" s="3">
         <v>67698000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>65931000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>69052000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>64061000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>61593000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>58688000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>58381000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>56729000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>57970000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>55596000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>56232000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>55078000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>55403000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>56580000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>56669000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>55985300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>46513700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>46213600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>45907500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>48010700</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3508,8 +3636,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3533,398 +3662,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>2301000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2098000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2146000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2175000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1703000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1385000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1599000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1920000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1659000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1391000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1462000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1615000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1344000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1359000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1354000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1428000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1123800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>982200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1031000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>926200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>941700</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>4000</v>
+        <v>19000</v>
       </c>
       <c r="E58" s="3">
         <v>4000</v>
       </c>
       <c r="F58" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G58" s="3">
         <v>2628000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>675000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>738000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>676000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>661000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2377000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1336000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1271000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1014000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1711000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2814000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2135000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2762300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1540400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1882400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1255500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1972100</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>5433000</v>
+      </c>
+      <c r="E59" s="3">
         <v>4823000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4845000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5501000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4523000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3953000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3163000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3601000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3524000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3741000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3100000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3261000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2838000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2910000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2904000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3485000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3145200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2553200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2389500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2684100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2346100</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>7753000</v>
+      </c>
+      <c r="E60" s="3">
         <v>6925000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6995000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>10304000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6228000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6013000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5500000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6197000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5844000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7509000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5898000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6147000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5196000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5980000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7072000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7048000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>7031300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5075800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5302900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>4865800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>5259900</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>21688000</v>
+      </c>
+      <c r="E61" s="3">
         <v>18773000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>18641000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>19107000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>21091000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>20638000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>19231000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>17076000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>16392000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>16663000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>16812000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>17719000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>17760000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>17709000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>18122000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>18873000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>19230400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>15255700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>15188400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>15372400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>16940400</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>5449000</v>
+      </c>
+      <c r="E62" s="3">
         <v>5146000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>5237000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>5134000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>4918000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>5067000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>5398000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>5433000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5138000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5069000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5193000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4780000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>5232000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>5269000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>5263000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>5335000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>5021800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>3790600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>3927100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>4130000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>4151800</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3988,8 +4136,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4053,8 +4204,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4118,73 +4272,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>34890000</v>
+      </c>
+      <c r="E66" s="3">
         <v>30844000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>30873000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>34545000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>32237000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>31718000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>30129000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>28706000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>27374000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>29241000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>27903000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>28646000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>28188000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>28958000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>30457000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>31256000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>31283500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>24122100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>24418400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>24368200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>26352100</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4208,8 +4368,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4273,8 +4434,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4338,8 +4502,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4403,8 +4570,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4468,73 +4638,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>33876000</v>
+      </c>
+      <c r="E72" s="3">
         <v>32076000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>30350000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>28116000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>25705000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>23860000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>22791000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>22092000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>21165000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>20482000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>19439000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>18696000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>17866000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>17226000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>16542000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>15914000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>15445800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>14972300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>14419400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>13926900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>13356500</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4598,8 +4774,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4663,8 +4842,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4728,73 +4910,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>38710000</v>
+      </c>
+      <c r="E76" s="3">
         <v>36854000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>35058000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>34507000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>31824000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>29875000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>28559000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>29675000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>29355000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>28729000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>27693000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>27586000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>26890000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>26445000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>26123000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>25413000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>24701800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>22391600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>21795200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>21539300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>21658600</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4858,143 +5046,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E80" s="2">
         <v>44380</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44289</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44009</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43918</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43736</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43645</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43554</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43372</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42917</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42826</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>1902000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1828000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2337000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2498000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1933000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1156000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>788000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1002000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>760000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1119000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>815000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>898000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>709000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>752000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>579000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>528100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>533900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>611600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>551400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>629500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>473500</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5018,73 +5215,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>628000</v>
+      </c>
+      <c r="E83" s="3">
         <v>660000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>621000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>602000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>575000</v>
-      </c>
-      <c r="H83" s="3">
-        <v>574000</v>
       </c>
       <c r="I83" s="3">
         <v>574000</v>
       </c>
       <c r="J83" s="3">
+        <v>574000</v>
+      </c>
+      <c r="K83" s="3">
         <v>576000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>575000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>571000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>555000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>558000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>563000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>571000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>575000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>573500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>516800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>478200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>464500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>473800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>433000</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5148,8 +5349,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5213,8 +5417,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5278,8 +5485,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5343,8 +5553,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -5408,73 +5621,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>2650000</v>
+      </c>
+      <c r="E89" s="3">
         <v>2227000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1978000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3339000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2708000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1886000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>356000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1913000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1117000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1294000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>649000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1801000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1220000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1444000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>78000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1866500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>928600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>848400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>361500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1103600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>804400</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5498,73 +5717,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-524000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-540000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-628000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-586000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-366000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-269000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-253000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-289000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-216000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-220000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-201000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-284000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-173000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-183000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-118000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-215200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-111400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-88000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-93400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>177400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-162000</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -5628,8 +5851,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -5693,73 +5919,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-616000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-626000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1998000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-626000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-365000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-259000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-260000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-339000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-198000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-769000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-181000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-721000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-168000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-185000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-179000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-283400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-6968300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-95400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-381900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-104200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-4192600</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -5783,16 +6015,17 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
+        <v>-102000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-103000</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-87000</v>
       </c>
       <c r="F96" s="3">
         <v>-87000</v>
@@ -5804,52 +6037,55 @@
         <v>-87000</v>
       </c>
       <c r="I96" s="3">
-        <v>-76000</v>
+        <v>-87000</v>
       </c>
       <c r="J96" s="3">
         <v>-76000</v>
       </c>
       <c r="K96" s="3">
+        <v>-76000</v>
+      </c>
+      <c r="L96" s="3">
         <v>-77000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-76000</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-68000</v>
       </c>
       <c r="N96" s="3">
         <v>-68000</v>
       </c>
       <c r="O96" s="3">
-        <v>-69000</v>
+        <v>-68000</v>
       </c>
       <c r="P96" s="3">
         <v>-69000</v>
       </c>
       <c r="Q96" s="3">
+        <v>-69000</v>
+      </c>
+      <c r="R96" s="3">
         <v>-60000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-59900</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-59300</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-58700</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-59100</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-59200</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-59800</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -5913,8 +6149,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -5978,8 +6217,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -6043,199 +6285,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>3040000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-76000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-4850000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-49000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-791000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1180000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>619000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-514000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1869000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>690000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1425000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-13000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-876000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1006000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-342000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1144300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>6080600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-963000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-119300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-2191500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>4753300</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>-61000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-93000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>137000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>102000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>181000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>20000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-127000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>57000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-59000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-29000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-32000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-61000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-21000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-272000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>57000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>163900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>87900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>102400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>65800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-110100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-22200</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>5013000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1432000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-4733000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2766000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1733000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2827000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>588000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1117000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1009000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1186000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-989000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1006000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>155000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-19000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-386000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>602700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>128800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-107600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-73900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1199800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1310400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TMO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TMO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>TMO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,306 +665,319 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44471</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44380</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44289</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44009</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43918</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43736</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43645</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43554</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43372</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42917</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42826</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>10702000</v>
+      </c>
+      <c r="E8" s="3">
         <v>9330000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>9273000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>9906000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>10550000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>8521000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6917000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6230000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6829000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6272000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6316000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6125000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6507000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5920000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6078000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5853000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6046800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5116200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4990000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4765000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4953200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4490900</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>5448000</v>
+      </c>
+      <c r="E9" s="3">
         <v>4679000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4749000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4697000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4994000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4190000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3540000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3490000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3794000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3509000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3493000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3418000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3583000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3305000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3340000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3273000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3377600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2816000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2706900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2572500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2674400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2437000</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5254000</v>
+      </c>
+      <c r="E10" s="3">
         <v>4651000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4524000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5209000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>5556000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4331000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3377000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2740000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3035000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2763000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2823000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2707000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2924000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2615000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2738000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2580000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2669200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2300200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2283100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2192500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2278800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2053900</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -989,76 +1002,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>392000</v>
+      </c>
+      <c r="E12" s="3">
         <v>351000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>343000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>320000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>376000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>296000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>264000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>245000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>262000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>247000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>246000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>248000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>251000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>240000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>242000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>234000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>232900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>218100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>221600</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>215400</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>212600</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>183300</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1125,76 +1142,82 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>77000</v>
+        <v>924000</v>
       </c>
       <c r="E14" s="3">
         <v>77000</v>
       </c>
       <c r="F14" s="3">
+        <v>77000</v>
+      </c>
+      <c r="G14" s="3">
         <v>30000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>29000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-38000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>54000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>44000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>37000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>38000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-448000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>11000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>37000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-31000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>20000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>53000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>5200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>85500</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>29300</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>55000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>57000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>117400</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1261,8 +1284,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1284,144 +1310,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>8931000</v>
+      </c>
+      <c r="E17" s="3">
         <v>7052000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7110000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6857000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7479000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6095000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5526000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5324000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5597000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5326000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4820000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5205000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5359000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5008000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5141000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5067000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5088900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4480000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4238500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4142600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>4200600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3949800</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>1771000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2278000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2163000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3049000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3071000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2426000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1391000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>906000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1232000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>946000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1496000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>920000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1148000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>912000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>937000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>786000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>957900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>636200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>751500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>622400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>752600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>541100</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1446,348 +1479,364 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>258000</v>
+      </c>
+      <c r="E20" s="3">
         <v>23000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>6000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-171000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-33000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-30000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>48000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-52000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>40000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>78000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>86000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>36000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>60000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>39000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>11000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>28300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>7700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>15900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>30600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>2712000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2929000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2829000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3499000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3640000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2971000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1964000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1528000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1756000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1561000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2145000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1561000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1742000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1535000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1547000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1372000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1559700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1154100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1237400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1102800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1257000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>974200</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>161000</v>
+      </c>
+      <c r="E22" s="3">
         <v>128000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>122000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>125000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>146000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>144000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>137000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>126000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>142000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>164000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>181000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>189000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>172000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>162000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>170000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>163000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>166300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>156700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>133600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>135400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>131300</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>113300</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>1868000</v>
+      </c>
+      <c r="E23" s="3">
         <v>2173000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2047000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2753000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2892000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2252000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1253000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>828000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1038000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>822000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1393000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>817000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1012000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>810000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>806000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>634000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>819900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>480600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>625600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>502900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>651900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>427900</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>203000</v>
+      </c>
+      <c r="E24" s="3">
         <v>271000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>219000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>416000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>394000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>319000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>97000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>40000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>36000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>34000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>274000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>22000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>114000</v>
-      </c>
-      <c r="P24" s="3">
-        <v>54000</v>
       </c>
       <c r="Q24" s="3">
         <v>54000</v>
       </c>
       <c r="R24" s="3">
+        <v>54000</v>
+      </c>
+      <c r="S24" s="3">
         <v>-15000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>85400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-53300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>13400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-48500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>19200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-45600</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1854,144 +1903,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>1665000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1902000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1828000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2337000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2498000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1933000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1156000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>788000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1002000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>788000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1119000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>795000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>898000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>756000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>752000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>649000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>734500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>533900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>612200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>551400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>632700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>473500</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>1658000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1902000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1828000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2337000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2498000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1933000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1156000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>788000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1002000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>788000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1119000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>795000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>898000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>756000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>752000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>649000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>734500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>533900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>612200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>551400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>632700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>473500</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2058,8 +2116,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2081,53 +2142,56 @@
       <c r="I29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-28000</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>20000</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-47000</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>-70000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-206400</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>-600</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
       <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
         <v>-3200</v>
       </c>
-      <c r="X29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2194,8 +2258,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,144 +2329,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-258000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-23000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-6000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>171000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>33000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>30000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-48000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>52000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-40000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-78000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-86000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-36000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-60000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-39000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-11000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-28300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-7700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-15900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-30600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>1658000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1902000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1828000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2337000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2498000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1933000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1156000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>788000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1002000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>760000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1119000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>815000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>898000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>709000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>752000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>579000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>528100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>533900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>611600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>551400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>629500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>473500</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2466,149 +2542,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>1658000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1902000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1828000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2337000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2498000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1933000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1156000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>788000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1002000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>760000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1119000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>815000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>898000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>709000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>752000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>579000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>528100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>533900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>611600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>551400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>629500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>473500</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44471</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44380</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44289</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44009</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43918</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43736</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43645</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43554</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43372</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42917</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42826</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2633,8 +2718,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2659,416 +2745,435 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>4477000</v>
+      </c>
+      <c r="E41" s="3">
         <v>12027000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7023000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5583000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>10325000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>7540000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5818000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2981000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2399000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1273000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2288000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1106000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2103000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1098000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>937000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>950000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1335000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>741100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>611000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>713300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>786200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1970000</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F42" s="3">
         <v>65000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>121000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>28000</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K42" s="3">
         <v>110000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>37000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>7000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>6000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>9000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>31000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>14000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>3000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>7000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>10000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>7300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>53500</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>11600</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>15800</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>8945000</v>
+      </c>
+      <c r="E43" s="3">
         <v>6365000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>6280000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>6337000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>6472000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>5883000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>5164000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>5166000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4952000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4384000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4129000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4155000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4136000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4257000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4441000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4530000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4311000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4209100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3673200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3523500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3426800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2895100</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>5051000</v>
+      </c>
+      <c r="E44" s="3">
         <v>4906000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4625000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4342000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4029000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3829000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3648000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3454000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3370000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3308000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3209000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3124000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3005000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2982000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2866000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2891000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2971000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3125500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2422200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2327100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>2213300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>2390900</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>1640000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1426000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1267000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1302000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1103000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>982000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1145000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1027000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1135000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1542000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1591000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1545000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1350000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1215000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1227000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1210000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>794000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>761000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>692600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>672600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>578900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>933600</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>20113000</v>
+      </c>
+      <c r="E46" s="3">
         <v>24724000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>19260000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>17685000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>21957000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>18234000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>15775000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>12738000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>11893000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>10514000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>11223000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>9939000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>10625000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>9566000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>9474000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>9588000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>9421000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>8844000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>7452500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>7248100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>7021000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>8204400</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -3135,144 +3240,153 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>9864000</v>
+      </c>
+      <c r="E48" s="3">
         <v>7049000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6560000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6133000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6687000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5180000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4887000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4736000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5448000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5065000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5027000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4792000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4165000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3978000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3952000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4059000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4047000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3931600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2599700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2563300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2577800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2599300</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>62037000</v>
+      </c>
+      <c r="E49" s="3">
         <v>38836000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>39294000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>39654000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>38726000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>38652000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>38870000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>39157000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>39728000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>39935000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>40620000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>39725000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>40325000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>40361000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>40800000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>41755000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>41974000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>42158500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>35421100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>35382000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>35296800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>36102400</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3339,8 +3453,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3407,76 +3524,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>3109000</v>
+      </c>
+      <c r="E52" s="3">
         <v>2991000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2584000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2459000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1682000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1995000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2061000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2057000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1312000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1215000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1100000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1140000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1117000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1173000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1177000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1178000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1227000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1051200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1040400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1020200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1011900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1104600</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3543,76 +3666,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>95123000</v>
+      </c>
+      <c r="E54" s="3">
         <v>73600000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>67698000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>65931000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>69052000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>64061000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>61593000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>58688000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>58381000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>56729000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>57970000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>55596000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>56232000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>55078000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>55403000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>56580000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>56669000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>55985300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>46513700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>46213600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>45907500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>48010700</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3637,8 +3766,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3663,416 +3793,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>2867000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2301000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2098000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2146000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2175000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1703000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1385000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1599000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1920000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1659000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1391000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1462000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1615000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1344000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1359000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1354000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1428000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1123800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>982200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1031000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>926200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>941700</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>2537000</v>
+      </c>
+      <c r="E58" s="3">
         <v>19000</v>
-      </c>
-      <c r="E58" s="3">
-        <v>4000</v>
       </c>
       <c r="F58" s="3">
         <v>4000</v>
       </c>
       <c r="G58" s="3">
+        <v>4000</v>
+      </c>
+      <c r="H58" s="3">
         <v>2628000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>675000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>738000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>676000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>661000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2377000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1336000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1271000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1014000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1711000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2814000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2135000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2762300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1540400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1882400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1255500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1972100</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>8032000</v>
+      </c>
+      <c r="E59" s="3">
         <v>5433000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4823000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4845000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5501000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4523000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3953000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3163000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3601000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3524000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3741000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3100000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3261000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2838000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2910000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2904000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3485000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3145200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2553200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2389500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2684100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2346100</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>13436000</v>
+      </c>
+      <c r="E60" s="3">
         <v>7753000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6925000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6995000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>10304000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6228000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6013000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5500000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6197000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5844000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7509000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5898000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6147000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5196000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5980000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7072000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>7048000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>7031300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5075800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>5302900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>4865800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>5259900</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>32333000</v>
+      </c>
+      <c r="E61" s="3">
         <v>21688000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>18773000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>18641000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>19107000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>21091000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>20638000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>19231000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>17076000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>16392000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>16663000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>16812000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>17719000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>17760000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>17709000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>18122000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>18873000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>19230400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>15255700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>15188400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>15372400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>16940400</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>8377000</v>
+      </c>
+      <c r="E62" s="3">
         <v>5449000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>5146000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>5237000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>5134000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>4918000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>5067000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>5398000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5433000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5138000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5069000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>5193000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4780000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>5232000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>5269000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>5263000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>5335000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>5021800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>3790600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>3927100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>4130000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>4151800</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4139,8 +4288,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4207,8 +4359,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4275,76 +4430,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>54330000</v>
+      </c>
+      <c r="E66" s="3">
         <v>34890000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>30844000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>30873000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>34545000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>32237000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>31718000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>30129000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>28706000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>27374000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>29241000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>27903000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>28646000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>28188000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>28958000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>30457000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>31256000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>31283500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>24122100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>24418400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>24368200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>26352100</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4369,8 +4530,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4437,8 +4599,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4505,8 +4670,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4573,8 +4741,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4641,76 +4812,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>35431000</v>
+      </c>
+      <c r="E72" s="3">
         <v>33876000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>32076000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>30350000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>28116000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>25705000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>23860000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>22791000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>22092000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>21165000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>20482000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>19439000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>18696000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>17866000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>17226000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>16542000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>15914000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>15445800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>14972300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>14419400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>13926900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>13356500</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4777,8 +4954,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4845,8 +5025,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4913,76 +5096,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>40793000</v>
+      </c>
+      <c r="E76" s="3">
         <v>38710000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>36854000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>35058000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>34507000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>31824000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>29875000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>28559000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>29675000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>29355000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>28729000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>27693000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>27586000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>26890000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>26445000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>26123000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>25413000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>24701800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>22391600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>21795200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>21539300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>21658600</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -5049,149 +5238,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44471</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44380</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44289</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44009</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43918</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43736</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43645</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43554</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43372</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42917</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42826</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>1658000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1902000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1828000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2337000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2498000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1933000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1156000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>788000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1002000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>760000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1119000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>815000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>898000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>709000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>752000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>579000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>528100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>533900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>611600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>551400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>629500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>473500</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5216,76 +5414,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>683000</v>
+      </c>
+      <c r="E83" s="3">
         <v>628000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>660000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>621000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>602000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>575000</v>
-      </c>
-      <c r="I83" s="3">
-        <v>574000</v>
       </c>
       <c r="J83" s="3">
         <v>574000</v>
       </c>
       <c r="K83" s="3">
+        <v>574000</v>
+      </c>
+      <c r="L83" s="3">
         <v>576000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>575000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>571000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>555000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>558000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>563000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>571000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>575000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>573500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>516800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>478200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>464500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>473800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>433000</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5352,8 +5554,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5420,8 +5625,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5488,8 +5696,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5556,8 +5767,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -5624,76 +5838,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>2457000</v>
+      </c>
+      <c r="E89" s="3">
         <v>2650000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2227000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1978000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3339000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2708000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1886000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>356000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1913000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1117000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1294000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>649000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1801000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1220000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1444000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>78000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1866500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>928600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>848400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>361500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1103600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>804400</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5718,76 +5938,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-831000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-524000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-540000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-628000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-586000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-366000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-269000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-253000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-289000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-216000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-220000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-201000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-284000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-173000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-183000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-118000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-215200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-111400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-88000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-93400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>177400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-162000</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -5854,8 +6078,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -5922,76 +6149,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-18692000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-616000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-626000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1998000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-626000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-365000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-259000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-260000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-339000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-198000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-769000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-181000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-721000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-168000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-185000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-179000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-283400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-6968300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-95400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-381900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-104200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-4192600</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -6016,19 +6249,20 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
+        <v>-103000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-102000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-103000</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-87000</v>
       </c>
       <c r="G96" s="3">
         <v>-87000</v>
@@ -6040,52 +6274,55 @@
         <v>-87000</v>
       </c>
       <c r="J96" s="3">
-        <v>-76000</v>
+        <v>-87000</v>
       </c>
       <c r="K96" s="3">
         <v>-76000</v>
       </c>
       <c r="L96" s="3">
+        <v>-76000</v>
+      </c>
+      <c r="M96" s="3">
         <v>-77000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-76000</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-68000</v>
       </c>
       <c r="O96" s="3">
         <v>-68000</v>
       </c>
       <c r="P96" s="3">
-        <v>-69000</v>
+        <v>-68000</v>
       </c>
       <c r="Q96" s="3">
         <v>-69000</v>
       </c>
       <c r="R96" s="3">
+        <v>-69000</v>
+      </c>
+      <c r="S96" s="3">
         <v>-60000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-59900</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-59300</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-58700</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-59100</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-59200</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-59800</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -6152,8 +6389,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -6220,8 +6460,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -6288,208 +6531,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>8467000</v>
+      </c>
+      <c r="E100" s="3">
         <v>3040000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-76000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-4850000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-49000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-791000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1180000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>619000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-514000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1869000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>690000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1425000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-13000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-876000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1006000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-342000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1144300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>6080600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-963000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-119300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-2191500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>4753300</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>211000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-61000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-93000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>137000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>102000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>181000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>20000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-127000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>57000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-59000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-29000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-32000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-61000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-21000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-272000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>57000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>163900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>87900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>102400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>65800</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-110100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-22200</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>-7557000</v>
+      </c>
+      <c r="E102" s="3">
         <v>5013000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1432000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-4733000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2766000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1733000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2827000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>588000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1117000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1009000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1186000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-989000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1006000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>155000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-19000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-386000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>602700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>128800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-107600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-73900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1199800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1310400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TMO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TMO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>TMO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,319 +665,332 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44471</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44380</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44289</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44009</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43918</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43736</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43645</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43554</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43372</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42917</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42826</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>11818000</v>
+      </c>
+      <c r="E8" s="3">
         <v>10702000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>9330000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>9273000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>9906000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>10550000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>8521000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6917000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6230000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6829000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6272000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6316000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6125000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6507000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5920000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6078000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5853000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6046800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5116200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4990000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4765000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4953200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>4490900</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>6354000</v>
+      </c>
+      <c r="E9" s="3">
         <v>5448000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4679000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4749000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4697000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4994000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4190000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3540000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3490000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3794000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3509000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3493000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3418000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3583000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3305000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3340000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3273000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3377600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2816000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2706900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2572500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2674400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2437000</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5464000</v>
+      </c>
+      <c r="E10" s="3">
         <v>5254000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4651000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4524000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>5209000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>5556000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4331000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3377000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2740000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3035000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2763000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2823000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2707000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2924000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2615000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2738000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2580000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2669200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2300200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2283100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2192500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2278800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>2053900</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,79 +1016,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>364000</v>
+      </c>
+      <c r="E12" s="3">
         <v>392000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>351000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>343000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>320000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>376000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>296000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>264000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>245000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>262000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>247000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>246000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>248000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>251000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>240000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>242000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>234000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>232900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>218100</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>221600</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>215400</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>212600</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>183300</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1145,79 +1162,85 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E14" s="3">
         <v>924000</v>
-      </c>
-      <c r="E14" s="3">
-        <v>77000</v>
       </c>
       <c r="F14" s="3">
         <v>77000</v>
       </c>
       <c r="G14" s="3">
+        <v>77000</v>
+      </c>
+      <c r="H14" s="3">
         <v>30000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>29000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-38000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>54000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>44000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>37000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>38000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-448000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>11000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>37000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-31000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>20000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>53000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>5200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>85500</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>29300</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>55000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>57000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>117400</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1287,8 +1310,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1311,150 +1337,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>8997000</v>
+      </c>
+      <c r="E17" s="3">
         <v>8931000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7052000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7110000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6857000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7479000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6095000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5526000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5324000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5597000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5326000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4820000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5205000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5359000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5008000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5141000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5067000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5088900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4480000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4238500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>4142600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>4200600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>3949800</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>2821000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1771000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2278000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2163000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3049000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3071000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2426000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1391000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>906000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1232000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>946000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1496000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>920000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1148000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>912000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>937000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>786000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>957900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>636200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>751500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>622400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>752600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>541100</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1480,363 +1513,379 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-145000</v>
+      </c>
+      <c r="E20" s="3">
         <v>258000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>23000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>6000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-171000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-33000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-30000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>48000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-52000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>40000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>78000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>86000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>36000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>60000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>39000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>11000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>28300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>7700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>15900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>30600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>3535000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2712000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2929000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2829000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3499000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3640000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2971000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1964000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1528000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1756000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1561000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2145000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1561000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1742000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1535000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1547000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1372000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1559700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1154100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1237400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1102800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1257000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>974200</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>136000</v>
+      </c>
+      <c r="E22" s="3">
         <v>161000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>128000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>122000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>125000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>146000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>144000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>137000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>126000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>142000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>164000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>181000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>189000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>172000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>162000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>170000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>163000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>166300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>156700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>133600</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>135400</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>131300</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>113300</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>2540000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1868000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2173000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2047000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2753000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2892000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2252000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1253000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>828000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1038000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>822000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1393000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>817000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1012000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>810000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>806000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>634000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>819900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>480600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>625600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>502900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>651900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>427900</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>301000</v>
+      </c>
+      <c r="E24" s="3">
         <v>203000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>271000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>219000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>416000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>394000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>319000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>97000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>40000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>36000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>34000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>274000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>22000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>114000</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>54000</v>
       </c>
       <c r="R24" s="3">
         <v>54000</v>
       </c>
       <c r="S24" s="3">
+        <v>54000</v>
+      </c>
+      <c r="T24" s="3">
         <v>-15000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>85400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-53300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>13400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-48500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>19200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-45600</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1906,150 +1955,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>2239000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1665000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1902000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1828000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2337000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2498000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1933000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1156000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>788000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1002000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>788000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1119000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>795000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>898000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>756000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>752000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>649000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>734500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>533900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>612200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>551400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>632700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>473500</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>2215000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1658000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1902000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1828000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2337000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2498000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1933000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1156000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>788000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1002000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>788000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1119000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>795000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>898000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>756000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>752000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>649000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>734500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>533900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>612200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>551400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>632700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>473500</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2119,8 +2177,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2145,53 +2206,56 @@
       <c r="J29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-28000</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>20000</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>-47000</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>-70000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-206400</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>-600</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
       <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-3200</v>
       </c>
-      <c r="Y29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2261,8 +2325,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2332,150 +2399,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>145000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-258000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-23000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-6000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>171000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>33000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>30000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-48000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>52000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-40000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-78000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-86000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-36000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-60000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-39000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-11000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-28300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-7700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-15900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-30600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>2215000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1658000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1902000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1828000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2337000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2498000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1933000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1156000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>788000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1002000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>760000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1119000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>815000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>898000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>709000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>752000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>579000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>528100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>533900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>611600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>551400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>629500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>473500</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2545,155 +2621,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>2215000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1658000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1902000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1828000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2337000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2498000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1933000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1156000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>788000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1002000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>760000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1119000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>815000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>898000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>709000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>752000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>579000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>528100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>533900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>611600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>551400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>629500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>473500</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44471</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44380</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44289</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44009</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43918</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43736</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43645</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43554</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43372</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42917</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42826</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2719,8 +2804,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2746,434 +2832,453 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>2752000</v>
+      </c>
+      <c r="E41" s="3">
         <v>4477000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>12027000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7023000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5583000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>10325000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>7540000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5818000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2981000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2399000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1273000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2288000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1106000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2103000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1098000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>937000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>950000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1335000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>741100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>611000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>713300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>786200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1970000</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>91</v>
+      <c r="D42" s="3">
+        <v>150000</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G42" s="3">
         <v>65000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>121000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>28000</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K42" s="3">
+      <c r="K42" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L42" s="3">
         <v>110000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>37000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>7000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>6000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>9000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>31000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>14000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>3000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>7000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>10000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>7300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>53500</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>11600</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>15800</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>8803000</v>
+      </c>
+      <c r="E43" s="3">
         <v>8945000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>6365000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>6280000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>6337000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>6472000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>5883000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>5164000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5166000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4952000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4384000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4129000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4155000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4136000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4257000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4441000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4530000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4311000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>4209100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3673200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3523500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3426800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>2895100</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>5483000</v>
+      </c>
+      <c r="E44" s="3">
         <v>5051000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4906000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4625000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4342000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4029000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3829000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3648000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3454000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3370000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3308000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3209000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3124000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3005000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2982000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2866000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2891000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2971000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3125500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2422200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>2327100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>2213300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>2390900</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>1588000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1640000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1426000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1267000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1302000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1103000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>982000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1145000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1027000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1135000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1542000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1591000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1545000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1350000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1215000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1227000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1210000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>794000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>761000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>692600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>672600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>578900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>933600</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>18776000</v>
+      </c>
+      <c r="E46" s="3">
         <v>20113000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>24724000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>19260000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>17685000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>21957000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>18234000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>15775000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>12738000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>11893000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>10514000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>11223000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>9939000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>10625000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>9566000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>9474000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>9588000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>9421000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>8844000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>7452500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>7248100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>7021000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>8204400</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -3243,150 +3348,159 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>8448000</v>
+      </c>
+      <c r="E48" s="3">
         <v>9864000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>7049000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6560000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6133000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>6687000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5180000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4887000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4736000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5448000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5065000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5027000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4792000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4165000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3978000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3952000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4059000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4047000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3931600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2599700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2563300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2577800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>2599300</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>61099000</v>
+      </c>
+      <c r="E49" s="3">
         <v>62037000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>38836000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>39294000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>39654000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>38726000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>38652000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>38870000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>39157000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>39728000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>39935000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>40620000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>39725000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>40325000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>40361000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>40800000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>41755000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>41974000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>42158500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>35421100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>35382000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>35296800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>36102400</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3456,8 +3570,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3527,79 +3644,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>4424000</v>
+      </c>
+      <c r="E52" s="3">
         <v>3109000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2991000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2584000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2459000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1682000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1995000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2061000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2057000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1312000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1215000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1100000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1140000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1117000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1173000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1177000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1178000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1227000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1051200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1040400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1020200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1011900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1104600</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3669,79 +3792,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>92747000</v>
+      </c>
+      <c r="E54" s="3">
         <v>95123000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>73600000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>67698000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>65931000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>69052000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>64061000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>61593000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>58688000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>58381000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>56729000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>57970000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>55596000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>56232000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>55078000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>55403000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>56580000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>56669000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>55985300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>46513700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>46213600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>45907500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>48010700</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3767,8 +3896,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3794,434 +3924,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>2667000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2867000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2301000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2098000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2146000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2175000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1703000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1385000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1599000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1920000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1659000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1391000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1462000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1615000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1344000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1359000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1354000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1428000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1123800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>982200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1031000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>926200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>941700</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>1866000</v>
+      </c>
+      <c r="E58" s="3">
         <v>2537000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>19000</v>
-      </c>
-      <c r="F58" s="3">
-        <v>4000</v>
       </c>
       <c r="G58" s="3">
         <v>4000</v>
       </c>
       <c r="H58" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I58" s="3">
         <v>2628000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>675000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>738000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>676000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>661000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2377000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1336000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1271000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1014000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1711000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2814000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2135000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2762300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1540400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1882400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1255500</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1972100</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>7537000</v>
+      </c>
+      <c r="E59" s="3">
         <v>8032000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5433000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4823000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4845000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5501000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4523000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3953000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3163000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3601000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3524000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3741000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3100000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3261000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2838000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2910000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2904000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3485000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3145200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2553200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2389500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2684100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2346100</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>12070000</v>
+      </c>
+      <c r="E60" s="3">
         <v>13436000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7753000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6925000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6995000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>10304000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6228000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6013000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5500000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6197000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5844000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7509000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5898000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6147000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5196000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5980000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>7072000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>7048000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>7031300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>5075800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>5302900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>4865800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>5259900</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>31389000</v>
+      </c>
+      <c r="E61" s="3">
         <v>32333000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>21688000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>18773000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>18641000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>19107000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>21091000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>20638000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>19231000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>17076000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>16392000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>16663000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>16812000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>17719000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>17760000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>17709000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>18122000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>18873000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>19230400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>15255700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>15188400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>15372400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>16940400</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>8157000</v>
+      </c>
+      <c r="E62" s="3">
         <v>8377000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>5449000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>5146000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>5237000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>5134000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>4918000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>5067000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5398000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5433000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5138000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>5069000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>5193000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4780000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>5232000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>5269000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>5263000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>5335000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>5021800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>3790600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>3927100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>4130000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>4151800</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4291,8 +4440,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4362,8 +4514,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4433,79 +4588,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>51791000</v>
+      </c>
+      <c r="E66" s="3">
         <v>54330000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>34890000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>30844000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>30873000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>34545000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>32237000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>31718000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>30129000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>28706000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>27374000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>29241000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>27903000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>28646000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>28188000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>28958000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>30457000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>31256000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>31283500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>24122100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>24418400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>24368200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>26352100</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4531,8 +4692,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4602,8 +4764,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4673,8 +4838,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4744,8 +4912,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4815,79 +4986,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>37528000</v>
+      </c>
+      <c r="E72" s="3">
         <v>35431000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>33876000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>32076000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>30350000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>28116000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>25705000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>23860000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>22791000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>22092000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>21165000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>20482000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>19439000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>18696000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>17866000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>17226000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>16542000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>15914000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>15445800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>14972300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>14419400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>13926900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>13356500</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4957,8 +5134,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5028,8 +5208,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -5099,79 +5282,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>40956000</v>
+      </c>
+      <c r="E76" s="3">
         <v>40793000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>38710000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>36854000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>35058000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>34507000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>31824000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>29875000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>28559000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>29675000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>29355000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>28729000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>27693000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>27586000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>26890000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>26445000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>26123000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>25413000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>24701800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>22391600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>21795200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>21539300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>21658600</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -5241,155 +5430,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44471</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44380</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44289</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44009</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43918</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43736</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43645</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43554</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43372</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42917</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42826</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>2215000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1658000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1902000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1828000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2337000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2498000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1933000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1156000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>788000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1002000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>760000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1119000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>815000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>898000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>709000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>752000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>579000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>528100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>533900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>611600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>551400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>629500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>473500</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5415,79 +5613,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>859000</v>
+      </c>
+      <c r="E83" s="3">
         <v>683000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>628000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>660000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>621000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>602000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>575000</v>
-      </c>
-      <c r="J83" s="3">
-        <v>574000</v>
       </c>
       <c r="K83" s="3">
         <v>574000</v>
       </c>
       <c r="L83" s="3">
+        <v>574000</v>
+      </c>
+      <c r="M83" s="3">
         <v>576000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>575000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>571000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>555000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>558000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>563000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>571000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>575000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>573500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>516800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>478200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>464500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>473800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>433000</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5557,8 +5759,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5628,8 +5833,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5699,8 +5907,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5770,8 +5981,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -5841,79 +6055,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>2202000</v>
+      </c>
+      <c r="E89" s="3">
         <v>2457000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2650000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2227000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1978000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3339000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2708000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1886000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>356000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1913000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1117000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1294000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>649000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1801000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1220000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1444000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>78000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1866500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>928600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>848400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>361500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1103600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>804400</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5939,79 +6159,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-640000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-831000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-524000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-540000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-628000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-586000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-366000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-269000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-253000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-289000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-216000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-220000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-201000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-284000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-173000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-183000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-118000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-215200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-111400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-88000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-93400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>177400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-162000</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -6081,8 +6305,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -6152,79 +6379,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-670000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-18692000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-616000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-626000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1998000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-626000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-365000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-259000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-260000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-339000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-198000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-769000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-181000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-721000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-168000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-185000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-179000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-283400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-6968300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-95400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-381900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-104200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-4192600</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -6250,8 +6483,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -6259,13 +6493,13 @@
         <v>-103000</v>
       </c>
       <c r="E96" s="3">
+        <v>-103000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-102000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-103000</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-87000</v>
       </c>
       <c r="H96" s="3">
         <v>-87000</v>
@@ -6277,52 +6511,55 @@
         <v>-87000</v>
       </c>
       <c r="K96" s="3">
-        <v>-76000</v>
+        <v>-87000</v>
       </c>
       <c r="L96" s="3">
         <v>-76000</v>
       </c>
       <c r="M96" s="3">
+        <v>-76000</v>
+      </c>
+      <c r="N96" s="3">
         <v>-77000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-76000</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-68000</v>
       </c>
       <c r="P96" s="3">
         <v>-68000</v>
       </c>
       <c r="Q96" s="3">
-        <v>-69000</v>
+        <v>-68000</v>
       </c>
       <c r="R96" s="3">
         <v>-69000</v>
       </c>
       <c r="S96" s="3">
+        <v>-69000</v>
+      </c>
+      <c r="T96" s="3">
         <v>-60000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-59900</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-59300</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-58700</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-59100</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-59200</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-59800</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -6392,8 +6629,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -6463,8 +6703,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -6534,217 +6777,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-3145000</v>
+      </c>
+      <c r="E100" s="3">
         <v>8467000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>3040000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-76000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-4850000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-49000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-791000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1180000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>619000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-514000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1869000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>690000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1425000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-13000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-876000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1006000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-342000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1144300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>6080600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-963000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-119300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-2191500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>4753300</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>-99000</v>
+      </c>
+      <c r="E101" s="3">
         <v>211000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-61000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-93000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>137000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>102000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>181000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>20000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-127000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>57000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-59000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-29000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-32000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-61000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-21000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-272000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>57000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>163900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>87900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>102400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>65800</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-110100</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-22200</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>-1712000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-7557000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>5013000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1432000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-4733000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2766000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1733000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2827000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>588000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1117000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1009000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1186000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-989000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1006000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>155000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-19000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-386000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>602700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>128800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-107600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-73900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1199800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>1310400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TMO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TMO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>TMO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,332 +665,344 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E7" s="2">
         <v>44653</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44471</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44380</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44289</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44009</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43918</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43736</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43645</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43554</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43372</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42917</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42826</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>10970000</v>
+      </c>
+      <c r="E8" s="3">
         <v>11818000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>10702000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>9330000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>9273000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>9906000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>10550000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>8521000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6917000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6230000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6829000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6272000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6316000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6125000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6507000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5920000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6078000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5853000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6046800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5116200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4990000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4765000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>4953200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>4490900</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>6371000</v>
+      </c>
+      <c r="E9" s="3">
         <v>6354000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>5448000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4679000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4749000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4697000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4994000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4190000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3540000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3490000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3794000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3509000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3493000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3418000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3583000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3305000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3340000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3273000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3377600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2816000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2706900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2572500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2674400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>2437000</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4599000</v>
+      </c>
+      <c r="E10" s="3">
         <v>5464000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5254000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4651000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4524000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>5209000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>5556000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4331000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3377000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2740000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3035000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2763000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2823000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2707000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2924000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2615000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2738000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2580000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2669200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2300200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2283100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2192500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>2278800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>2053900</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1017,82 +1029,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>365000</v>
+      </c>
+      <c r="E12" s="3">
         <v>364000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>392000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>351000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>343000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>320000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>376000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>296000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>264000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>245000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>262000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>247000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>246000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>248000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>251000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>240000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>242000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>234000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>232900</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>218100</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>221600</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>215400</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>212600</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>183300</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1165,82 +1181,88 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>2000</v>
+        <v>24000</v>
       </c>
       <c r="E14" s="3">
+        <v>28000</v>
+      </c>
+      <c r="F14" s="3">
         <v>924000</v>
-      </c>
-      <c r="F14" s="3">
-        <v>77000</v>
       </c>
       <c r="G14" s="3">
         <v>77000</v>
       </c>
       <c r="H14" s="3">
+        <v>77000</v>
+      </c>
+      <c r="I14" s="3">
         <v>30000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>29000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-38000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>54000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>44000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>37000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>38000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-448000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>11000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>37000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-31000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>20000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>53000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>5200</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>85500</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>29300</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>55000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>57000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>117400</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1313,8 +1335,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1338,156 +1363,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>8997000</v>
+        <v>8969000</v>
       </c>
       <c r="E17" s="3">
+        <v>9023000</v>
+      </c>
+      <c r="F17" s="3">
         <v>8931000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7052000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7110000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6857000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7479000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6095000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5526000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5324000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5597000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5326000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4820000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5205000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5359000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5008000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5141000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5067000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5088900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4480000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>4238500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>4142600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>4200600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>3949800</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>2821000</v>
+        <v>2001000</v>
       </c>
       <c r="E18" s="3">
+        <v>2795000</v>
+      </c>
+      <c r="F18" s="3">
         <v>1771000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2278000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2163000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3049000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3071000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2426000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1391000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>906000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1232000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>946000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1496000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>920000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1148000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>912000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>937000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>786000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>957900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>636200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>751500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>622400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>752600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>541100</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1514,378 +1546,394 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-145000</v>
+        <v>64000</v>
       </c>
       <c r="E20" s="3">
+        <v>-119000</v>
+      </c>
+      <c r="F20" s="3">
         <v>258000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>23000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>6000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-171000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-33000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-30000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>48000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-52000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>40000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>78000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>86000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>36000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>60000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>39000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>11000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>28300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>7700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>15900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>30600</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>2901000</v>
+      </c>
+      <c r="E21" s="3">
         <v>3535000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2712000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2929000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2829000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3499000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3640000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2971000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1964000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1528000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1756000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1561000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2145000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1561000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1742000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1535000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1547000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1372000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1559700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1154100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1237400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1102800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1257000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>974200</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>148000</v>
+      </c>
+      <c r="E22" s="3">
         <v>136000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>161000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>128000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>122000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>125000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>146000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>144000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>137000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>126000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>142000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>164000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>181000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>189000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>172000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>162000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>170000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>163000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>166300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>156700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>133600</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>135400</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>131300</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>113300</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>1917000</v>
+      </c>
+      <c r="E23" s="3">
         <v>2540000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1868000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2173000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2047000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2753000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2892000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2252000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1253000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>828000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1038000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>822000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1393000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>817000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1012000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>810000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>806000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>634000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>819900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>480600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>625600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>502900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>651900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>427900</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>198000</v>
+      </c>
+      <c r="E24" s="3">
         <v>301000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>203000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>271000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>219000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>416000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>394000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>319000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>97000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>40000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>36000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>34000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>274000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>22000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>114000</v>
-      </c>
-      <c r="R24" s="3">
-        <v>54000</v>
       </c>
       <c r="S24" s="3">
         <v>54000</v>
       </c>
       <c r="T24" s="3">
+        <v>54000</v>
+      </c>
+      <c r="U24" s="3">
         <v>-15000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>85400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-53300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>13400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-48500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>19200</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-45600</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1958,156 +2006,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>1719000</v>
+      </c>
+      <c r="E26" s="3">
         <v>2239000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1665000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1902000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1828000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2337000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2498000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1933000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1156000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>788000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1002000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>788000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1119000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>795000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>898000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>756000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>752000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>649000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>734500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>533900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>612200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>551400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>632700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>473500</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>1664000</v>
+      </c>
+      <c r="E27" s="3">
         <v>2215000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1658000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1902000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1828000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2337000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2498000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1933000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1156000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>788000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1002000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>788000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1119000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>795000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>898000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>756000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>752000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>649000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>734500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>533900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>612200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>551400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>632700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>473500</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2180,8 +2237,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2209,53 +2269,56 @@
       <c r="K29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-28000</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>20000</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>-47000</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>-70000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-206400</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
       <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
         <v>-600</v>
       </c>
-      <c r="X29" s="3">
-        <v>0</v>
-      </c>
       <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
         <v>-3200</v>
       </c>
-      <c r="Z29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2328,8 +2391,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2402,156 +2468,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>145000</v>
+        <v>-64000</v>
       </c>
       <c r="E32" s="3">
+        <v>119000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-258000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-23000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-6000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>171000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>33000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>30000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-48000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>52000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-40000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-78000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-86000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-36000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-60000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-39000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-11000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-28300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-7700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-15900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-30600</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>1664000</v>
+      </c>
+      <c r="E33" s="3">
         <v>2215000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1658000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1902000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1828000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2337000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2498000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1933000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1156000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>788000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1002000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>760000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1119000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>815000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>898000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>709000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>752000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>579000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>528100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>533900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>611600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>551400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>629500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>473500</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2624,161 +2699,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>1664000</v>
+      </c>
+      <c r="E35" s="3">
         <v>2215000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1658000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1902000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1828000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2337000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2498000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1933000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1156000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>788000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1002000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>760000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1119000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>815000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>898000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>709000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>752000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>579000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>528100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>533900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>611600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>551400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>629500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>473500</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E38" s="2">
         <v>44653</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44471</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44380</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44289</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44009</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43918</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43736</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43645</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43554</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43372</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42917</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42826</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2805,8 +2889,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2833,452 +2918,471 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>1888000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2752000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4477000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>12027000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7023000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5583000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>10325000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>7540000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5818000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2981000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2399000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1273000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2288000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1106000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2103000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1098000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>937000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>950000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1335000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>741100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>611000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>713300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>786200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1970000</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E42" s="3">
         <v>150000</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H42" s="3">
         <v>65000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>121000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>28000</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="L42" s="3">
+      <c r="L42" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M42" s="3">
         <v>110000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>37000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>7000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>6000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>9000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>31000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>14000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>3000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>7000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>10000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>7300</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>53500</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>11600</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>15800</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>8892000</v>
+      </c>
+      <c r="E43" s="3">
         <v>8803000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>8945000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>6365000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>6280000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>6337000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>6472000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>5883000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5164000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5166000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4952000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4384000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4129000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4155000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4136000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4257000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4441000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4530000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>4311000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>4209100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3673200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3523500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>3426800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>2895100</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>5668000</v>
+      </c>
+      <c r="E44" s="3">
         <v>5483000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>5051000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4906000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4625000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4342000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4029000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3829000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3648000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3454000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3370000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3308000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3209000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3124000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3005000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2982000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2866000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2891000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2971000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3125500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>2422200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>2327100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>2213300</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>2390900</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>1652000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1588000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1640000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1426000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1267000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1302000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1103000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>982000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1145000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1027000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1135000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1542000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1591000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1545000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1350000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1215000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1227000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1210000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>794000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>761000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>692600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>672600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>578900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>933600</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>18100000</v>
+      </c>
+      <c r="E46" s="3">
         <v>18776000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>20113000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>24724000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>19260000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>17685000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>21957000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>18234000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>15775000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>12738000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>11893000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>10514000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>11223000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>9939000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>10625000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>9566000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>9474000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>9588000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>9421000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>8844000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>7452500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>7248100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>7021000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>8204400</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -3351,156 +3455,165 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>8529000</v>
+      </c>
+      <c r="E48" s="3">
         <v>8448000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>9864000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>7049000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6560000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>6133000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>6687000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5180000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4887000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4736000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5448000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5065000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5027000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4792000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4165000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3978000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3952000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4059000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4047000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3931600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2599700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2563300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>2577800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>2599300</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>59644000</v>
+      </c>
+      <c r="E49" s="3">
         <v>61099000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>62037000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>38836000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>39294000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>39654000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>38726000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>38652000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>38870000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>39157000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>39728000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>39935000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>40620000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>39725000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>40325000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>40361000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>40800000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>41755000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>41974000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>42158500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>35421100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>35382000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>35296800</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>36102400</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3573,8 +3686,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3647,82 +3763,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>4306000</v>
+      </c>
+      <c r="E52" s="3">
         <v>4424000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3109000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2991000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2584000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2459000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1682000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1995000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2061000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2057000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1312000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1215000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1100000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1140000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1117000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1173000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1177000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1178000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1227000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1051200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1040400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1020200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1011900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1104600</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3795,82 +3917,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>90579000</v>
+      </c>
+      <c r="E54" s="3">
         <v>92747000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>95123000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>73600000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>67698000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>65931000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>69052000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>64061000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>61593000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>58688000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>58381000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>56729000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>57970000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>55596000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>56232000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>55078000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>55403000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>56580000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>56669000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>55985300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>46513700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>46213600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>45907500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>48010700</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3897,8 +4025,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3925,452 +4054,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>2586000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2667000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2867000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2301000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2098000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2146000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2175000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1703000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1385000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1599000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1920000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1659000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1391000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1462000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1615000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1344000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1359000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1354000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1428000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1123800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>982200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1031000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>926200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>941700</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>1010000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1866000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2537000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>19000</v>
-      </c>
-      <c r="G58" s="3">
-        <v>4000</v>
       </c>
       <c r="H58" s="3">
         <v>4000</v>
       </c>
       <c r="I58" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J58" s="3">
         <v>2628000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>675000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>738000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>676000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>661000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2377000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1336000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1271000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1014000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1711000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2814000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2135000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2762300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1540400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1882400</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1255500</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1972100</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>7401000</v>
+      </c>
+      <c r="E59" s="3">
         <v>7537000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>8032000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5433000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4823000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4845000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5501000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4523000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3953000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3163000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3601000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3524000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3741000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3100000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3261000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2838000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2910000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2904000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3485000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3145200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2553200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2389500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2684100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2346100</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>10997000</v>
+      </c>
+      <c r="E60" s="3">
         <v>12070000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>13436000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7753000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6925000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6995000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>10304000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6228000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6013000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5500000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6197000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5844000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7509000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5898000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6147000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5196000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5980000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>7072000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>7048000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>7031300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>5075800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>5302900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>4865800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>5259900</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>29250000</v>
+      </c>
+      <c r="E61" s="3">
         <v>31389000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>32333000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>21688000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>18773000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>18641000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>19107000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>21091000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>20638000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>19231000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>17076000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>16392000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>16663000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>16812000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>17719000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>17760000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>17709000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>18122000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>18873000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>19230400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>15255700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>15188400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>15372400</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>16940400</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>7861000</v>
+      </c>
+      <c r="E62" s="3">
         <v>8157000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>8377000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>5449000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>5146000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>5237000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>5134000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>4918000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5067000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5398000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5433000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>5138000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>5069000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>5193000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4780000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>5232000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>5269000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>5263000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>5335000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>5021800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>3790600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>3927100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>4130000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>4151800</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4443,8 +4591,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4517,8 +4668,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4591,82 +4745,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>48286000</v>
+      </c>
+      <c r="E66" s="3">
         <v>51791000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>54330000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>34890000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>30844000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>30873000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>34545000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>32237000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>31718000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>30129000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>28706000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>27374000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>29241000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>27903000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>28646000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>28188000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>28958000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>30457000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>31256000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>31283500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>24122100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>24418400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>24368200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>26352100</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4693,8 +4853,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4767,8 +4928,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4841,8 +5005,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4915,8 +5082,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4989,82 +5159,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>39074000</v>
+      </c>
+      <c r="E72" s="3">
         <v>37528000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>35431000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>33876000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>32076000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>30350000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>28116000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>25705000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>23860000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>22791000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>22092000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>21165000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>20482000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>19439000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>18696000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>17866000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>17226000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>16542000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>15914000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>15445800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>14972300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>14419400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>13926900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>13356500</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -5137,8 +5313,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5211,8 +5390,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -5285,82 +5467,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>42293000</v>
+      </c>
+      <c r="E76" s="3">
         <v>40956000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>40793000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>38710000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>36854000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>35058000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>34507000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>31824000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>29875000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>28559000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>29675000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>29355000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>28729000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>27693000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>27586000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>26890000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>26445000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>26123000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>25413000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>24701800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>22391600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>21795200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>21539300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>21658600</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -5433,161 +5621,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E80" s="2">
         <v>44653</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44471</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44380</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44289</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44009</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43918</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43736</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43645</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43554</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43372</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42917</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42826</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>1664000</v>
+      </c>
+      <c r="E81" s="3">
         <v>2215000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1658000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1902000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1828000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2337000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2498000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1933000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1156000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>788000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1002000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>760000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1119000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>815000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>898000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>709000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>752000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>579000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>528100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>533900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>611600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>551400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>629500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>473500</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5614,82 +5811,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>836000</v>
+      </c>
+      <c r="E83" s="3">
         <v>859000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>683000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>628000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>660000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>621000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>602000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>575000</v>
-      </c>
-      <c r="K83" s="3">
-        <v>574000</v>
       </c>
       <c r="L83" s="3">
         <v>574000</v>
       </c>
       <c r="M83" s="3">
+        <v>574000</v>
+      </c>
+      <c r="N83" s="3">
         <v>576000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>575000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>571000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>555000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>558000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>563000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>571000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>575000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>573500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>516800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>478200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>464500</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>473800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>433000</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5762,8 +5963,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5836,8 +6040,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5910,8 +6117,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5984,8 +6194,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -6058,82 +6271,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>1528000</v>
+      </c>
+      <c r="E89" s="3">
         <v>2202000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2457000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2650000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2227000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1978000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3339000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2708000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1886000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>356000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1913000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1117000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1294000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>649000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1801000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1220000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1444000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>78000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1866500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>928600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>848400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>361500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1103600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>804400</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -6160,82 +6379,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-506000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-640000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-831000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-524000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-540000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-628000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-586000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-366000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-269000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-253000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-289000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-216000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-220000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-201000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-284000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-173000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-183000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-118000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-215200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-111400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-88000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-93400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>177400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-162000</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -6308,8 +6531,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -6382,82 +6608,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-419000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-670000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-18692000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-616000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-626000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1998000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-626000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-365000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-259000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-260000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-339000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-198000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-769000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-181000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-721000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-168000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-185000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-179000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-283400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-6968300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-95400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-381900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-104200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-4192600</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -6484,25 +6716,26 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-103000</v>
+        <v>-117000</v>
       </c>
       <c r="E96" s="3">
         <v>-103000</v>
       </c>
       <c r="F96" s="3">
+        <v>-103000</v>
+      </c>
+      <c r="G96" s="3">
         <v>-102000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-103000</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-87000</v>
       </c>
       <c r="I96" s="3">
         <v>-87000</v>
@@ -6514,52 +6747,55 @@
         <v>-87000</v>
       </c>
       <c r="L96" s="3">
-        <v>-76000</v>
+        <v>-87000</v>
       </c>
       <c r="M96" s="3">
         <v>-76000</v>
       </c>
       <c r="N96" s="3">
+        <v>-76000</v>
+      </c>
+      <c r="O96" s="3">
         <v>-77000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-76000</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-68000</v>
       </c>
       <c r="Q96" s="3">
         <v>-68000</v>
       </c>
       <c r="R96" s="3">
-        <v>-69000</v>
+        <v>-68000</v>
       </c>
       <c r="S96" s="3">
         <v>-69000</v>
       </c>
       <c r="T96" s="3">
+        <v>-69000</v>
+      </c>
+      <c r="U96" s="3">
         <v>-60000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-59900</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-59300</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-58700</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-59100</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-59200</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-59800</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -6632,8 +6868,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -6706,8 +6945,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -6780,226 +7022,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-1905000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3145000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>8467000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>3040000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-76000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-4850000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-49000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-791000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1180000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>619000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-514000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1869000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>690000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1425000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-13000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-876000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1006000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-342000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1144300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>6080600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-963000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-119300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-2191500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>4753300</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>-78000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-99000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>211000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-61000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-93000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>137000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>102000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>181000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>20000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-127000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>57000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-59000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-29000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-32000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-61000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-21000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-272000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>57000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>163900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>87900</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>102400</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>65800</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-110100</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-22200</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>-874000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1712000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-7557000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>5013000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1432000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-4733000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2766000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1733000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2827000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>588000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1117000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1009000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1186000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-989000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1006000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>155000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-19000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-386000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>602700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>128800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-107600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-73900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-1199800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>1310400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TMO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TMO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>TMO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,344 +665,356 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E7" s="2">
         <v>44744</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44653</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44471</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44380</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44289</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44009</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43918</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43736</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43645</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43554</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43372</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42917</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42826</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>10677000</v>
+      </c>
+      <c r="E8" s="3">
         <v>10970000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>11818000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>10702000</v>
       </c>
-      <c r="G8" s="3">
-        <v>9330000</v>
-      </c>
       <c r="H8" s="3">
+        <v>28509000</v>
+      </c>
+      <c r="I8" s="3">
         <v>9273000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>9906000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>10550000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8521000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6917000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6230000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6829000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6272000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6316000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6125000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6507000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5920000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6078000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5853000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>6046800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>5116200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4990000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>4765000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>4953200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>4490900</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>6375000</v>
+      </c>
+      <c r="E9" s="3">
         <v>6371000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>6354000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>5448000</v>
       </c>
-      <c r="G9" s="3">
-        <v>4679000</v>
-      </c>
       <c r="H9" s="3">
+        <v>14125000</v>
+      </c>
+      <c r="I9" s="3">
         <v>4749000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4697000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4994000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4190000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3540000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3490000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3794000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3509000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3493000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3418000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3583000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3305000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3340000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3273000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3377600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2816000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2706900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2572500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>2674400</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>2437000</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4302000</v>
+      </c>
+      <c r="E10" s="3">
         <v>4599000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5464000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5254000</v>
       </c>
-      <c r="G10" s="3">
-        <v>4651000</v>
-      </c>
       <c r="H10" s="3">
+        <v>14384000</v>
+      </c>
+      <c r="I10" s="3">
         <v>4524000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>5209000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>5556000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4331000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3377000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2740000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3035000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2763000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2823000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2707000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2924000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2615000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2738000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2580000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2669200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2300200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2283100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>2192500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>2278800</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>2053900</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1030,85 +1042,89 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>351000</v>
+      </c>
+      <c r="E12" s="3">
         <v>365000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>364000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>392000</v>
       </c>
-      <c r="G12" s="3">
-        <v>351000</v>
-      </c>
       <c r="H12" s="3">
+        <v>1014000</v>
+      </c>
+      <c r="I12" s="3">
         <v>343000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>320000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>376000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>296000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>264000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>245000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>262000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>247000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>246000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>248000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>251000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>240000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>242000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>234000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>232900</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>218100</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>221600</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>215400</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>212600</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>183300</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1184,85 +1200,91 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E14" s="3">
         <v>24000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>28000</v>
       </c>
-      <c r="F14" s="3">
-        <v>924000</v>
-      </c>
       <c r="G14" s="3">
+        <v>727000</v>
+      </c>
+      <c r="H14" s="3">
+        <v>210000</v>
+      </c>
+      <c r="I14" s="3">
         <v>77000</v>
       </c>
-      <c r="H14" s="3">
-        <v>77000</v>
-      </c>
-      <c r="I14" s="3">
-        <v>30000</v>
-      </c>
       <c r="J14" s="3">
+        <v>227000</v>
+      </c>
+      <c r="K14" s="3">
         <v>29000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-38000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>54000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>44000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>37000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>38000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-448000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>11000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>37000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-31000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>20000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>53000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>5200</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>85500</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>29300</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>55000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>57000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>117400</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1338,8 +1360,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1364,162 +1389,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>8967000</v>
+      </c>
+      <c r="E17" s="3">
         <v>8969000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>9023000</v>
       </c>
-      <c r="F17" s="3">
-        <v>8931000</v>
-      </c>
       <c r="G17" s="3">
-        <v>7052000</v>
+        <v>8734000</v>
       </c>
       <c r="H17" s="3">
+        <v>21019000</v>
+      </c>
+      <c r="I17" s="3">
         <v>7110000</v>
       </c>
-      <c r="I17" s="3">
-        <v>6857000</v>
-      </c>
       <c r="J17" s="3">
+        <v>7054000</v>
+      </c>
+      <c r="K17" s="3">
         <v>7479000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6095000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5526000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5324000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5597000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5326000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4820000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5205000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5359000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5008000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5141000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5067000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5088900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>4480000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>4238500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>4142600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>4200600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>3949800</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>1710000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2001000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2795000</v>
       </c>
-      <c r="F18" s="3">
-        <v>1771000</v>
-      </c>
       <c r="G18" s="3">
-        <v>2278000</v>
+        <v>1968000</v>
       </c>
       <c r="H18" s="3">
+        <v>7490000</v>
+      </c>
+      <c r="I18" s="3">
         <v>2163000</v>
       </c>
-      <c r="I18" s="3">
-        <v>3049000</v>
-      </c>
       <c r="J18" s="3">
+        <v>2852000</v>
+      </c>
+      <c r="K18" s="3">
         <v>3071000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2426000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1391000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>906000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1232000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>946000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1496000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>920000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1148000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>912000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>937000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>786000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>957900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>636200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>751500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>622400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>752600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>541100</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1547,8 +1579,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1556,384 +1589,399 @@
         <v>64000</v>
       </c>
       <c r="E20" s="3">
+        <v>64000</v>
+      </c>
+      <c r="F20" s="3">
         <v>-119000</v>
       </c>
-      <c r="F20" s="3">
-        <v>258000</v>
-      </c>
       <c r="G20" s="3">
-        <v>23000</v>
+        <v>61000</v>
       </c>
       <c r="H20" s="3">
+        <v>-136000</v>
+      </c>
+      <c r="I20" s="3">
         <v>6000</v>
       </c>
-      <c r="I20" s="3">
-        <v>-171000</v>
-      </c>
       <c r="J20" s="3">
+        <v>26000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-33000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-30000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>48000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-52000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>40000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>78000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>86000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>36000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>60000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>39000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>11000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>28300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>1100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>7700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>15900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>30600</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>2612000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2901000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3535000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2712000</v>
       </c>
-      <c r="G21" s="3">
-        <v>2929000</v>
-      </c>
       <c r="H21" s="3">
+        <v>9263000</v>
+      </c>
+      <c r="I21" s="3">
         <v>2829000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3499000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3640000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2971000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1964000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1528000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1756000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1561000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2145000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1561000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1742000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1535000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1547000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1372000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1559700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1154100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1237400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1102800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1257000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>974200</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>173000</v>
+      </c>
+      <c r="E22" s="3">
         <v>148000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>136000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>161000</v>
       </c>
-      <c r="G22" s="3">
-        <v>128000</v>
-      </c>
       <c r="H22" s="3">
+        <v>375000</v>
+      </c>
+      <c r="I22" s="3">
         <v>122000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>125000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>146000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>144000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>137000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>126000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>142000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>164000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>181000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>189000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>172000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>162000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>170000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>163000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>166300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>156700</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>133600</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>135400</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>131300</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>113300</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>1601000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1917000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2540000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1868000</v>
       </c>
-      <c r="G23" s="3">
-        <v>2173000</v>
-      </c>
       <c r="H23" s="3">
+        <v>6979000</v>
+      </c>
+      <c r="I23" s="3">
         <v>2047000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2753000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2892000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2252000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1253000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>828000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1038000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>822000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1393000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>817000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1012000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>810000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>806000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>634000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>819900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>480600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>625600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>502900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>651900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>427900</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E24" s="3">
         <v>198000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>301000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>203000</v>
       </c>
-      <c r="G24" s="3">
-        <v>271000</v>
-      </c>
       <c r="H24" s="3">
+        <v>906000</v>
+      </c>
+      <c r="I24" s="3">
         <v>219000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>416000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>394000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>319000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>97000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>40000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>36000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>34000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>274000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>22000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>114000</v>
-      </c>
-      <c r="S24" s="3">
-        <v>54000</v>
       </c>
       <c r="T24" s="3">
         <v>54000</v>
       </c>
       <c r="U24" s="3">
+        <v>54000</v>
+      </c>
+      <c r="V24" s="3">
         <v>-15000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>85400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-53300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>13400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-48500</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>19200</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-45600</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2009,162 +2057,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>1570000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1719000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2239000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1665000</v>
       </c>
-      <c r="G26" s="3">
-        <v>1902000</v>
-      </c>
       <c r="H26" s="3">
+        <v>6073000</v>
+      </c>
+      <c r="I26" s="3">
         <v>1828000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2337000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2498000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1933000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1156000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>788000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1002000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>788000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1119000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>795000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>898000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>756000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>752000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>649000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>734500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>533900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>612200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>551400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>632700</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>473500</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>1495000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1664000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2215000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1658000</v>
       </c>
-      <c r="G27" s="3">
-        <v>1902000</v>
-      </c>
       <c r="H27" s="3">
+        <v>6067000</v>
+      </c>
+      <c r="I27" s="3">
         <v>1828000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2337000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2498000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1933000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1156000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>788000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1002000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>788000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1119000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>795000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>898000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>756000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>752000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>649000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>734500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>533900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>612200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>551400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>632700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>473500</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2240,8 +2297,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2272,53 +2332,56 @@
       <c r="L29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>-28000</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>20000</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>-47000</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>-70000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-206400</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
       <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-600</v>
       </c>
-      <c r="Y29" s="3">
-        <v>0</v>
-      </c>
       <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
         <v>-3200</v>
       </c>
-      <c r="AA29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2394,8 +2457,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2471,8 +2537,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -2480,153 +2549,159 @@
         <v>-64000</v>
       </c>
       <c r="E32" s="3">
+        <v>-64000</v>
+      </c>
+      <c r="F32" s="3">
         <v>119000</v>
       </c>
-      <c r="F32" s="3">
-        <v>-258000</v>
-      </c>
       <c r="G32" s="3">
-        <v>-23000</v>
+        <v>-61000</v>
       </c>
       <c r="H32" s="3">
+        <v>136000</v>
+      </c>
+      <c r="I32" s="3">
         <v>-6000</v>
       </c>
-      <c r="I32" s="3">
-        <v>171000</v>
-      </c>
       <c r="J32" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="K32" s="3">
         <v>33000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>30000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-48000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>52000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-40000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-78000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-86000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-36000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-60000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-39000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-11000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-28300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-1100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-7700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-15900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-30600</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>1495000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1664000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2215000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1658000</v>
       </c>
-      <c r="G33" s="3">
-        <v>1902000</v>
-      </c>
       <c r="H33" s="3">
+        <v>6067000</v>
+      </c>
+      <c r="I33" s="3">
         <v>1828000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2337000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2498000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1933000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1156000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>788000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1002000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>760000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1119000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>815000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>898000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>709000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>752000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>579000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>528100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>533900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>611600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>551400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>629500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>473500</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2702,167 +2777,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>1495000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1664000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2215000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1658000</v>
       </c>
-      <c r="G35" s="3">
-        <v>1902000</v>
-      </c>
       <c r="H35" s="3">
+        <v>6067000</v>
+      </c>
+      <c r="I35" s="3">
         <v>1828000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2337000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2498000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1933000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1156000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>788000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1002000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>760000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1119000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>815000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>898000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>709000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>752000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>579000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>528100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>533900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>611600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>551400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>629500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>473500</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E38" s="2">
         <v>44744</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44653</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44471</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44380</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44289</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44009</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43918</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43736</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43645</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43554</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43372</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42917</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42826</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2890,8 +2974,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2919,493 +3004,512 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>2919000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1888000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2752000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4477000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>12027000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>7023000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5583000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>10325000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7540000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5818000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2981000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2399000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1273000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2288000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1106000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2103000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1098000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>937000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>950000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1335000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>741100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>611000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>713300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>786200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1970000</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F42" s="3">
         <v>150000</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I42" s="3">
         <v>65000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>121000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>28000</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M42" s="3">
+      <c r="M42" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N42" s="3">
         <v>110000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>37000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>7000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>6000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>9000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>31000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>14000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>3000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>7000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>10000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>7300</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>53500</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>11600</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>15800</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>8919000</v>
+      </c>
+      <c r="E43" s="3">
         <v>8892000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>8803000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>8945000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>6365000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>6280000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>6337000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>6472000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5883000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5164000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5166000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4952000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4384000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4129000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4155000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4136000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4257000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4441000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>4530000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>4311000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>4209100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3673200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>3523500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>3426800</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>2895100</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>5722000</v>
+      </c>
+      <c r="E44" s="3">
         <v>5668000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>5483000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>5051000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4906000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4625000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4342000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4029000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3829000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3648000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3454000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3370000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3308000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3209000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3124000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3005000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2982000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2866000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2891000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2971000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3125500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>2422200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>2327100</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>2213300</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>2390900</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>1739000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1652000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1588000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1640000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1426000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1267000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1302000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1103000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>982000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1145000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1027000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1135000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1542000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1591000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1545000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1350000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1215000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1227000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1210000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>794000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>761000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>692600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>672600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>578900</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>933600</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>19299000</v>
+      </c>
+      <c r="E46" s="3">
         <v>18100000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>18776000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>20113000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>24724000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>19260000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>17685000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>21957000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>18234000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>15775000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>12738000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>11893000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>10514000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>11223000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>9939000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>10625000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>9566000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>9474000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>9588000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>9421000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>8844000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>7452500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>7248100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>7021000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>8204400</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>10000</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -3458,162 +3562,171 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>8628000</v>
+      </c>
+      <c r="E48" s="3">
         <v>8529000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8448000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>9864000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>7049000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>6560000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>6133000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>6687000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5180000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4887000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4736000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5448000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5065000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5027000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4792000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4165000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3978000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3952000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4059000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4047000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3931600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2599700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>2563300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>2577800</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>2599300</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>58301000</v>
+      </c>
+      <c r="E49" s="3">
         <v>59644000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>61099000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>62037000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>38836000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>39294000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>39654000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>38726000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>38652000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>38870000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>39157000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>39728000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>39935000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>40620000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>39725000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>40325000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>40361000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>40800000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>41755000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>41974000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>42158500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>35421100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>35382000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>35296800</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>36102400</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3689,8 +3802,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3766,85 +3882,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>4306000</v>
+        <v>4299000</v>
       </c>
       <c r="E52" s="3">
+        <v>4296000</v>
+      </c>
+      <c r="F52" s="3">
         <v>4424000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3109000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2991000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2584000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2459000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1682000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1995000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2061000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2057000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1312000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1215000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1100000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1140000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1117000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1173000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1177000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1178000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1227000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1051200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1040400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1020200</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1011900</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1104600</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3920,85 +4042,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>90536000</v>
+      </c>
+      <c r="E54" s="3">
         <v>90579000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>92747000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>95123000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>73600000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>67698000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>65931000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>69052000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>64061000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>61593000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>58688000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>58381000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>56729000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>57970000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>55596000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>56232000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>55078000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>55403000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>56580000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>56669000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>55985300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>46513700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>46213600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>45907500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>48010700</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -4026,8 +4154,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4055,85 +4184,89 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>2471000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2586000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2667000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2867000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2301000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2098000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2146000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2175000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1703000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1385000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1599000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1920000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1659000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1391000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1462000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1615000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1344000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1359000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1354000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1428000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1123800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>982200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1031000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>926200</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>941700</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
@@ -4141,384 +4274,399 @@
         <v>1010000</v>
       </c>
       <c r="E58" s="3">
+        <v>1010000</v>
+      </c>
+      <c r="F58" s="3">
         <v>1866000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2537000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>19000</v>
-      </c>
-      <c r="H58" s="3">
-        <v>4000</v>
       </c>
       <c r="I58" s="3">
         <v>4000</v>
       </c>
       <c r="J58" s="3">
+        <v>4000</v>
+      </c>
+      <c r="K58" s="3">
         <v>2628000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>675000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>738000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>676000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>661000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2377000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1336000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1271000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1014000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1711000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2814000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2135000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>2762300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1540400</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1882400</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1255500</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1972100</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>7637000</v>
+      </c>
+      <c r="E59" s="3">
         <v>7401000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7537000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>8032000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5433000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4823000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4845000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5501000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4523000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3953000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3163000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3601000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3524000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3741000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3100000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3261000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2838000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2910000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2904000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3485000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3145200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2553200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2389500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2684100</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>2346100</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>11118000</v>
+      </c>
+      <c r="E60" s="3">
         <v>10997000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>12070000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>13436000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7753000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6925000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6995000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>10304000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6228000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6013000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5500000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6197000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5844000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7509000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5898000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6147000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5196000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5980000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>7072000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>7048000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>7031300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>5075800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>5302900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>4865800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>5259900</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>28150000</v>
+      </c>
+      <c r="E61" s="3">
         <v>29250000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>31389000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>32333000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>21688000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>18773000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>18641000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>19107000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>21091000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>20638000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>19231000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>17076000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>16392000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>16663000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>16812000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>17719000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>17760000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>17709000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>18122000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>18873000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>19230400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>15255700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>15188400</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>15372400</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>16940400</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>7541000</v>
+      </c>
+      <c r="E62" s="3">
         <v>7861000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>8157000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>8377000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>5449000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>5146000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>5237000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>5134000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4918000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5067000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5398000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>5433000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>5138000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>5069000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>5193000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4780000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>5232000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>5269000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>5263000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>5335000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>5021800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>3790600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>3927100</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>4130000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>4151800</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4594,8 +4742,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4671,8 +4822,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,85 +4902,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>46987000</v>
+      </c>
+      <c r="E66" s="3">
         <v>48286000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>51791000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>54330000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>34890000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>30844000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>30873000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>34545000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>32237000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>31718000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>30129000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>28706000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>27374000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>29241000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>27903000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>28646000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>28188000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>28958000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>30457000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>31256000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>31283500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>24122100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>24418400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>24368200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>26352100</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4854,8 +5014,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4931,8 +5092,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -5008,8 +5172,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -5085,8 +5252,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -5162,85 +5332,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>40452000</v>
+      </c>
+      <c r="E72" s="3">
         <v>39074000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>37528000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>35431000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>33876000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>32076000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>30350000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>28116000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>25705000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>23860000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>22791000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>22092000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>21165000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>20482000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>19439000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>18696000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>17866000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>17226000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>16542000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>15914000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>15445800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>14972300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>14419400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>13926900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>13356500</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -5316,8 +5492,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5393,8 +5572,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -5470,85 +5652,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>43549000</v>
+      </c>
+      <c r="E76" s="3">
         <v>42293000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>40956000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>40793000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>38710000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>36854000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>35058000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>34507000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>31824000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>29875000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>28559000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>29675000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>29355000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>28729000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>27693000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>27586000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>26890000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>26445000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>26123000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>25413000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>24701800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>22391600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>21795200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>21539300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>21658600</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -5624,167 +5812,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E80" s="2">
         <v>44744</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44653</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44471</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44380</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44289</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44009</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43918</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43736</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43645</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43554</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43372</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42917</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42826</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>1495000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1664000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2215000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1658000</v>
       </c>
-      <c r="G81" s="3">
-        <v>1902000</v>
-      </c>
       <c r="H81" s="3">
+        <v>6067000</v>
+      </c>
+      <c r="I81" s="3">
         <v>1828000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2337000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2498000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1933000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1156000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>788000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1002000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>760000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1119000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>815000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>898000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>709000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>752000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>579000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>528100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>533900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>611600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>551400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>629500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>473500</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5812,85 +6009,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>838000</v>
+      </c>
+      <c r="E83" s="3">
         <v>836000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>859000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>683000</v>
       </c>
-      <c r="G83" s="3">
-        <v>628000</v>
-      </c>
       <c r="H83" s="3">
+        <v>1909000</v>
+      </c>
+      <c r="I83" s="3">
         <v>660000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>621000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>602000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>575000</v>
-      </c>
-      <c r="L83" s="3">
-        <v>574000</v>
       </c>
       <c r="M83" s="3">
         <v>574000</v>
       </c>
       <c r="N83" s="3">
+        <v>574000</v>
+      </c>
+      <c r="O83" s="3">
         <v>576000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>575000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>571000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>555000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>558000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>563000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>571000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>575000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>573500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>516800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>478200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>464500</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>473800</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>433000</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5966,8 +6167,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -6043,8 +6247,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -6120,8 +6327,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -6197,8 +6407,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -6274,85 +6487,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>1937000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1528000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2202000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2457000</v>
       </c>
-      <c r="G89" s="3">
-        <v>2650000</v>
-      </c>
       <c r="H89" s="3">
+        <v>6855000</v>
+      </c>
+      <c r="I89" s="3">
         <v>2227000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1978000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3339000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2708000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1886000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>356000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1913000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1117000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1294000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>649000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1801000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1220000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1444000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>78000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1866500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>928600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>848400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>361500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1103600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>804400</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -6380,85 +6599,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-547000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-506000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-640000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-831000</v>
       </c>
-      <c r="G91" s="3">
-        <v>-524000</v>
-      </c>
       <c r="H91" s="3">
+        <v>-1692000</v>
+      </c>
+      <c r="I91" s="3">
         <v>-540000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-628000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-586000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-366000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-269000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-253000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-289000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-216000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-220000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-201000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-284000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-173000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-183000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-118000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-215200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-111400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-88000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-93400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>177400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-162000</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -6534,8 +6757,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -6611,85 +6837,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-545000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-419000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-670000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-18692000</v>
       </c>
-      <c r="G94" s="3">
-        <v>-616000</v>
-      </c>
       <c r="H94" s="3">
+        <v>-3240000</v>
+      </c>
+      <c r="I94" s="3">
         <v>-626000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1998000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-626000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-365000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-259000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-260000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-339000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-198000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-769000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-181000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-721000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-168000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-185000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-179000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-283400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-6968300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-95400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-381900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-104200</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-4192600</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -6717,28 +6949,29 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
+        <v>-118000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-117000</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-103000</v>
       </c>
       <c r="F96" s="3">
         <v>-103000</v>
       </c>
       <c r="G96" s="3">
-        <v>-102000</v>
+        <v>-103000</v>
       </c>
       <c r="H96" s="3">
+        <v>-292000</v>
+      </c>
+      <c r="I96" s="3">
         <v>-103000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-87000</v>
       </c>
       <c r="J96" s="3">
         <v>-87000</v>
@@ -6750,52 +6983,55 @@
         <v>-87000</v>
       </c>
       <c r="M96" s="3">
-        <v>-76000</v>
+        <v>-87000</v>
       </c>
       <c r="N96" s="3">
         <v>-76000</v>
       </c>
       <c r="O96" s="3">
+        <v>-76000</v>
+      </c>
+      <c r="P96" s="3">
         <v>-77000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-76000</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-68000</v>
       </c>
       <c r="R96" s="3">
         <v>-68000</v>
       </c>
       <c r="S96" s="3">
-        <v>-69000</v>
+        <v>-68000</v>
       </c>
       <c r="T96" s="3">
         <v>-69000</v>
       </c>
       <c r="U96" s="3">
+        <v>-69000</v>
+      </c>
+      <c r="V96" s="3">
         <v>-60000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-59900</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-59300</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-58700</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-59100</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-59200</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-59800</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -6871,8 +7107,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -6948,8 +7187,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -7025,235 +7267,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-151000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1905000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3145000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>8467000</v>
       </c>
-      <c r="G100" s="3">
-        <v>3040000</v>
-      </c>
       <c r="H100" s="3">
+        <v>-1886000</v>
+      </c>
+      <c r="I100" s="3">
         <v>-76000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-4850000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-49000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-791000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1180000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>619000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-514000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1869000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>690000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1425000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-13000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-876000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1006000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-342000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1144300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>6080600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-963000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-119300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-2191500</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>4753300</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>-212000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-78000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-99000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>211000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-93000</v>
+      </c>
+      <c r="J101" s="3">
+        <v>137000</v>
+      </c>
+      <c r="K101" s="3">
+        <v>102000</v>
+      </c>
+      <c r="L101" s="3">
+        <v>181000</v>
+      </c>
+      <c r="M101" s="3">
+        <v>20000</v>
+      </c>
+      <c r="N101" s="3">
+        <v>-127000</v>
+      </c>
+      <c r="O101" s="3">
+        <v>57000</v>
+      </c>
+      <c r="P101" s="3">
+        <v>-59000</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="R101" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="S101" s="3">
         <v>-61000</v>
       </c>
-      <c r="H101" s="3">
-        <v>-93000</v>
-      </c>
-      <c r="I101" s="3">
-        <v>137000</v>
-      </c>
-      <c r="J101" s="3">
-        <v>102000</v>
-      </c>
-      <c r="K101" s="3">
-        <v>181000</v>
-      </c>
-      <c r="L101" s="3">
-        <v>20000</v>
-      </c>
-      <c r="M101" s="3">
-        <v>-127000</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="T101" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="U101" s="3">
+        <v>-272000</v>
+      </c>
+      <c r="V101" s="3">
         <v>57000</v>
       </c>
-      <c r="O101" s="3">
-        <v>-59000</v>
-      </c>
-      <c r="P101" s="3">
-        <v>-29000</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>-32000</v>
-      </c>
-      <c r="R101" s="3">
-        <v>-61000</v>
-      </c>
-      <c r="S101" s="3">
-        <v>-21000</v>
-      </c>
-      <c r="T101" s="3">
-        <v>-272000</v>
-      </c>
-      <c r="U101" s="3">
-        <v>57000</v>
-      </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>163900</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>87900</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>102400</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>65800</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-110100</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-22200</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>1029000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-874000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1712000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-7557000</v>
       </c>
-      <c r="G102" s="3">
-        <v>5013000</v>
-      </c>
       <c r="H102" s="3">
+        <v>1712000</v>
+      </c>
+      <c r="I102" s="3">
         <v>1432000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-4733000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2766000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1733000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2827000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>588000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1117000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1009000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1186000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-989000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1006000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>155000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-19000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-386000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>602700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>128800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-107600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-73900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-1199800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>1310400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TMO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TMO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>TMO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,356 +665,369 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44835</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44744</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44653</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44471</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44380</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44289</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44009</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43918</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43736</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43645</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43554</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43372</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42917</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42826</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>11450000</v>
+      </c>
+      <c r="E8" s="3">
         <v>10677000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>10970000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>11818000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>10702000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>28509000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>9273000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>9906000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10550000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8521000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6917000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6230000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6829000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6272000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6316000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6125000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6507000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5920000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6078000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5853000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>6046800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>5116200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>4990000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>4765000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>4953200</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>4490900</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>6844000</v>
+      </c>
+      <c r="E9" s="3">
         <v>6375000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>6371000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>6354000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>5448000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>14125000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4749000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4697000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4994000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4190000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3540000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3490000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3794000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3509000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3493000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3418000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3583000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3305000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3340000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3273000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3377600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2816000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2706900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>2572500</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>2674400</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>2437000</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4606000</v>
+      </c>
+      <c r="E10" s="3">
         <v>4302000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4599000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5464000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>5254000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>14384000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4524000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>5209000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5556000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4331000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3377000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2740000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3035000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2763000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2823000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2707000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2924000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2615000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2738000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2580000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2669200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2300200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>2283100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>2192500</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>2278800</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>2053900</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1043,88 +1056,92 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>391000</v>
+      </c>
+      <c r="E12" s="3">
         <v>351000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>365000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>364000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>392000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1014000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>343000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>320000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>376000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>296000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>264000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>245000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>262000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>247000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>246000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>248000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>251000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>240000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>242000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>234000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>232900</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>218100</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>221600</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>215400</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>212600</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>183300</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1203,88 +1220,94 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>189000</v>
+      </c>
+      <c r="E14" s="3">
         <v>33000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>24000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>28000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>727000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>210000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>77000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>227000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>29000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-38000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>54000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>44000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>37000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>38000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-448000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>11000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>37000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-31000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>20000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>53000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>5200</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>85500</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>29300</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>55000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>57000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>117400</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1363,8 +1386,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1390,168 +1416,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>9723000</v>
+      </c>
+      <c r="E17" s="3">
         <v>8967000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>8969000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9023000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8734000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>21019000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7110000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7054000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7479000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6095000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5526000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5324000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5597000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5326000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4820000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5205000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5359000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5008000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5141000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5067000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>5088900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>4480000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>4238500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>4142600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>4200600</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>3949800</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>1727000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1710000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2001000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2795000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1968000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>7490000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2163000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2852000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3071000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2426000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1391000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>906000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1232000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>946000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1496000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>920000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1148000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>912000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>937000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>786000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>957900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>636200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>751500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>622400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>752600</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>541100</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1580,408 +1613,424 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>64000</v>
+        <v>319000</v>
       </c>
       <c r="E20" s="3">
         <v>64000</v>
       </c>
       <c r="F20" s="3">
+        <v>64000</v>
+      </c>
+      <c r="G20" s="3">
         <v>-119000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>61000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-136000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>6000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>26000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-33000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-30000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>48000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-52000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>40000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>78000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>86000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>36000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>60000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>39000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>11000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>28300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>1100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>7700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>15900</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>30600</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>2894000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2612000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2901000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3535000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2712000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>9263000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2829000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3499000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3640000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2971000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1964000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1528000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1756000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1561000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2145000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1561000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1742000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1535000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1547000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1372000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1559700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1154100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1237400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1102800</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1257000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>974200</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>269000</v>
+      </c>
+      <c r="E22" s="3">
         <v>173000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>148000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>136000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>161000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>375000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>122000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>125000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>146000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>144000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>137000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>126000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>142000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>164000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>181000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>189000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>172000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>162000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>170000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>163000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>166300</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>156700</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>133600</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>135400</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>131300</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>113300</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>1777000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1601000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1917000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2540000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1868000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>6979000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2047000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2753000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2892000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2252000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1253000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>828000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1038000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>822000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1393000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>817000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1012000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>810000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>806000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>634000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>819900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>480600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>625600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>502900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>651900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>427900</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>173000</v>
+      </c>
+      <c r="E24" s="3">
         <v>31000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>198000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>301000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>203000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>906000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>219000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>416000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>394000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>319000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>97000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>40000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>36000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>34000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>274000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>22000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>114000</v>
-      </c>
-      <c r="T24" s="3">
-        <v>54000</v>
       </c>
       <c r="U24" s="3">
         <v>54000</v>
       </c>
       <c r="V24" s="3">
+        <v>54000</v>
+      </c>
+      <c r="W24" s="3">
         <v>-15000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>85400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-53300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>13400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-48500</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>19200</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-45600</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2060,168 +2109,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>1604000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1570000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1719000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2239000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1665000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>6073000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1828000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2337000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2498000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1933000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1156000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>788000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1002000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>788000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1119000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>795000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>898000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>756000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>752000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>649000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>734500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>533900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>612200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>551400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>632700</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>473500</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>1576000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1495000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1664000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2215000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1658000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>6067000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1828000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2337000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2498000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1933000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1156000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>788000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1002000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>788000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1119000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>795000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>898000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>756000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>752000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>649000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>734500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>533900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>612200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>551400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>632700</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>473500</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2300,31 +2358,34 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>91</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>91</v>
@@ -2335,53 +2396,56 @@
       <c r="M29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-28000</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>20000</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>-47000</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>-70000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-206400</v>
       </c>
-      <c r="X29" s="3">
-        <v>0</v>
-      </c>
       <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
         <v>-600</v>
       </c>
-      <c r="Z29" s="3">
-        <v>0</v>
-      </c>
       <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="3">
         <v>-3200</v>
       </c>
-      <c r="AB29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2460,8 +2524,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2540,168 +2607,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-64000</v>
+        <v>-319000</v>
       </c>
       <c r="E32" s="3">
         <v>-64000</v>
       </c>
       <c r="F32" s="3">
+        <v>-64000</v>
+      </c>
+      <c r="G32" s="3">
         <v>119000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-61000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>136000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-6000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-26000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>33000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>30000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-48000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>52000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-40000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-78000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-86000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-36000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-60000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-39000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-11000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-28300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-7700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-15900</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-30600</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>1576000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1495000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1664000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2215000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1658000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>6067000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1828000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2337000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2498000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1933000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1156000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>788000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1002000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>760000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1119000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>815000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>898000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>709000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>752000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>579000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>528100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>533900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>611600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>551400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>629500</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>473500</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2780,173 +2856,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>1576000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1495000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1664000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2215000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1658000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>6067000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1828000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2337000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2498000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1933000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1156000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>788000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1002000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>760000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1119000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>815000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>898000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>709000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>752000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>579000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>528100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>533900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>611600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>551400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>629500</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>473500</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44835</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44744</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44653</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44471</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44380</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44289</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44009</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43918</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43736</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43645</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43554</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43372</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42917</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42826</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2975,8 +3060,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -3005,88 +3091,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>8524000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2919000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1888000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2752000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4477000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>12027000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>7023000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5583000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>10325000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7540000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5818000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2981000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2399000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1273000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2288000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1106000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2103000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1098000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>937000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>950000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1335000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>741100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>611000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>713300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>786200</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>1970000</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -3096,411 +3186,426 @@
       <c r="E42" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G42" s="3">
         <v>150000</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I42" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J42" s="3">
         <v>65000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>121000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>28000</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N42" s="3">
+      <c r="N42" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O42" s="3">
         <v>110000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>37000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>7000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>6000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>9000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>31000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>14000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>3000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>7000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>10000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>7300</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>53500</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>11600</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>15800</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>9427000</v>
+      </c>
+      <c r="E43" s="3">
         <v>8919000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>8892000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>8803000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>8945000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>6365000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>6280000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>6337000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6472000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5883000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5164000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5166000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4952000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4384000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4129000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4155000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4136000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4257000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>4441000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>4530000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>4311000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>4209100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>3673200</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>3523500</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>3426800</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>2895100</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>5634000</v>
+      </c>
+      <c r="E44" s="3">
         <v>5722000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>5668000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>5483000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>5051000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4906000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4625000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4342000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4029000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3829000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3648000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3454000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3370000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3308000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3209000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3124000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3005000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2982000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2866000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2891000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>2971000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3125500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>2422200</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>2327100</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>2213300</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>2390900</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>1644000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1739000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1652000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1588000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1640000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1426000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1267000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1302000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1103000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>982000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1145000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1027000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1135000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1542000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1591000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1545000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1350000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1215000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1227000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1210000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>794000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>761000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>692600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>672600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>578900</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>933600</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>25229000</v>
+      </c>
+      <c r="E46" s="3">
         <v>19299000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>18100000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>18776000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>20113000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>24724000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>19260000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>17685000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>21957000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>18234000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>15775000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>12738000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>11893000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>10514000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>11223000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>9939000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>10625000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>9566000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>9474000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>9588000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>9421000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>8844000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>7452500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>7248100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>7021000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>8204400</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E47" s="3">
         <v>9000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>10000</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>91</v>
+      <c r="G47" s="3">
+        <v>11000</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>91</v>
@@ -3511,8 +3616,8 @@
       <c r="J47" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -3565,168 +3670,177 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>9280000</v>
+      </c>
+      <c r="E48" s="3">
         <v>8628000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8529000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>8448000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>9864000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>7049000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>6560000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>6133000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6687000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5180000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4887000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4736000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5448000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5065000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5027000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4792000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4165000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3978000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3952000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4059000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>4047000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>3931600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>2599700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>2563300</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>2577800</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>2599300</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>58638000</v>
+      </c>
+      <c r="E49" s="3">
         <v>58301000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>59644000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>61099000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>62037000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>38836000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>39294000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>39654000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>38726000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>38652000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>38870000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>39157000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>39728000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>39935000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>40620000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>39725000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>40325000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>40361000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>40800000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>41755000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>41974000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>42158500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>35421100</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>35382000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>35296800</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>36102400</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3805,8 +3919,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3885,88 +4002,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>4000000</v>
+      </c>
+      <c r="E52" s="3">
         <v>4299000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4296000</v>
       </c>
-      <c r="F52" s="3">
-        <v>4424000</v>
-      </c>
       <c r="G52" s="3">
+        <v>4413000</v>
+      </c>
+      <c r="H52" s="3">
         <v>3109000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2991000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2584000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2459000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1682000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1995000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2061000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2057000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1312000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1215000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1100000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1140000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1117000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1173000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1177000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1178000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1227000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1051200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1040400</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1020200</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1011900</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>1104600</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -4045,88 +4168,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>97154000</v>
+      </c>
+      <c r="E54" s="3">
         <v>90536000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>90579000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>92747000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>95123000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>73600000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>67698000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>65931000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>69052000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>64061000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>61593000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>58688000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>58381000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>56729000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>57970000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>55596000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>56232000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>55078000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>55403000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>56580000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>56669000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>55985300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>46513700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>46213600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>45907500</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>48010700</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -4155,8 +4284,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4185,488 +4315,507 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>3381000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2471000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2586000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2667000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2867000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2301000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2098000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2146000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2175000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1703000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1385000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1599000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1920000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1659000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1391000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1462000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1615000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1344000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1359000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1354000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1428000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1123800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>982200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1031000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>926200</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>941700</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>1010000</v>
+        <v>5579000</v>
       </c>
       <c r="E58" s="3">
         <v>1010000</v>
       </c>
       <c r="F58" s="3">
+        <v>1010000</v>
+      </c>
+      <c r="G58" s="3">
         <v>1866000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2537000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>19000</v>
-      </c>
-      <c r="I58" s="3">
-        <v>4000</v>
       </c>
       <c r="J58" s="3">
         <v>4000</v>
       </c>
       <c r="K58" s="3">
+        <v>4000</v>
+      </c>
+      <c r="L58" s="3">
         <v>2628000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>675000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>738000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>676000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>661000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2377000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1336000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1271000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1014000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1711000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2814000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>2135000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>2762300</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1540400</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1882400</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1255500</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>1972100</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>8050000</v>
+      </c>
+      <c r="E59" s="3">
         <v>7637000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7401000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7537000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>8032000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5433000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4823000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4845000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5501000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4523000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3953000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3163000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3601000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3524000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3741000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3100000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3261000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2838000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2910000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2904000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3485000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3145200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2553200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2389500</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>2684100</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>2346100</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>17010000</v>
+      </c>
+      <c r="E60" s="3">
         <v>11118000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>10997000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>12070000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>13436000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7753000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6925000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6995000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10304000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6228000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6013000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5500000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6197000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5844000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7509000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5898000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6147000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5196000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5980000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>7072000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>7048000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>7031300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>5075800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>5302900</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>4865800</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>5259900</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>28909000</v>
+      </c>
+      <c r="E61" s="3">
         <v>28150000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>29250000</v>
       </c>
-      <c r="F61" s="3">
-        <v>31389000</v>
-      </c>
       <c r="G61" s="3">
+        <v>30095000</v>
+      </c>
+      <c r="H61" s="3">
         <v>32333000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>21688000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>18773000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>18641000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>19107000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>21091000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>20638000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>19231000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>17076000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>16392000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>16663000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>16812000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>17719000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>17760000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>17709000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>18122000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>18873000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>19230400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>15255700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>15188400</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>15372400</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>16940400</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>7087000</v>
+      </c>
+      <c r="E62" s="3">
         <v>7541000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>7861000</v>
       </c>
-      <c r="F62" s="3">
-        <v>8157000</v>
-      </c>
       <c r="G62" s="3">
+        <v>9451000</v>
+      </c>
+      <c r="H62" s="3">
         <v>8377000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>5449000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>5146000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>5237000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5134000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4918000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5067000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>5398000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>5433000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>5138000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>5069000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>5193000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>4780000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>5232000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>5269000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>5263000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>5335000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>5021800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>3790600</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>3927100</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>4130000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>4151800</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4745,8 +4894,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4825,8 +4977,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4905,88 +5060,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>53176000</v>
+      </c>
+      <c r="E66" s="3">
         <v>46987000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>48286000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>51791000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>54330000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>34890000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>30844000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>30873000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>34545000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>32237000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>31718000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>30129000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>28706000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>27374000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>29241000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>27903000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>28646000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>28188000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>28958000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>30457000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>31256000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>31283500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>24122100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>24418400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>24368200</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>26352100</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -5015,8 +5176,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -5095,8 +5257,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -5175,8 +5340,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -5255,8 +5423,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -5335,88 +5506,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>41910000</v>
+      </c>
+      <c r="E72" s="3">
         <v>40452000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>39074000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>37528000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>35431000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>33876000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>32076000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>30350000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>28116000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>25705000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>23860000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>22791000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>22092000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>21165000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>20482000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>19439000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>18696000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>17866000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>17226000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>16542000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>15914000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>15445800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>14972300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>14419400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>13926900</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>13356500</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -5495,8 +5672,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5575,8 +5755,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -5655,88 +5838,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>43978000</v>
+      </c>
+      <c r="E76" s="3">
         <v>43549000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>42293000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>40956000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>40793000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>38710000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>36854000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>35058000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>34507000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>31824000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>29875000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>28559000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>29675000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>29355000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>28729000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>27693000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>27586000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>26890000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>26445000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>26123000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>25413000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>24701800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>22391600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>21795200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>21539300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>21658600</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -5815,173 +6004,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44835</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44744</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44653</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44471</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44380</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44289</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44009</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43918</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43736</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43645</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43554</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43372</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42917</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42826</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>1576000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1495000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1664000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2215000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1658000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>6067000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1828000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2337000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2498000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1933000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1156000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>788000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1002000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>760000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1119000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>815000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>898000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>709000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>752000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>579000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>528100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>533900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>611600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>551400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>629500</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>473500</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -6010,88 +6208,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>848000</v>
+      </c>
+      <c r="E83" s="3">
         <v>838000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>836000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>859000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>683000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1909000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>660000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>621000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>602000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>575000</v>
-      </c>
-      <c r="M83" s="3">
-        <v>574000</v>
       </c>
       <c r="N83" s="3">
         <v>574000</v>
       </c>
       <c r="O83" s="3">
+        <v>574000</v>
+      </c>
+      <c r="P83" s="3">
         <v>576000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>575000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>571000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>555000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>558000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>563000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>571000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>575000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>573500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>516800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>478200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>464500</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>473800</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>433000</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -6170,8 +6372,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -6250,8 +6455,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -6330,8 +6538,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -6410,8 +6621,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -6490,88 +6704,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>3487000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1937000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1528000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2202000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2457000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>6855000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2227000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1978000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3339000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2708000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1886000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>356000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1913000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1117000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1294000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>649000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1801000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1220000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1444000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>78000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1866500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>928600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>848400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>361500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1103600</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>804400</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -6600,88 +6820,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-550000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-547000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-506000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-640000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-831000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1692000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-540000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-628000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-586000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-366000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-269000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-253000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-289000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-216000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-220000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-201000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-284000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-173000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-183000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-118000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-215200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-111400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-88000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-93400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>177400</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-162000</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -6760,8 +6984,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -6840,88 +7067,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-525000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-545000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-419000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-670000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-18692000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3240000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-626000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1998000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-626000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-365000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-259000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-260000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-339000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-198000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-769000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-181000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-721000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-168000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-185000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-179000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-283400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-6968300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-95400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-381900</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-104200</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-4192600</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -6950,31 +7183,32 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
+        <v>-117000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-118000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-117000</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-103000</v>
       </c>
       <c r="G96" s="3">
         <v>-103000</v>
       </c>
       <c r="H96" s="3">
+        <v>-103000</v>
+      </c>
+      <c r="I96" s="3">
         <v>-292000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-103000</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-87000</v>
       </c>
       <c r="K96" s="3">
         <v>-87000</v>
@@ -6986,52 +7220,55 @@
         <v>-87000</v>
       </c>
       <c r="N96" s="3">
-        <v>-76000</v>
+        <v>-87000</v>
       </c>
       <c r="O96" s="3">
         <v>-76000</v>
       </c>
       <c r="P96" s="3">
+        <v>-76000</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-77000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-76000</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-68000</v>
       </c>
       <c r="S96" s="3">
         <v>-68000</v>
       </c>
       <c r="T96" s="3">
-        <v>-69000</v>
+        <v>-68000</v>
       </c>
       <c r="U96" s="3">
         <v>-69000</v>
       </c>
       <c r="V96" s="3">
+        <v>-69000</v>
+      </c>
+      <c r="W96" s="3">
         <v>-60000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-59900</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-59300</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-58700</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-59100</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-59200</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-59800</v>
       </c>
     </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -7110,8 +7347,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -7190,8 +7430,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -7270,244 +7513,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>2391000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-151000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1905000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3145000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>8467000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1886000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-76000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-4850000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-49000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-791000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1180000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>619000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-514000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1869000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>690000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1425000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-13000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-876000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1006000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-342000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1144300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>6080600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-963000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-119300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-2191500</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>4753300</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>250000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-212000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-78000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-99000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>211000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-17000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-93000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>137000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>102000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>181000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>20000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-127000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>57000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-59000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-29000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-32000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-61000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-21000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-272000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>57000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>163900</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>87900</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>102400</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>65800</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-110100</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-22200</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>5603000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1029000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-874000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1712000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-7557000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1712000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1432000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-4733000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2766000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1733000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2827000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>588000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1117000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1009000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1186000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-989000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1006000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>155000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-19000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-386000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>602700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>128800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-107600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-73900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-1199800</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>1310400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TMO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TMO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>TMO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,369 +665,382 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44835</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44744</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44653</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44471</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44380</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44289</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44009</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43918</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43736</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43645</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43554</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43372</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42917</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42826</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>10710000</v>
+      </c>
+      <c r="E8" s="3">
         <v>11450000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>10677000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>10970000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>11818000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>10702000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>28509000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>9273000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9906000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10550000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8521000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6917000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6230000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6829000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6272000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6316000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6125000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6507000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5920000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>6078000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>5853000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>6046800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>5116200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>4990000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>4765000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>4953200</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>4490900</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>6570000</v>
+      </c>
+      <c r="E9" s="3">
         <v>6844000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>6375000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>6371000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>6354000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>5448000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>14125000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4749000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4697000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4994000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4190000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3540000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3490000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3794000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3509000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3493000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3418000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3583000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3305000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3340000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3273000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3377600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2816000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>2706900</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>2572500</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>2674400</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>2437000</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4140000</v>
+      </c>
+      <c r="E10" s="3">
         <v>4606000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4302000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4599000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>5464000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>5254000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>14384000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4524000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5209000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5556000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4331000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3377000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2740000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3035000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2763000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2823000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2707000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2924000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2615000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2738000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2580000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2669200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>2300200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>2283100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>2192500</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>2278800</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>2053900</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1057,91 +1070,95 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>346000</v>
+      </c>
+      <c r="E12" s="3">
         <v>391000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>351000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>365000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>364000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>392000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1014000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>343000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>320000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>376000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>296000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>264000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>245000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>262000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>247000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>246000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>248000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>251000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>240000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>242000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>234000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>232900</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>218100</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>221600</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>215400</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>212600</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>183300</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1223,91 +1240,97 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>189000</v>
+        <v>112000</v>
       </c>
       <c r="E14" s="3">
+        <v>55000</v>
+      </c>
+      <c r="F14" s="3">
         <v>33000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>24000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>28000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>727000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>210000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>77000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>227000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>29000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-38000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>54000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>44000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>37000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>38000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-448000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>11000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>37000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-31000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>20000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>53000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>5200</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>85500</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>29300</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>55000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>57000</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>117400</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1389,8 +1412,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1417,174 +1443,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>9723000</v>
+        <v>9147000</v>
       </c>
       <c r="E17" s="3">
+        <v>9589000</v>
+      </c>
+      <c r="F17" s="3">
         <v>8967000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8969000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9023000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>8734000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>21019000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7110000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7054000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7479000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6095000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5526000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5324000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5597000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5326000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4820000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5205000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5359000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5008000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5141000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>5067000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>5088900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>4480000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>4238500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>4142600</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>4200600</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>3949800</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1727000</v>
+        <v>1563000</v>
       </c>
       <c r="E18" s="3">
+        <v>1861000</v>
+      </c>
+      <c r="F18" s="3">
         <v>1710000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2001000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2795000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1968000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>7490000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2163000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2852000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3071000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2426000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1391000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>906000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1232000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>946000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1496000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>920000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1148000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>912000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>937000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>786000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>957900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>636200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>751500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>622400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>752600</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>541100</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1614,423 +1647,439 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>319000</v>
+        <v>100000</v>
       </c>
       <c r="E20" s="3">
-        <v>64000</v>
+        <v>185000</v>
       </c>
       <c r="F20" s="3">
         <v>64000</v>
       </c>
       <c r="G20" s="3">
+        <v>64000</v>
+      </c>
+      <c r="H20" s="3">
         <v>-119000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>61000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-136000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>6000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>26000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-33000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-30000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>48000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-52000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>40000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>78000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>86000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>36000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>60000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>39000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>11000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>28300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>1100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>7700</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>15900</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>30600</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>2522000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2894000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2612000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2901000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3535000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2712000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>9263000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2829000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3499000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3640000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2971000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1964000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1528000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1756000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1561000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2145000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1561000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1742000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1535000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1547000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1372000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1559700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1154100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1237400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1102800</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1257000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>974200</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>300000</v>
+      </c>
+      <c r="E22" s="3">
         <v>269000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>173000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>148000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>136000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>161000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>375000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>122000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>125000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>146000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>144000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>137000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>126000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>142000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>164000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>181000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>189000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>172000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>162000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>170000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>163000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>166300</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>156700</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>133600</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>135400</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>131300</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>113300</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>1363000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1777000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1601000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1917000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2540000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1868000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>6979000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2047000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2753000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2892000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2252000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1253000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>828000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1038000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>822000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1393000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>817000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1012000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>810000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>806000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>634000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>819900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>480600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>625600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>502900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>651900</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>427900</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>46000</v>
+      </c>
+      <c r="E24" s="3">
         <v>173000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>31000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>198000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>301000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>203000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>906000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>219000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>416000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>394000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>319000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>97000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>40000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>36000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>34000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>274000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>22000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>114000</v>
-      </c>
-      <c r="U24" s="3">
-        <v>54000</v>
       </c>
       <c r="V24" s="3">
         <v>54000</v>
       </c>
       <c r="W24" s="3">
+        <v>54000</v>
+      </c>
+      <c r="X24" s="3">
         <v>-15000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>85400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-53300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>13400</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-48500</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>19200</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>-45600</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2112,174 +2161,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>1317000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1604000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1570000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1719000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2239000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1665000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>6073000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1828000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2337000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2498000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1933000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1156000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>788000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1002000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>788000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1119000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>795000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>898000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>756000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>752000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>649000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>734500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>533900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>612200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>551400</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>632700</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>473500</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>1289000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1576000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1495000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1664000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2215000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1658000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>6067000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1828000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2337000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2498000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1933000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1156000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>788000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1002000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>788000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1119000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>795000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>898000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>756000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>752000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>649000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>734500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>533900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>612200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>551400</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>632700</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>473500</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2361,8 +2419,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2387,8 +2448,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>91</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>91</v>
@@ -2399,53 +2460,56 @@
       <c r="N29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>-28000</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>20000</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>-47000</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
       <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
         <v>-70000</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-206400</v>
       </c>
-      <c r="Y29" s="3">
-        <v>0</v>
-      </c>
       <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
         <v>-600</v>
       </c>
-      <c r="AA29" s="3">
-        <v>0</v>
-      </c>
       <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
         <v>-3200</v>
       </c>
-      <c r="AC29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2527,8 +2591,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2610,174 +2677,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-319000</v>
+        <v>-100000</v>
       </c>
       <c r="E32" s="3">
-        <v>-64000</v>
+        <v>-185000</v>
       </c>
       <c r="F32" s="3">
         <v>-64000</v>
       </c>
       <c r="G32" s="3">
+        <v>-64000</v>
+      </c>
+      <c r="H32" s="3">
         <v>119000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-61000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>136000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-6000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-26000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>33000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>30000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-48000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>52000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-40000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-78000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-86000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-36000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-60000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-39000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-11000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-28300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-7700</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-15900</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-30600</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>1289000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1576000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1495000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1664000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2215000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1658000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>6067000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1828000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2337000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2498000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1933000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1156000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>788000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1002000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>760000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1119000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>815000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>898000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>709000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>752000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>579000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>528100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>533900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>611600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>551400</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>629500</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>473500</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2859,179 +2935,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>1289000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1576000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1495000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1664000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2215000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1658000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>6067000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1828000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2337000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2498000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1933000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1156000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>788000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1002000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>760000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1119000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>815000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>898000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>709000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>752000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>579000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>528100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>533900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>611600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>551400</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>629500</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>473500</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44835</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44744</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44653</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44471</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44380</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44289</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44009</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43918</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43736</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43645</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43554</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43372</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42917</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42826</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -3061,8 +3146,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -3092,523 +3178,542 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>3482000</v>
+      </c>
+      <c r="E41" s="3">
         <v>8524000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2919000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1888000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2752000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4477000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>12027000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>7023000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5583000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>10325000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7540000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5818000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2981000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2399000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1273000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2288000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1106000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2103000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1098000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>937000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>950000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1335000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>741100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>611000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>713300</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>786200</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>1970000</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>91</v>
+      <c r="E42" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F42" s="3">
+        <v>22000</v>
       </c>
       <c r="G42" s="3">
-        <v>150000</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>91</v>
+        <v>5000</v>
+      </c>
+      <c r="H42" s="3">
+        <v>6000</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K42" s="3">
         <v>65000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>121000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>28000</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O42" s="3">
+      <c r="O42" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P42" s="3">
         <v>110000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>37000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>7000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>6000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>9000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>31000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>14000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>3000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>7000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>10000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>7300</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>53500</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>11600</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>15800</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>9297000</v>
+      </c>
+      <c r="E43" s="3">
         <v>9427000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>8919000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>8892000</v>
       </c>
-      <c r="G43" s="3">
-        <v>8803000</v>
-      </c>
       <c r="H43" s="3">
+        <v>8947000</v>
+      </c>
+      <c r="I43" s="3">
         <v>8945000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>6365000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>6280000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6337000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6472000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5883000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5164000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5166000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4952000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4384000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4129000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4155000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4136000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>4257000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>4441000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>4530000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>4311000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>4209100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>3673200</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>3523500</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>3426800</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>2895100</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>5664000</v>
+      </c>
+      <c r="E44" s="3">
         <v>5634000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>5722000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>5668000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>5483000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>5051000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4906000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4625000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4342000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4029000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3829000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3648000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3454000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3370000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3308000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3209000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3124000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3005000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2982000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2866000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>2891000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>2971000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>3125500</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>2422200</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>2327100</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>2213300</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>2390900</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>1644000</v>
+        <v>1766000</v>
       </c>
       <c r="E45" s="3">
-        <v>1739000</v>
+        <v>1642000</v>
       </c>
       <c r="F45" s="3">
-        <v>1652000</v>
+        <v>1717000</v>
       </c>
       <c r="G45" s="3">
+        <v>1647000</v>
+      </c>
+      <c r="H45" s="3">
         <v>1588000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1640000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1426000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1267000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1302000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1103000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>982000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1145000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1027000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1135000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1542000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1591000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1545000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1350000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1215000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1227000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1210000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>794000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>761000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>692600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>672600</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>578900</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>933600</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>20209000</v>
+      </c>
+      <c r="E46" s="3">
         <v>25229000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>19299000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>18100000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>18776000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>20113000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>24724000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>19260000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>17685000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>21957000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>18234000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>15775000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>12738000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>11893000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>10514000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>11223000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>9939000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>10625000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>9566000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>9474000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>9588000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>9421000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>8844000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>7452500</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>7248100</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>7021000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>8204400</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E47" s="3">
         <v>7000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>9000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>10000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>11000</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>91</v>
@@ -3619,8 +3724,8 @@
       <c r="K47" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -3673,174 +3778,183 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>9354000</v>
+      </c>
+      <c r="E48" s="3">
         <v>9280000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8628000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>8529000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>8448000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>9864000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>7049000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>6560000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6133000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6687000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5180000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4887000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4736000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5448000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5065000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5027000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4792000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4165000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3978000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3952000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>4059000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>4047000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>3931600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>2599700</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>2563300</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>2577800</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>2599300</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>61112000</v>
+      </c>
+      <c r="E49" s="3">
         <v>58638000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>58301000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>59644000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>61099000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>62037000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>38836000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>39294000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>39654000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>38726000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>38652000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>38870000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>39157000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>39728000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>39935000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>40620000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>39725000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>40325000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>40361000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>40800000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>41755000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>41974000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>42158500</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>35421100</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>35382000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>35296800</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>36102400</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3922,8 +4036,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -4005,91 +4122,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>3975000</v>
+      </c>
+      <c r="E52" s="3">
         <v>4000000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4299000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4296000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4413000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3109000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2991000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2584000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2459000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1682000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1995000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2061000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2057000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1312000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1215000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1100000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1140000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1117000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1173000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1177000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1178000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1227000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1051200</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1040400</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1020200</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>1011900</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>1104600</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -4171,91 +4294,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>94658000</v>
+      </c>
+      <c r="E54" s="3">
         <v>97154000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>90536000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>90579000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>92747000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>95123000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>73600000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>67698000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>65931000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>69052000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>64061000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>61593000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>58688000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>58381000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>56729000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>57970000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>55596000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>56232000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>55078000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>55403000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>56580000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>56669000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>55985300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>46513700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>46213600</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>45907500</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>48010700</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -4285,8 +4414,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4316,506 +4446,525 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>2798000</v>
+      </c>
+      <c r="E57" s="3">
         <v>3381000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2471000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2586000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2667000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2867000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2301000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2098000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2146000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2175000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1703000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1385000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1599000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1920000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1659000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1391000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1462000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1615000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1344000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1359000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1354000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1428000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1123800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>982200</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1031000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>926200</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>941700</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>6122000</v>
+      </c>
+      <c r="E58" s="3">
         <v>5579000</v>
-      </c>
-      <c r="E58" s="3">
-        <v>1010000</v>
       </c>
       <c r="F58" s="3">
         <v>1010000</v>
       </c>
       <c r="G58" s="3">
+        <v>1010000</v>
+      </c>
+      <c r="H58" s="3">
         <v>1866000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2537000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>19000</v>
-      </c>
-      <c r="J58" s="3">
-        <v>4000</v>
       </c>
       <c r="K58" s="3">
         <v>4000</v>
       </c>
       <c r="L58" s="3">
+        <v>4000</v>
+      </c>
+      <c r="M58" s="3">
         <v>2628000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>675000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>738000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>676000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>661000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2377000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1336000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1271000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1014000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1711000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>2814000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>2135000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>2762300</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1540400</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1882400</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>1255500</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>1972100</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>6964000</v>
+      </c>
+      <c r="E59" s="3">
         <v>8050000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7637000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7401000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7537000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>8032000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5433000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4823000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4845000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5501000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4523000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3953000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3163000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3601000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3524000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3741000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3100000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3261000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2838000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2910000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2904000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3485000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>3145200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2553200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>2389500</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>2684100</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>2346100</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>15884000</v>
+      </c>
+      <c r="E60" s="3">
         <v>17010000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>11118000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>10997000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>12070000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>13436000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7753000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6925000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6995000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>10304000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6228000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6013000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5500000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6197000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5844000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7509000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5898000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>6147000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5196000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>5980000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>7072000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>7048000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>7031300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>5075800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>5302900</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>4865800</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>5259900</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>29135000</v>
+      </c>
+      <c r="E61" s="3">
         <v>28909000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>28150000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>29250000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>30095000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>32333000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>21688000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>18773000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>18641000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>19107000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>21091000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>20638000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>19231000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>17076000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>16392000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>16663000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>16812000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>17719000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>17760000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>17709000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>18122000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>18873000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>19230400</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>15255700</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>15188400</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>15372400</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>16940400</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>7206000</v>
+      </c>
+      <c r="E62" s="3">
         <v>7087000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>7541000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>7861000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>9451000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>8377000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>5449000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>5146000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5237000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5134000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4918000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>5067000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>5398000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>5433000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>5138000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>5069000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>5193000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>4780000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>5232000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>5269000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>5263000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>5335000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>5021800</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>3790600</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>3927100</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>4130000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>4151800</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4897,8 +5046,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4980,8 +5132,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -5063,91 +5218,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>52401000</v>
+      </c>
+      <c r="E66" s="3">
         <v>53176000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>46987000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>48286000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>51791000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>54330000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>34890000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>30844000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>30873000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>34545000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>32237000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>31718000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>30129000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>28706000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>27374000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>29241000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>27903000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>28646000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>28188000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>28958000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>30457000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>31256000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>31283500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>24122100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>24418400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>24368200</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>26352100</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -5177,8 +5338,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -5260,8 +5422,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -5343,8 +5508,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -5426,8 +5594,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -5509,91 +5680,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>43064000</v>
+      </c>
+      <c r="E72" s="3">
         <v>41910000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>40452000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>39074000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>37528000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>35431000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>33876000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>32076000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>30350000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>28116000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>25705000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>23860000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>22791000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>22092000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>21165000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>20482000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>19439000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>18696000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>17866000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>17226000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>16542000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>15914000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>15445800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>14972300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>14419400</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>13926900</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>13356500</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -5675,8 +5852,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5758,8 +5938,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -5841,91 +6024,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>42257000</v>
+      </c>
+      <c r="E76" s="3">
         <v>43978000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>43549000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>42293000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>40956000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>40793000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>38710000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>36854000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>35058000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>34507000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>31824000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>29875000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>28559000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>29675000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>29355000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>28729000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>27693000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>27586000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>26890000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>26445000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>26123000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>25413000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>24701800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>22391600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>21795200</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>21539300</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>21658600</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -6007,179 +6196,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44835</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44744</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44653</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44471</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44380</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44289</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44009</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43918</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43736</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43645</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43554</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43372</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42917</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42826</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>1289000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1576000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1495000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1664000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2215000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1658000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>6067000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1828000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2337000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2498000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1933000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1156000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>788000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1002000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>760000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1119000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>815000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>898000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>709000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>752000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>579000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>528100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>533900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>611600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>551400</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>629500</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>473500</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -6209,91 +6407,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>859000</v>
+      </c>
+      <c r="E83" s="3">
         <v>848000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>838000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>836000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>859000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>683000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1909000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>660000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>621000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>602000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>575000</v>
-      </c>
-      <c r="N83" s="3">
-        <v>574000</v>
       </c>
       <c r="O83" s="3">
         <v>574000</v>
       </c>
       <c r="P83" s="3">
+        <v>574000</v>
+      </c>
+      <c r="Q83" s="3">
         <v>576000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>575000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>571000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>555000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>558000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>563000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>571000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>575000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>573500</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>516800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>478200</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>464500</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>473800</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>433000</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -6375,8 +6577,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -6458,8 +6663,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -6541,8 +6749,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -6624,8 +6835,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -6707,91 +6921,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>729000</v>
+      </c>
+      <c r="E89" s="3">
         <v>3487000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1937000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1528000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2202000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2457000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>6855000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2227000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1978000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3339000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2708000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1886000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>356000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1913000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1117000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1294000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>649000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1801000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1220000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1444000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>78000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1866500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>928600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>848400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>361500</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>1103600</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>804400</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -6821,91 +7041,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-458000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-550000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-547000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-506000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-640000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-831000</v>
       </c>
-      <c r="I91" s="3">
-        <v>-1692000</v>
-      </c>
       <c r="J91" s="3">
+        <v>-524000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-540000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-628000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-586000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-366000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-269000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-253000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-289000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-216000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-220000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-201000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-284000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-173000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-183000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-118000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-215200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-111400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-88000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-93400</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>177400</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-162000</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -6987,8 +7211,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -7070,91 +7297,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-3142000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-525000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-545000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-419000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-670000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-18692000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3240000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-626000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1998000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-626000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-365000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-259000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-260000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-339000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-198000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-769000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-181000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-721000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-168000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-185000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-179000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-283400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-6968300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-95400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-381900</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-104200</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-4192600</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -7184,8 +7417,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -7193,25 +7427,25 @@
         <v>-117000</v>
       </c>
       <c r="E96" s="3">
+        <v>-117000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-118000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-117000</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-103000</v>
       </c>
       <c r="H96" s="3">
         <v>-103000</v>
       </c>
       <c r="I96" s="3">
+        <v>-103000</v>
+      </c>
+      <c r="J96" s="3">
         <v>-292000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-103000</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-87000</v>
       </c>
       <c r="L96" s="3">
         <v>-87000</v>
@@ -7223,52 +7457,55 @@
         <v>-87000</v>
       </c>
       <c r="O96" s="3">
-        <v>-76000</v>
+        <v>-87000</v>
       </c>
       <c r="P96" s="3">
         <v>-76000</v>
       </c>
       <c r="Q96" s="3">
+        <v>-76000</v>
+      </c>
+      <c r="R96" s="3">
         <v>-77000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-76000</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-68000</v>
       </c>
       <c r="T96" s="3">
         <v>-68000</v>
       </c>
       <c r="U96" s="3">
-        <v>-69000</v>
+        <v>-68000</v>
       </c>
       <c r="V96" s="3">
         <v>-69000</v>
       </c>
       <c r="W96" s="3">
+        <v>-69000</v>
+      </c>
+      <c r="X96" s="3">
         <v>-60000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-59900</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-59300</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-58700</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-59100</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-59200</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-59800</v>
       </c>
     </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -7350,8 +7587,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -7433,8 +7673,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -7516,253 +7759,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-2593000</v>
+      </c>
+      <c r="E100" s="3">
         <v>2391000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-151000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1905000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-3145000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>8467000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1886000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-76000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4850000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-49000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-791000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1180000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>619000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-514000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1869000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>690000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1425000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-13000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-876000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1006000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-342000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1144300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>6080600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-963000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-119300</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-2191500</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>4753300</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="E101" s="3">
         <v>250000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-212000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-78000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-99000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>211000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-17000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-93000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>137000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>102000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>181000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>20000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-127000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>57000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-59000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-29000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-32000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-61000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-21000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-272000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>57000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>163900</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>87900</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>102400</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>65800</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-110100</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-22200</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>-5037000</v>
+      </c>
+      <c r="E102" s="3">
         <v>5603000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1029000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-874000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1712000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-7557000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1712000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1432000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-4733000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2766000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1733000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2827000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>588000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1117000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1009000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1186000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-989000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1006000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>155000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-19000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-386000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>602700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>128800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-107600</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-73900</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-1199800</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>1310400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TMO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TMO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>TMO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,382 +665,394 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E7" s="2">
         <v>45017</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44835</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44744</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44653</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44471</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44380</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44289</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44009</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43918</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43736</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43645</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43554</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43372</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42917</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42826</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>10687000</v>
+      </c>
+      <c r="E8" s="3">
         <v>10710000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>11450000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>10677000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>10970000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>11818000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>10702000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>28509000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9273000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9906000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10550000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8521000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6917000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6230000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6829000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6272000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6316000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6125000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6507000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5920000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>6078000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>5853000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>6046800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>5116200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>4990000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>4765000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>4953200</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>4490900</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>6436000</v>
+      </c>
+      <c r="E9" s="3">
         <v>6570000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>6844000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>6375000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>6371000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>6354000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>5448000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>14125000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4749000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4697000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4994000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4190000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3540000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3490000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3794000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3509000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3493000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3418000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3583000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3305000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3340000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3273000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3377600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>2816000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>2706900</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>2572500</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>2674400</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>2437000</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4251000</v>
+      </c>
+      <c r="E10" s="3">
         <v>4140000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4606000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4302000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4599000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>5464000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>5254000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>14384000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4524000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5209000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5556000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4331000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3377000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2740000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3035000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2763000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2823000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2707000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2924000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2615000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2738000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2580000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>2669200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>2300200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>2283100</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>2192500</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>2278800</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>2053900</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1071,94 +1083,98 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>345000</v>
+      </c>
+      <c r="E12" s="3">
         <v>346000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>391000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>351000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>365000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>364000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>392000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1014000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>343000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>320000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>376000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>296000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>264000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>245000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>262000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>247000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>246000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>248000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>251000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>240000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>242000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>234000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>232900</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>218100</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>221600</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>215400</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>212600</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>183300</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1243,94 +1259,100 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>183000</v>
+      </c>
+      <c r="E14" s="3">
         <v>112000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>55000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>33000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>24000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>28000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>727000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>210000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>77000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>227000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>29000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-38000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>54000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>44000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>37000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>38000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-448000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>11000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>37000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-31000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>20000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>53000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>5200</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>85500</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>29300</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>55000</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>57000</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>117400</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1415,8 +1437,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1444,180 +1469,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>9109000</v>
+      </c>
+      <c r="E17" s="3">
         <v>9147000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>9589000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8967000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8969000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>9023000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>8734000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>21019000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7110000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7054000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7479000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6095000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5526000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5324000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5597000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5326000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4820000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5205000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5359000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5008000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>5141000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>5067000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>5088900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>4480000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>4238500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>4142600</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>4200600</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>3949800</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>1578000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1563000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1861000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1710000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2001000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2795000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1968000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>7490000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2163000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2852000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3071000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2426000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1391000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>906000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1232000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>946000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1496000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>920000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1148000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>912000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>937000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>786000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>957900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>636200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>751500</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>622400</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>752600</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>541100</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1648,438 +1680,454 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>178000</v>
+      </c>
+      <c r="E20" s="3">
         <v>100000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>185000</v>
-      </c>
-      <c r="F20" s="3">
-        <v>64000</v>
       </c>
       <c r="G20" s="3">
         <v>64000</v>
       </c>
       <c r="H20" s="3">
+        <v>64000</v>
+      </c>
+      <c r="I20" s="3">
         <v>-119000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>61000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-136000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>6000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>26000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-33000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-30000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>48000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-52000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>40000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>78000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>86000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>36000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>60000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>39000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>11000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>28300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>1100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>7700</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>15900</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>30600</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>2611000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2522000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2894000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2612000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2901000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3535000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2712000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>9263000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2829000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3499000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3640000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2971000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1964000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1528000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1756000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1561000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2145000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1561000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1742000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1535000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1547000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1372000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1559700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1154100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1237400</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1102800</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>1257000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>974200</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>326000</v>
+      </c>
+      <c r="E22" s="3">
         <v>300000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>269000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>173000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>148000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>136000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>161000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>375000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>122000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>125000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>146000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>144000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>137000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>126000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>142000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>164000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>181000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>189000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>172000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>162000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>170000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>163000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>166300</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>156700</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>133600</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>135400</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>131300</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>113300</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>1430000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1363000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1777000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1601000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1917000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2540000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1868000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>6979000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2047000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2753000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2892000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2252000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1253000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>828000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1038000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>822000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1393000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>817000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1012000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>810000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>806000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>634000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>819900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>480600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>625600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>502900</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>651900</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>427900</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E24" s="3">
         <v>46000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>173000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>31000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>198000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>301000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>203000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>906000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>219000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>416000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>394000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>319000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>97000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>40000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>36000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>34000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>274000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>22000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>114000</v>
-      </c>
-      <c r="V24" s="3">
-        <v>54000</v>
       </c>
       <c r="W24" s="3">
         <v>54000</v>
       </c>
       <c r="X24" s="3">
+        <v>54000</v>
+      </c>
+      <c r="Y24" s="3">
         <v>-15000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>85400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-53300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>13400</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-48500</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>19200</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>-45600</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2164,180 +2212,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>1378000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1317000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1604000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1570000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1719000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2239000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1665000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>6073000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1828000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2337000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2498000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1933000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1156000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>788000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1002000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>788000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1119000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>795000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>898000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>756000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>752000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>649000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>734500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>533900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>612200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>551400</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>632700</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>473500</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>1361000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1289000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1576000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1495000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1664000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2215000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1658000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>6067000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1828000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2337000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2498000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1933000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1156000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>788000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1002000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>788000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1119000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>795000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>898000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>756000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>752000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>649000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>734500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>533900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>612200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>551400</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>632700</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>473500</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2422,8 +2479,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2451,8 +2511,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>91</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>91</v>
@@ -2463,53 +2523,56 @@
       <c r="O29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="P29" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>-28000</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>20000</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>-47000</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
       <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-70000</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-206400</v>
       </c>
-      <c r="Z29" s="3">
-        <v>0</v>
-      </c>
       <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="3">
         <v>-600</v>
       </c>
-      <c r="AB29" s="3">
-        <v>0</v>
-      </c>
       <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
         <v>-3200</v>
       </c>
-      <c r="AD29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2594,8 +2657,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2680,180 +2746,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-178000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-185000</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-64000</v>
       </c>
       <c r="G32" s="3">
         <v>-64000</v>
       </c>
       <c r="H32" s="3">
+        <v>-64000</v>
+      </c>
+      <c r="I32" s="3">
         <v>119000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-61000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>136000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-6000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-26000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>33000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>30000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-48000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>52000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-40000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-78000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-86000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-36000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-60000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-39000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-11000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-28300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-7700</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-15900</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-30600</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>1361000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1289000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1576000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1495000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1664000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2215000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1658000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>6067000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1828000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2337000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2498000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1933000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1156000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>788000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1002000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>760000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1119000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>815000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>898000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>709000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>752000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>579000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>528100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>533900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>611600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>551400</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>629500</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>473500</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2938,185 +3013,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>1361000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1289000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1576000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1495000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1664000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2215000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1658000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>6067000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1828000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2337000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2498000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1933000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1156000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>788000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1002000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>760000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1119000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>815000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>898000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>709000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>752000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>579000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>528100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>533900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>611600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>551400</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>629500</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>473500</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E38" s="2">
         <v>45017</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44835</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44744</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44653</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44471</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44380</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44289</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44009</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43918</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43736</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43645</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43554</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43372</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42917</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42826</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -3147,8 +3231,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -3179,544 +3264,563 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>3133000</v>
+      </c>
+      <c r="E41" s="3">
         <v>3482000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8524000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2919000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1888000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2752000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4477000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>12027000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7023000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5583000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>10325000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7540000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5818000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2981000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2399000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1273000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2288000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1106000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2103000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1098000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>937000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>950000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1335000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>741100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>611000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>713300</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>786200</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>1970000</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F42" s="3">
         <v>2000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>22000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>5000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>6000</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K42" s="3">
+      <c r="K42" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L42" s="3">
         <v>65000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>121000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>28000</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P42" s="3">
+      <c r="P42" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q42" s="3">
         <v>110000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>37000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>7000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>6000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>9000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>31000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>14000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>3000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>7000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>10000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>7300</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>53500</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>11600</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>15800</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>9486000</v>
+      </c>
+      <c r="E43" s="3">
         <v>9297000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>9427000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>8919000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>8892000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>8947000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>8945000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>6365000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6280000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6337000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6472000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5883000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5164000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5166000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4952000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4384000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4129000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4155000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>4136000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>4257000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>4441000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>4530000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>4311000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>4209100</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>3673200</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>3523500</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>3426800</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>2895100</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>5655000</v>
+      </c>
+      <c r="E44" s="3">
         <v>5664000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>5634000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>5722000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>5668000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>5483000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>5051000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4906000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4625000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4342000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4029000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3829000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3648000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3454000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3370000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3308000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3209000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3124000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3005000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2982000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>2866000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>2891000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>2971000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>3125500</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>2422200</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>2327100</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>2213300</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>2390900</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>1721000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1766000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1642000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1717000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1647000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1588000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1640000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1426000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1267000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1302000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1103000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>982000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1145000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1027000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1135000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1542000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1591000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1545000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1350000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1215000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1227000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1210000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>794000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>761000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>692600</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>672600</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>578900</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>933600</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>19995000</v>
+      </c>
+      <c r="E46" s="3">
         <v>20209000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>25229000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>19299000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>18100000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>18776000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>20113000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>24724000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>19260000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>17685000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>21957000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>18234000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>15775000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>12738000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>11893000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>10514000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>11223000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>9939000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>10625000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>9566000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>9474000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>9588000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>9421000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>8844000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>7452500</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>7248100</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>7021000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>8204400</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E47" s="3">
         <v>8000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>7000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>9000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>10000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>11000</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>91</v>
@@ -3727,8 +3831,8 @@
       <c r="L47" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -3781,180 +3885,189 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>9292000</v>
+      </c>
+      <c r="E48" s="3">
         <v>9354000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>9280000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>8628000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>8529000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>8448000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>9864000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>7049000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6560000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6133000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6687000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5180000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4887000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4736000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5448000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5065000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5027000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4792000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4165000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3978000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3952000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>4059000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>4047000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>3931600</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>2599700</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>2563300</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>2577800</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>2599300</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>60710000</v>
+      </c>
+      <c r="E49" s="3">
         <v>61112000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>58638000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>58301000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>59644000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>61099000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>62037000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>38836000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>39294000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>39654000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>38726000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>38652000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>38870000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>39157000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>39728000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>39935000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>40620000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>39725000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>40325000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>40361000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>40800000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>41755000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>41974000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>42158500</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>35421100</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>35382000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>35296800</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>36102400</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -4039,8 +4152,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -4125,94 +4241,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>4102000</v>
+      </c>
+      <c r="E52" s="3">
         <v>3975000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4000000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4299000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4296000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4413000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3109000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2991000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2584000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2459000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1682000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1995000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2061000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2057000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1312000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1215000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1100000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1140000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1117000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1173000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1177000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1178000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1227000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1051200</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1040400</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>1020200</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>1011900</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>1104600</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -4297,94 +4419,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>94105000</v>
+      </c>
+      <c r="E54" s="3">
         <v>94658000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>97154000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>90536000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>90579000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>92747000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>95123000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>73600000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>67698000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>65931000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>69052000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>64061000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>61593000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>58688000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>58381000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>56729000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>57970000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>55596000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>56232000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>55078000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>55403000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>56580000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>56669000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>55985300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>46513700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>46213600</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>45907500</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>48010700</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -4415,8 +4543,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4447,524 +4576,543 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>2423000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2798000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3381000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2471000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2586000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2667000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2867000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2301000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2098000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2146000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2175000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1703000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1385000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1599000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1920000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1659000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1391000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1462000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1615000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1344000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1359000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1354000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1428000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1123800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>982200</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>1031000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>926200</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>941700</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>4814000</v>
+      </c>
+      <c r="E58" s="3">
         <v>6122000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5579000</v>
-      </c>
-      <c r="F58" s="3">
-        <v>1010000</v>
       </c>
       <c r="G58" s="3">
         <v>1010000</v>
       </c>
       <c r="H58" s="3">
+        <v>1010000</v>
+      </c>
+      <c r="I58" s="3">
         <v>1866000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2537000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>19000</v>
-      </c>
-      <c r="K58" s="3">
-        <v>4000</v>
       </c>
       <c r="L58" s="3">
         <v>4000</v>
       </c>
       <c r="M58" s="3">
+        <v>4000</v>
+      </c>
+      <c r="N58" s="3">
         <v>2628000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>675000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>738000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>676000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>661000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2377000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1336000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1271000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1014000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1711000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>2814000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>2135000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>2762300</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1540400</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>1882400</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>1255500</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>1972100</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>6875000</v>
+      </c>
+      <c r="E59" s="3">
         <v>6964000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>8050000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7637000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7401000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7537000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>8032000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5433000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4823000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4845000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5501000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4523000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3953000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3163000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3601000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3524000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3741000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3100000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3261000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2838000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2910000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2904000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>3485000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>3145200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>2553200</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>2389500</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>2684100</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>2346100</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>14112000</v>
+      </c>
+      <c r="E60" s="3">
         <v>15884000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>17010000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>11118000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>10997000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>12070000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>13436000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7753000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6925000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6995000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>10304000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6228000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6013000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5500000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6197000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5844000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>7509000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5898000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>6147000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>5196000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>5980000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>7072000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>7048000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>7031300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>5075800</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>5302900</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>4865800</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>5259900</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>29194000</v>
+      </c>
+      <c r="E61" s="3">
         <v>29135000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>28909000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>28150000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>29250000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>30095000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>32333000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>21688000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>18773000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>18641000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>19107000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>21091000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>20638000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>19231000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>17076000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>16392000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>16663000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>16812000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>17719000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>17760000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>17709000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>18122000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>18873000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>19230400</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>15255700</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>15188400</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>15372400</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>16940400</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>6884000</v>
+      </c>
+      <c r="E62" s="3">
         <v>7206000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>7087000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>7541000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>7861000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>9451000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>8377000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>5449000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5146000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5237000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5134000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4918000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>5067000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>5398000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>5433000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>5138000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>5069000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>5193000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>4780000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>5232000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>5269000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>5263000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>5335000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>5021800</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>3790600</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>3927100</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>4130000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>4151800</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -5049,8 +5197,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -5135,8 +5286,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -5221,94 +5375,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>50353000</v>
+      </c>
+      <c r="E66" s="3">
         <v>52401000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>53176000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>46987000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>48286000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>51791000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>54330000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>34890000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>30844000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>30873000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>34545000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>32237000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>31718000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>30129000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>28706000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>27374000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>29241000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>27903000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>28646000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>28188000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>28958000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>30457000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>31256000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>31283500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>24122100</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>24418400</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>24368200</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>26352100</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -5339,8 +5499,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -5425,8 +5586,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -5511,8 +5675,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -5597,8 +5764,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -5683,94 +5853,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>44289000</v>
+      </c>
+      <c r="E72" s="3">
         <v>43064000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>41910000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>40452000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>39074000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>37528000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>35431000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>33876000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>32076000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>30350000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>28116000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>25705000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>23860000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>22791000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>22092000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>21165000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>20482000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>19439000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>18696000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>17866000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>17226000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>16542000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>15914000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>15445800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>14972300</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>14419400</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>13926900</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>13356500</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -5855,8 +6031,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5941,8 +6120,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -6027,94 +6209,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>43752000</v>
+      </c>
+      <c r="E76" s="3">
         <v>42257000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>43978000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>43549000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>42293000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>40956000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>40793000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>38710000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>36854000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>35058000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>34507000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>31824000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>29875000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>28559000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>29675000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>29355000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>28729000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>27693000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>27586000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>26890000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>26445000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>26123000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>25413000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>24701800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>22391600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>21795200</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>21539300</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>21658600</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -6199,185 +6387,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E80" s="2">
         <v>45017</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44835</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44744</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44653</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44471</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44380</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44289</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44009</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43918</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43736</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43645</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43554</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43372</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42917</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42826</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>1361000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1289000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1576000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1495000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1664000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2215000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1658000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>6067000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1828000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2337000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2498000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1933000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1156000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>788000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1002000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>760000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1119000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>815000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>898000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>709000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>752000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>579000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>528100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>533900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>611600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>551400</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>629500</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>473500</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -6408,94 +6605,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>855000</v>
+      </c>
+      <c r="E83" s="3">
         <v>859000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>848000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>838000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>836000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>859000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>683000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1909000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>660000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>621000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>602000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>575000</v>
-      </c>
-      <c r="O83" s="3">
-        <v>574000</v>
       </c>
       <c r="P83" s="3">
         <v>574000</v>
       </c>
       <c r="Q83" s="3">
+        <v>574000</v>
+      </c>
+      <c r="R83" s="3">
         <v>576000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>575000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>571000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>555000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>558000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>563000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>571000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>575000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>573500</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>516800</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>478200</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>464500</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>473800</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>433000</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -6580,8 +6781,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -6666,8 +6870,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -6752,8 +6959,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -6838,8 +7048,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -6924,94 +7137,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>1540000</v>
+      </c>
+      <c r="E89" s="3">
         <v>729000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3487000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1937000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1528000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2202000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2457000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>6855000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2227000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1978000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3339000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2708000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1886000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>356000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1913000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1117000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1294000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>649000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1801000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1220000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1444000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>78000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1866500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>928600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>848400</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>361500</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>1103600</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>804400</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -7042,94 +7261,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-284000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-458000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-550000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-547000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-506000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-640000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-831000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-524000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-540000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-628000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-586000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-366000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-269000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-253000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-289000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-216000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-220000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-201000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-284000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-173000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-183000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-118000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-215200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-111400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-88000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-93400</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>177400</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-162000</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -7214,8 +7437,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -7300,94 +7526,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-443000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3142000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-525000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-545000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-419000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-670000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-18692000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3240000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-626000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1998000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-626000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-365000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-259000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-260000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-339000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-198000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-769000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-181000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-721000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-168000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-185000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-179000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-283400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-6968300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-95400</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-381900</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-104200</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-4192600</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -7418,37 +7650,38 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-117000</v>
+        <v>-135000</v>
       </c>
       <c r="E96" s="3">
         <v>-117000</v>
       </c>
       <c r="F96" s="3">
+        <v>-117000</v>
+      </c>
+      <c r="G96" s="3">
         <v>-118000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-117000</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-103000</v>
       </c>
       <c r="I96" s="3">
         <v>-103000</v>
       </c>
       <c r="J96" s="3">
+        <v>-103000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-292000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-103000</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-87000</v>
       </c>
       <c r="M96" s="3">
         <v>-87000</v>
@@ -7460,52 +7693,55 @@
         <v>-87000</v>
       </c>
       <c r="P96" s="3">
-        <v>-76000</v>
+        <v>-87000</v>
       </c>
       <c r="Q96" s="3">
         <v>-76000</v>
       </c>
       <c r="R96" s="3">
+        <v>-76000</v>
+      </c>
+      <c r="S96" s="3">
         <v>-77000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-76000</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-68000</v>
       </c>
       <c r="U96" s="3">
         <v>-68000</v>
       </c>
       <c r="V96" s="3">
-        <v>-69000</v>
+        <v>-68000</v>
       </c>
       <c r="W96" s="3">
         <v>-69000</v>
       </c>
       <c r="X96" s="3">
+        <v>-69000</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-60000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-59900</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-59300</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-58700</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-59100</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-59200</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-59800</v>
       </c>
     </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -7590,8 +7826,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -7676,8 +7915,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -7762,262 +8004,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-1456000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2593000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2391000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-151000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1905000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-3145000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>8467000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1886000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-76000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4850000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-49000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-791000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1180000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>619000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-514000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1869000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>690000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1425000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-13000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-876000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1006000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-342000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-1144300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>6080600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-963000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-119300</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-2191500</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>4753300</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-31000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>250000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-212000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-78000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-99000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>211000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-17000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-93000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>137000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>102000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>181000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>20000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-127000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>57000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-59000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-29000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-32000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-61000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-21000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-272000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>57000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>163900</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>87900</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>102400</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>65800</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-110100</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-22200</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>-347000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-5037000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>5603000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1029000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-874000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1712000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-7557000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1712000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1432000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-4733000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2766000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1733000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2827000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>588000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1117000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1009000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1186000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-989000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1006000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>155000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-19000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-386000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>602700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>128800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-107600</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-73900</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-1199800</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>1310400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TMO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TMO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>TMO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,394 +665,407 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45108</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45017</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44835</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44744</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44653</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44471</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44380</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44289</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44009</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43918</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43736</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43645</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43554</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43372</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42917</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42826</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>10574000</v>
+      </c>
+      <c r="E8" s="3">
         <v>10687000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>10710000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>11450000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>10677000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>10970000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>11818000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>10702000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>28509000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9273000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9906000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10550000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8521000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6917000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6230000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6829000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6272000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6316000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6125000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>6507000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>5920000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>6078000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>5853000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>6046800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>5116200</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>4990000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>4765000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>4953200</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>4490900</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>6258000</v>
+      </c>
+      <c r="E9" s="3">
         <v>6436000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>6570000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>6844000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>6375000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>6371000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>6354000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>5448000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>14125000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4749000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4697000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4994000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4190000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3540000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3490000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3794000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3509000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3493000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3418000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3583000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3305000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3340000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3273000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>3377600</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>2816000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>2706900</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>2572500</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>2674400</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>2437000</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4316000</v>
+      </c>
+      <c r="E10" s="3">
         <v>4251000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4140000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4606000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4302000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4599000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>5464000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>5254000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>14384000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4524000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5209000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5556000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4331000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3377000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2740000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3035000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2763000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2823000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2707000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2924000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2615000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2738000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>2580000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>2669200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>2300200</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>2283100</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>2192500</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>2278800</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>2053900</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1084,97 +1097,101 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>319000</v>
+      </c>
+      <c r="E12" s="3">
         <v>345000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>346000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>391000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>351000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>365000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>364000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>392000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1014000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>343000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>320000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>376000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>296000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>264000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>245000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>262000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>247000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>246000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>248000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>251000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>240000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>242000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>234000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>232900</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>218100</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>221600</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>215400</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>212600</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="AF12" s="3">
         <v>183300</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1262,97 +1279,103 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>84000</v>
+      </c>
+      <c r="E14" s="3">
         <v>183000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>112000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>55000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>33000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>24000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>28000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>727000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>210000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>77000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>227000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>29000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-38000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>54000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>44000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>37000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>38000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-448000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>11000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>37000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>-31000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>20000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>53000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>5200</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>85500</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>29300</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>55000</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>57000</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AF14" s="3">
         <v>117400</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1440,8 +1463,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1470,186 +1496,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>8710000</v>
+      </c>
+      <c r="E17" s="3">
         <v>9109000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>9147000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9589000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8967000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>8969000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9023000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>8734000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>21019000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7110000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7054000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7479000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6095000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5526000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5324000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5597000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5326000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4820000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5205000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5359000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>5008000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>5141000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>5067000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>5088900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>4480000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>4238500</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>4142600</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>4200600</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>3949800</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>1864000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1578000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1563000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1861000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1710000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2001000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2795000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1968000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>7490000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2163000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2852000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3071000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2426000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1391000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>906000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1232000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>946000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1496000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>920000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1148000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>912000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>937000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>786000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>957900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>636200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>751500</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>622400</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>752600</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>541100</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1681,453 +1714,469 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>260000</v>
+      </c>
+      <c r="E20" s="3">
         <v>178000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>100000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>185000</v>
-      </c>
-      <c r="G20" s="3">
-        <v>64000</v>
       </c>
       <c r="H20" s="3">
         <v>64000</v>
       </c>
       <c r="I20" s="3">
+        <v>64000</v>
+      </c>
+      <c r="J20" s="3">
         <v>-119000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>61000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-136000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>6000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>26000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-33000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-30000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>48000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-52000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>40000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>78000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>86000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>36000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>60000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>39000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>11000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>28300</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>1100</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>7700</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>15900</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>30600</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>2977000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2611000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2522000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2894000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2612000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2901000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3535000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2712000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>9263000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2829000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3499000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3640000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2971000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1964000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1528000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1756000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1561000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>2145000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1561000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1742000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1535000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1547000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1372000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1559700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1154100</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1237400</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>1102800</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>1257000</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>974200</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>359000</v>
+      </c>
+      <c r="E22" s="3">
         <v>326000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>300000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>269000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>173000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>148000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>136000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>161000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>375000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>122000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>125000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>146000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>144000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>137000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>126000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>142000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>164000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>181000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>189000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>172000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>162000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>170000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>163000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>166300</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>156700</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>133600</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>135400</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>131300</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>113300</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>1765000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1430000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1363000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1777000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1601000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1917000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2540000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1868000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>6979000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2047000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2753000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2892000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2252000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1253000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>828000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1038000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>822000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1393000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>817000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1012000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>810000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>806000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>634000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>819900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>480600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>625600</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>502900</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>651900</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>427900</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>53000</v>
+      </c>
+      <c r="E24" s="3">
         <v>52000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>46000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>173000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>31000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>198000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>301000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>203000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>906000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>219000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>416000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>394000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>319000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>97000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>40000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>36000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>34000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>274000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>22000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>114000</v>
-      </c>
-      <c r="W24" s="3">
-        <v>54000</v>
       </c>
       <c r="X24" s="3">
         <v>54000</v>
       </c>
       <c r="Y24" s="3">
+        <v>54000</v>
+      </c>
+      <c r="Z24" s="3">
         <v>-15000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>85400</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-53300</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>13400</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>-48500</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>19200</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>-45600</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2215,186 +2264,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>1712000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1378000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1317000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1604000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1570000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1719000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2239000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1665000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>6073000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1828000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2337000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2498000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1933000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1156000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>788000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1002000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>788000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1119000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>795000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>898000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>756000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>752000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>649000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>734500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>533900</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>612200</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>551400</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>632700</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>473500</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>1715000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1361000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1289000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1576000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1495000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1664000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2215000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1658000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>6067000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1828000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2337000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2498000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1933000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1156000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>788000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1002000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>788000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1119000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>795000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>898000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>756000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>752000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>649000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>734500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>533900</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>612200</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>551400</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>632700</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>473500</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2482,8 +2540,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2514,8 +2575,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>91</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>91</v>
@@ -2526,53 +2587,56 @@
       <c r="P29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>-28000</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>20000</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
       <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
         <v>-47000</v>
       </c>
-      <c r="X29" s="3">
-        <v>0</v>
-      </c>
       <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
         <v>-70000</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>-206400</v>
       </c>
-      <c r="AA29" s="3">
-        <v>0</v>
-      </c>
       <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
         <v>-600</v>
       </c>
-      <c r="AC29" s="3">
-        <v>0</v>
-      </c>
       <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="3">
         <v>-3200</v>
       </c>
-      <c r="AE29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2660,8 +2724,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2749,186 +2816,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-260000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-178000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-100000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-185000</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-64000</v>
       </c>
       <c r="H32" s="3">
         <v>-64000</v>
       </c>
       <c r="I32" s="3">
+        <v>-64000</v>
+      </c>
+      <c r="J32" s="3">
         <v>119000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-61000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>136000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-6000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-26000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>33000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>30000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-48000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>52000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-40000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-78000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-86000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-36000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-60000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-39000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-11000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-28300</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-7700</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-15900</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-30600</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>1715000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1361000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1289000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1576000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1495000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1664000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2215000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1658000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>6067000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1828000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2337000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2498000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1933000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1156000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>788000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1002000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>760000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1119000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>815000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>898000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>709000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>752000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>579000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>528100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>533900</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>611600</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>551400</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>629500</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>473500</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -3016,191 +3092,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>1715000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1361000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1289000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1576000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1495000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1664000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2215000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1658000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>6067000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1828000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2337000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2498000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1933000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1156000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>788000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1002000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>760000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1119000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>815000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>898000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>709000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>752000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>579000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>528100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>533900</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>611600</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>551400</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>629500</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>473500</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45108</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45017</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44835</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44744</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44653</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44471</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44380</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44289</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44009</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43918</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43736</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43645</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43554</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43372</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42917</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42826</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -3232,8 +3317,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -3265,97 +3351,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>6151000</v>
+      </c>
+      <c r="E41" s="3">
         <v>3133000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3482000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8524000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2919000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1888000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2752000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4477000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>12027000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7023000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5583000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>10325000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>7540000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5818000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2981000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2399000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1273000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2288000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1106000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2103000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1098000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>937000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>950000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1335000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>741100</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>611000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>713300</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>786200</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>1970000</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -3365,465 +3455,480 @@
       <c r="E42" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G42" s="3">
         <v>2000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>22000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>5000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>6000</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="L42" s="3">
+      <c r="L42" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M42" s="3">
         <v>65000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>121000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>28000</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="Q42" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="R42" s="3">
         <v>110000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>37000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>7000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>6000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>9000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>31000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>14000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>3000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>7000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>10000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>7300</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>53500</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>11600</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>15800</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AF42" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>9835000</v>
+      </c>
+      <c r="E43" s="3">
         <v>9486000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>9297000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>9427000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>8919000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>8892000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>8947000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>8945000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6365000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6280000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6337000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>6472000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5883000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5164000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5166000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4952000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4384000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4129000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>4155000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>4136000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>4257000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>4441000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>4530000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>4311000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>4209100</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>3673200</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>3523500</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>3426800</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>2895100</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>5404000</v>
+      </c>
+      <c r="E44" s="3">
         <v>5655000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>5664000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>5634000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>5722000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>5668000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>5483000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>5051000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4906000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4625000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4342000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4029000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3829000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3648000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3454000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3370000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3308000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3209000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3124000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3005000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>2982000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>2866000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>2891000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>2971000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>3125500</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>2422200</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>2327100</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>2213300</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>2390900</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>1702000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1721000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1766000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1642000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1717000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1647000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1588000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1640000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1426000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1267000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1302000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1103000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>982000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1145000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1027000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1135000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1542000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1591000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1545000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1350000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1215000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1227000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1210000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>794000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>761000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>692600</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>672600</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>578900</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>933600</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>23092000</v>
+      </c>
+      <c r="E46" s="3">
         <v>19995000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>20209000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>25229000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>19299000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>18100000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>18776000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>20113000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>24724000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>19260000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>17685000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>21957000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>18234000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>15775000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>12738000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>11893000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>10514000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>11223000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>9939000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>10625000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>9566000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>9474000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>9588000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>9421000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>8844000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>7452500</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>7248100</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>7021000</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>8204400</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E47" s="3">
         <v>6000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>8000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>7000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>9000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>10000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>11000</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>91</v>
@@ -3834,8 +3939,8 @@
       <c r="M47" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -3888,186 +3993,195 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>9167000</v>
+      </c>
+      <c r="E48" s="3">
         <v>9292000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>9354000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>9280000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>8628000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>8529000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>8448000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>9864000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7049000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6560000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6133000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6687000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5180000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4887000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4736000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5448000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5065000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5027000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4792000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4165000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3978000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>3952000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>4059000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>4047000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>3931600</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>2599700</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>2563300</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>2577800</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>2599300</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>60674000</v>
+      </c>
+      <c r="E49" s="3">
         <v>60710000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>61112000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>58638000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>58301000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>59644000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>61099000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>62037000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>38836000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>39294000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>39654000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>38726000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>38652000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>38870000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>39157000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>39728000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>39935000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>40620000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>39725000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>40325000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>40361000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>40800000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>41755000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>41974000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>42158500</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>35421100</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>35382000</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>35296800</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>36102400</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -4155,8 +4269,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -4244,97 +4361,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>4119000</v>
+      </c>
+      <c r="E52" s="3">
         <v>4102000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3975000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4000000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4299000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4296000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4413000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3109000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2991000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2584000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2459000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1682000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1995000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2061000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2057000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1312000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1215000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1100000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1140000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1117000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1173000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1177000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1178000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1227000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1051200</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>1040400</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>1020200</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>1011900</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>1104600</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -4422,97 +4545,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>97057000</v>
+      </c>
+      <c r="E54" s="3">
         <v>94105000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>94658000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>97154000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>90536000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>90579000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>92747000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>95123000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>73600000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>67698000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>65931000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>69052000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>64061000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>61593000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>58688000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>58381000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>56729000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>57970000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>55596000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>56232000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>55078000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>55403000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>56580000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>56669000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>55985300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>46513700</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>46213600</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>45907500</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>48010700</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -4544,8 +4673,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4577,542 +4707,561 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>2508000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2423000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2798000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3381000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2471000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2586000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2667000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2867000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2301000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2098000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2146000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2175000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1703000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1385000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1599000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1920000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1659000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1391000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1462000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1615000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1344000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1359000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1354000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1428000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1123800</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>982200</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>1031000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>926200</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>941700</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>4795000</v>
+      </c>
+      <c r="E58" s="3">
         <v>4814000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6122000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5579000</v>
-      </c>
-      <c r="G58" s="3">
-        <v>1010000</v>
       </c>
       <c r="H58" s="3">
         <v>1010000</v>
       </c>
       <c r="I58" s="3">
+        <v>1010000</v>
+      </c>
+      <c r="J58" s="3">
         <v>1866000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2537000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>19000</v>
-      </c>
-      <c r="L58" s="3">
-        <v>4000</v>
       </c>
       <c r="M58" s="3">
         <v>4000</v>
       </c>
       <c r="N58" s="3">
+        <v>4000</v>
+      </c>
+      <c r="O58" s="3">
         <v>2628000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>675000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>738000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>676000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>661000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2377000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1336000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1271000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1014000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1711000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>2814000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>2135000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>2762300</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>1540400</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>1882400</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>1255500</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>1972100</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>6855000</v>
+      </c>
+      <c r="E59" s="3">
         <v>6875000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6964000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>8050000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7637000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7401000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7537000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>8032000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5433000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4823000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4845000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5501000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4523000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3953000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3163000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3601000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3524000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3741000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3100000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3261000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2838000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2910000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2904000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>3485000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>3145200</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>2553200</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>2389500</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>2684100</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>2346100</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>14158000</v>
+      </c>
+      <c r="E60" s="3">
         <v>14112000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>15884000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>17010000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>11118000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>10997000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>12070000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>13436000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7753000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6925000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6995000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>10304000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6228000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6013000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5500000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6197000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5844000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>7509000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5898000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>6147000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>5196000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>5980000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>7072000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>7048000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>7031300</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>5075800</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>5302900</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>4865800</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>5259900</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>30489000</v>
+      </c>
+      <c r="E61" s="3">
         <v>29194000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>29135000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>28909000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>28150000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>29250000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>30095000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>32333000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>21688000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>18773000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>18641000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>19107000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>21091000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>20638000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>19231000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>17076000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>16392000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>16663000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>16812000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>17719000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>17760000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>17709000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>18122000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>18873000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>19230400</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>15255700</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>15188400</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>15372400</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>16940400</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>6946000</v>
+      </c>
+      <c r="E62" s="3">
         <v>6884000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>7206000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>7087000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>7541000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>7861000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>9451000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>8377000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5449000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5146000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5237000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>5134000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4918000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>5067000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>5398000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>5433000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>5138000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>5069000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>5193000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>4780000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>5232000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>5269000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>5263000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>5335000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>5021800</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>3790600</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>3927100</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>4130000</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>4151800</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -5200,8 +5349,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -5289,8 +5441,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -5378,97 +5533,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>51729000</v>
+      </c>
+      <c r="E66" s="3">
         <v>50353000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>52401000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>53176000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>46987000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>48286000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>51791000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>54330000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>34890000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>30844000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>30873000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>34545000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>32237000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>31718000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>30129000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>28706000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>27374000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>29241000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>27903000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>28646000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>28188000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>28958000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>30457000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>31256000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>31283500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>24122100</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>24418400</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>24368200</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>26352100</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -5500,8 +5661,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -5589,8 +5751,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -5678,8 +5843,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -5767,8 +5935,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -5856,97 +6027,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>45869000</v>
+      </c>
+      <c r="E72" s="3">
         <v>44289000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>43064000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>41910000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>40452000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>39074000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>37528000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>35431000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>33876000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>32076000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>30350000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>28116000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>25705000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>23860000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>22791000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>22092000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>21165000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>20482000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>19439000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>18696000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>17866000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>17226000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>16542000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>15914000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>15445800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>14972300</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>14419400</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>13926900</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>13356500</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -6034,8 +6211,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -6123,8 +6303,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -6212,97 +6395,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>45328000</v>
+      </c>
+      <c r="E76" s="3">
         <v>43752000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>42257000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>43978000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>43549000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>42293000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>40956000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>40793000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>38710000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>36854000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>35058000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>34507000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>31824000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>29875000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>28559000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>29675000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>29355000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>28729000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>27693000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>27586000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>26890000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>26445000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>26123000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>25413000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>24701800</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>22391600</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>21795200</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>21539300</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>21658600</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -6390,191 +6579,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45108</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45017</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44835</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44744</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44653</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44471</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44380</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44289</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44009</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43918</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43736</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43645</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43554</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43372</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42917</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42826</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>1715000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1361000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1289000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1576000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1495000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1664000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2215000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1658000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>6067000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1828000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2337000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2498000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1933000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1156000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>788000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1002000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>760000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1119000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>815000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>898000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>709000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>752000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>579000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>528100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>533900</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>611600</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>551400</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>629500</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>473500</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -6606,97 +6804,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>853000</v>
+      </c>
+      <c r="E83" s="3">
         <v>855000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>859000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>848000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>838000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>836000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>859000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>683000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1909000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>660000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>621000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>602000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>575000</v>
-      </c>
-      <c r="P83" s="3">
-        <v>574000</v>
       </c>
       <c r="Q83" s="3">
         <v>574000</v>
       </c>
       <c r="R83" s="3">
+        <v>574000</v>
+      </c>
+      <c r="S83" s="3">
         <v>576000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>575000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>571000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>555000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>558000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>563000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>571000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>575000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>573500</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>516800</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>478200</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>464500</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>473800</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>433000</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -6784,8 +6986,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -6873,8 +7078,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -6962,8 +7170,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -7051,8 +7262,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -7140,97 +7354,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>2414000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1540000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>729000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3487000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1937000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1528000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2202000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2457000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>6855000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2227000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1978000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3339000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2708000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1886000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>356000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1913000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1117000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1294000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>649000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1801000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1220000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1444000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>78000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1866500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>928600</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>848400</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>361500</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>1103600</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>804400</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -7262,97 +7482,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-332000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-284000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-458000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-550000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-547000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-506000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-640000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-831000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-524000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-540000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-628000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-586000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-366000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-269000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-253000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-289000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-216000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-220000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-201000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-284000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-173000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-183000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-118000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-215200</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-111400</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-88000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-93400</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>177400</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-162000</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -7440,8 +7664,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -7529,97 +7756,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-1181000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-443000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3142000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-525000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-545000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-419000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-670000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-18692000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3240000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-626000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1998000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-626000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-365000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-259000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-260000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-339000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-198000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-769000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-181000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-721000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-168000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-185000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-179000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-283400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-6968300</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-95400</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-381900</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-104200</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-4192600</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -7651,8 +7884,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -7660,31 +7894,31 @@
         <v>-135000</v>
       </c>
       <c r="E96" s="3">
-        <v>-117000</v>
+        <v>-135000</v>
       </c>
       <c r="F96" s="3">
         <v>-117000</v>
       </c>
       <c r="G96" s="3">
+        <v>-117000</v>
+      </c>
+      <c r="H96" s="3">
         <v>-118000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-117000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-103000</v>
       </c>
       <c r="J96" s="3">
         <v>-103000</v>
       </c>
       <c r="K96" s="3">
+        <v>-103000</v>
+      </c>
+      <c r="L96" s="3">
         <v>-292000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-103000</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-87000</v>
       </c>
       <c r="N96" s="3">
         <v>-87000</v>
@@ -7696,52 +7930,55 @@
         <v>-87000</v>
       </c>
       <c r="Q96" s="3">
-        <v>-76000</v>
+        <v>-87000</v>
       </c>
       <c r="R96" s="3">
         <v>-76000</v>
       </c>
       <c r="S96" s="3">
+        <v>-76000</v>
+      </c>
+      <c r="T96" s="3">
         <v>-77000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-76000</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-68000</v>
       </c>
       <c r="V96" s="3">
         <v>-68000</v>
       </c>
       <c r="W96" s="3">
-        <v>-69000</v>
+        <v>-68000</v>
       </c>
       <c r="X96" s="3">
         <v>-69000</v>
       </c>
       <c r="Y96" s="3">
+        <v>-69000</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-60000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-59900</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-59300</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-58700</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-59100</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-59200</v>
       </c>
-      <c r="AE96" s="3">
+      <c r="AF96" s="3">
         <v>-59800</v>
       </c>
     </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -7829,8 +8066,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -7918,8 +8158,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -8007,271 +8250,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>1855000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1456000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2593000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2391000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-151000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1905000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-3145000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>8467000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1886000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-76000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-4850000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-49000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-791000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1180000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>619000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-514000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1869000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>690000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1425000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-13000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-876000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1006000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-342000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-1144300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>6080600</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-963000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-119300</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-2191500</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>4753300</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>-73000</v>
+      </c>
+      <c r="E101" s="3">
         <v>12000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-31000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>250000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-212000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-78000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-99000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>211000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-17000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-93000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>137000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>102000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>181000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>20000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-127000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>57000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-59000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-29000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-32000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-61000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-21000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-272000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>57000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>163900</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>87900</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>102400</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>65800</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-110100</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>-22200</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>3015000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-347000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-5037000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>5603000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1029000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-874000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1712000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-7557000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1712000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1432000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-4733000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2766000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1733000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2827000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>588000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1117000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1009000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1186000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-989000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1006000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>155000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-19000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-386000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>602700</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>128800</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-107600</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-73900</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-1199800</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>1310400</v>
       </c>
     </row>
